--- a/data_files/level_1.xlsx
+++ b/data_files/level_1.xlsx
@@ -487,261 +487,6 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>**https://portal.hse.ru/progs**
-**О шаблоне «Сайт образовательной программы»**
-Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.
- Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение SEO-оптимизированного текста (SEO - search engine optimization) на главной странице  служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. 
-**Основные контакты**
-  Служба поддержки портала,  portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и страницу «Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,  УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,  Центр поддержки и мониторинга образовательных программ  Раздел «Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы «Рейтинги», «Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   
-**Основные документы**
-Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»
-Положение об основной образовательной программе высшего образования
- Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  
-**Как начать?**
-Если вы никогда ранее не работали с с сайтом образовательной программы (в т.ч. предыдущей версии), получите права редактора, написав с корпоративной почты письмо в свободной форме на адрес portal@hse.ru (служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом. 
-**Что делать, если программа новая и у нее еще нет сайта?**
-Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).
-**Какие материалы нужны для открытия сайта в базовой версии:**
- Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). 
-**Как подготовить SEO-оптимизированный текст на сайт**
-Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала. 
-Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.
-Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.
-**Структура сайта образовательной программы**
-Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.
- Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) 
-Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.
-Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.
-Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.
-**Шапка сайта образовательной программы**
-В шапке образовательной программы размещаются:
- Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП) служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс дня открытых дверей). 
-Размещение тизера в шапке сайта.
- Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору → Данные → Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. 
-**Главная страница программы**
-Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.
-Какие элементы есть на странице при открытии сайта:
-Метаинформация
- Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы действительно отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.  Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» 
-Университеты-партнеры образовательной программы
- Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип. Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. 
-Информация об ОП (раскрывающиеся блоки)
- Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. 
-Видео (опционально)
- На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению  к Шишкову Олегу Геннадьевичу или Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. 
-Важные объявления
- Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум — два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления» → «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! 
-Мероприятия
- Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле «Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.  Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом «Разместить в подразделении» (выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.  Для создания такой страницы нужно отправить запрос на адрес portal@hse.ru и приложить к письму наполнение для сайта.  
-Новости
- Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле «Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам, можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. 
-Похожие программы
- Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». 
-Вокруг нас (социальный блок)
- Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  
-Меню (правая колонка)
- Редактируется через Редактору → Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  
-Руководство программы (руководители, менеджеры)
- Раздел редактируется Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к Сюзанне Райан. 
-**Верхнее меню (разделы программы)**
-В верхнем меню находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.
-Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.
-Раздел О программе
- В данном разделе размещается общая информация о программе. В раздел «О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической страницы и что делать, если пункт меню помечен «замочком» 
-Раздел Абитуриентам (если есть набор)
- Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на portal@hse.ru.    В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» 
-Раздел Студентам (если есть студенты)
- Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел «Студентам» входят следующие обязательные пункты:  Рейтинги* (автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs) (статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.) (статстраница с техническим именем mobility) Практическая подготовка (статстраница с техническим именем internships) Каталог ВКР** (автоматическая страница с техническим именем diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена здесь. 
-Раздел Выпускникам (если есть информация для выпускников)
- Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  
-**Общее меню**
-Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.
-Учебные курсы
- Страница генерируется автоматически по адресу /courses на основе данных LMS. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
-Преподаватели
- Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
-Число студентов и вакантные бюджетные места
- Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. 
-Документы
- Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела «Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы. Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики – добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов  (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО - на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07, или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле  «Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.  Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. 
-Расписание
- Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».  
-Академический совет
- Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. 
-**Создание новой страницы и нового пункта меню **
-Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».
-Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе «Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей. 
-Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.
-Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.
-Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения измен</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/tables**
- Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  
-**Копирование таблицы из Word и Excel**
-В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.
-Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":
-Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.
-Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.
- Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. 
-**Создание таблицы в визуальном редакторе**
-Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку 
-В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).
-После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).
-Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).
-**Специальные шаблоны для создания таблиц**
-Таблицу можно также добавить через «специальные шаблоны». Нажмите на кнопку добавления специального элемента.
-Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.
-Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.
-Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/about**
-Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
-**Корпоративный портал (hse.ru) – это…**
-Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.
-**Новости и анонсы на главной странице портала**
-Управление по связям с общественностью  – основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.
-Чтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.
-**Персональные страницы**
-У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.
-Мы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо написать заявку на адрес portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.
-**База учебных курсов**
-Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.
-Если вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.
-**Сайты подразделений и образовательных программ**
-Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.
-Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.
-Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.
-Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.
-Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.
-По вопросам создания сайта обращайтесь, пожалуйста, на portal@hse.ru.
-**Английская версия портала**
-Англоязычный сайт Высшей школы экономики занял в 2015 году первое место в рейтинге сайтов университетов, составленном Российским советом по международным делам.
-Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения  (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.
-Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются  только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.
-Английская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в Отдел развития и поддержки англоязычной версии портала (Мария Бесова).
-При создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и  Стилистическим справочником.
-**Раздел «Цифры и факты»**
-В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.
-Когда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.
-**Система «Антиплагиат»**
-Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».
-Чтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.
-**Отчеты**
-Мы можем дать доступ к заполнению следующих электронных форм отчетов:
-отчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает Управление академического развития);
-отчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития). 
-Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.
-Чтобы получить доступ к отчету, достаточно написать письмо на адрес portal@hse.ru
-Пожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.
-**Новый функционал на портале**
-Разработкой портала занимается Управление разработки информационных систем портала. Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий и Дирекции по порталу и мобильным приложениям. Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол. 
-Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/persons**
-				Сотрудники
-Все подразделения
-Отдел развития и поддержки англоязычной версии портала
-Отдел развития и поддержки русскоязычной версии портала
-Учёные звания:
-Члены и члены-корреспонденты РАН и РАО
-Имеющие степень PhD
-Награды:
-Награжденные государственными наградами и почетными званиями
-Отмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти
-Отмеченные наградами и почетными званиями регионов и муниципальных образований
-Награжденные наградами иностранных государств
-Награжденные почетным знаком ВШЭ
-Лауреаты премии “Золотая Вышка”
-Награжденные медалями ВШЭ
-Отмеченные почетными грамотами университета
-Функционал:
-Ответственные за персональные страницы сотрудников
-Ответственные от факультетов и филиалов за редактирование страниц подразделений
-Сотрудники учебного офиса
-							Аболина Наталья Александровна
-Начальник управления
-Научные интересы
-web-технологии
-качество и контент сайта
-мониторинг качества образования
-мониторинг качества приема в вузы
-рейтинги высших учебных заведений
-юзабилити
-							Смирнова Людмила Викторовна
-Администратор
-Отдел развития и поддержки англоязычной версии портала
-							Никитина Мария Константиновна
-Главный редактор
-							Гриббен Кристофер Майкл
-Редактор
-							Соловова Екатерина Сергеевна
-Редактор
-							Черняховская Анна Мировна
-Редактор
-Отдел развития и поддержки русскоязычной версии портала
-							Фомичева Татьяна Александровна
-Начальник отдела
-Научные интересы
-Социология науки и образования
-инклюзивное образование
-интернет-исследования
-качество и контент сайта
-мониторинг качества образования
-социология семьи и детства
-университетские сайты
-							Бережная Лариса Георгиевна
-Дизайнер
-							Воробьева Татьяна Олеговна
-Редактор
-							Золотусская Мария Игоревна
-Редактор
-							Клименко Евгения Ивановна
-Редактор
-							Новикова Елена Геннадьевна
-Редактор
-Научные интересы
-мониторинг качества образования
-мониторинг качества приема в вузы
-							Чудаева Ольга Владимировна
-Редактор
-							Шушаков Максим Сергеевич
-Дизайнер
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t xml:space="preserve">**https://portal.hse.ru/personalpages**
 **У кого есть персональная страница и как она появляется на портале?**
 Сотрудники НИУ ВШЭ (за исключением сотрудников категории административно-хозяйственного персонала, не занимающих руководящие должности) обязаны иметь заполненную в соответствии со Стандартом персональную страницу.
@@ -900,11 +645,174 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/persons**
+				Сотрудники
+Все подразделения
+Отдел развития и поддержки англоязычной версии портала
+Отдел развития и поддержки русскоязычной версии портала
+Учёные звания:
+Члены и члены-корреспонденты РАН и РАО
+Имеющие степень PhD
+Награды:
+Награжденные государственными наградами и почетными званиями
+Отмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти
+Отмеченные наградами и почетными званиями регионов и муниципальных образований
+Награжденные наградами иностранных государств
+Награжденные почетным знаком ВШЭ
+Лауреаты премии “Золотая Вышка”
+Награжденные медалями ВШЭ
+Отмеченные почетными грамотами университета
+Функционал:
+Ответственные за персональные страницы сотрудников
+Ответственные от факультетов и филиалов за редактирование страниц подразделений
+Сотрудники учебного офиса
+							Аболина Наталья Александровна
+Начальник управления
+Научные интересы
+web-технологии
+качество и контент сайта
+мониторинг качества образования
+мониторинг качества приема в вузы
+рейтинги высших учебных заведений
+юзабилити
+							Смирнова Людмила Викторовна
+Администратор
+Отдел развития и поддержки англоязычной версии портала
+							Никитина Мария Константиновна
+Главный редактор
+							Гриббен Кристофер Майкл
+Редактор
+							Соловова Екатерина Сергеевна
+Редактор
+							Черняховская Анна Мировна
+Редактор
+Отдел развития и поддержки русскоязычной версии портала
+							Фомичева Татьяна Александровна
+Начальник отдела
+Научные интересы
+Социология науки и образования
+инклюзивное образование
+интернет-исследования
+качество и контент сайта
+мониторинг качества образования
+социология семьи и детства
+университетские сайты
+							Бережная Лариса Георгиевна
+Дизайнер
+							Воробьева Татьяна Олеговна
+Редактор
+							Золотусская Мария Игоревна
+Редактор
+							Клименко Евгения Ивановна
+Редактор
+							Новикова Елена Геннадьевна
+Редактор
+Научные интересы
+мониторинг качества образования
+мониторинг качества приема в вузы
+							Чудаева Ольга Владимировна
+Редактор
+							Шушаков Максим Сергеевич
+Дизайнер
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/about**
+Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
+**Корпоративный портал (hse.ru) – это…**
+Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.
+**Новости и анонсы на главной странице портала**
+Управление по связям с общественностью  – основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.
+Чтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.
+**Персональные страницы**
+У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.
+Мы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо написать заявку на адрес portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.
+**База учебных курсов**
+Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.
+Если вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.
+**Сайты подразделений и образовательных программ**
+Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.
+Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.
+Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.
+Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.
+Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.
+По вопросам создания сайта обращайтесь, пожалуйста, на portal@hse.ru.
+**Английская версия портала**
+Англоязычный сайт Высшей школы экономики занял в 2015 году первое место в рейтинге сайтов университетов, составленном Российским советом по международным делам.
+Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения  (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.
+Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются  только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.
+Английская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в Отдел развития и поддержки англоязычной версии портала (Мария Бесова).
+При создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и  Стилистическим справочником.
+**Раздел «Цифры и факты»**
+В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.
+Когда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.
+**Система «Антиплагиат»**
+Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».
+Чтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.
+**Отчеты**
+Мы можем дать доступ к заполнению следующих электронных форм отчетов:
+отчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает Управление академического развития);
+отчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития). 
+Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.
+Чтобы получить доступ к отчету, достаточно написать письмо на адрес portal@hse.ru
+Пожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.
+**Новый функционал на портале**
+Разработкой портала занимается Управление разработки информационных систем портала. Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий и Дирекции по порталу и мобильным приложениям. Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол. 
+Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/im**
+**https://portal.hse.ru/im**
+Сайты всех структурных подразделений должны соответствовать утвержденному стандарту.
+Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы фирменного стиля не могут противоречить брендбуку НИУ ВШЭ, а их использование должно быть согласовано с Отделом визуальных коммуникаций visual@hse.ru.
+Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).
+Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).
+Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.
+Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.
+Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.
+Заявку на создание сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый контент имеется для размещения. Подробности о дальнейших шагах будут содержаться в ответном письме.
+**https://portal.hse.ru/im**
+**Инструкции по работе с сайтом**
+  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  
+**https://portal.hse.ru/im**
+**Контакты редакторов сайтов подразделений**
+Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге
+**https://portal.hse.ru/im**
+**Часто задаваемые вопросы**
+О JavaScript и iframe на сайтах подразделений 
+**https://portal.hse.ru/im**
+**Шрифт**
+HSESans/HSESlab (ZIP, 228 Кб)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instr**
 Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.
@@ -962,34 +870,39 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
+Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
+Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
+Заявка должна быть отправлена с корпоративного адреса электронной почты.
+</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/im**
-**https://portal.hse.ru/im**
-Сайты всех структурных подразделений должны соответствовать утвержденному стандарту.
-Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы фирменного стиля не могут противоречить брендбуку НИУ ВШЭ, а их использование должно быть согласовано с Отделом визуальных коммуникаций visual@hse.ru.
-Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).
-Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).
-Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.
-Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.
-Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.
-Заявку на создание сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый контент имеется для размещения. Подробности о дальнейших шагах будут содержаться в ответном письме.
-**https://portal.hse.ru/im**
-**Инструкции по работе с сайтом**
-  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  
-**https://portal.hse.ru/im**
-**Контакты редакторов сайтов подразделений**
-Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге
-**https://portal.hse.ru/im**
-**Часто задаваемые вопросы**
-О JavaScript и iframe на сайтах подразделений 
-**https://portal.hse.ru/im**
-**Шрифт**
-HSESans/HSESlab (ZIP, 228 Кб)
+          <t xml:space="preserve">**https://portal.hse.ru/help**
+        		    Шаг 1
+Необходимо удостовериться, что ваша персональная страница появилась на сайте. Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала. 
+        		    Шаг 2
+Следует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина ввести адрес корпоративной почты сотрудника, в качестве пароля – пароль от этой почты.
+Если вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь на digital@hse.ru
+        		    Шаг 3
+В ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста, на portal@hse.ru.
+В письме укажите:
+• ФИО сотрудника
+• Адрес корпоративной почты
+Служба портала пропишет e-mail, и вы сможете войти.
+Письмо должно быть отправлено строго с корпоративной почты сотрудника @hse.ru 
 </t>
         </is>
       </c>
@@ -999,6 +912,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/resp**
+На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
+Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.
+В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.
+Ответственные от факультетов и филиалов за редактирование страниц подразделений
+Ответственные за персональные страницы сотрудников
+Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.
+Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)
+Ответственным от факультетов и филиалов за редактирование страниц подразделений
+Ответственным за персональные страницы сотрудников
+**Как изменить сведения об ответственных**
+**Добавление сотрудника:**
+Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.
+**Удаление сотрудника из списка**
+Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.
+Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/meta**
 В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
@@ -1030,11 +969,350 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/format**
+**https://portal.hse.ru/format**
+ Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  
+**https://portal.hse.ru/format**
+**Оформление**
+ Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.  Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru 
+**Вставка текста**
+При копировании информации из документа Microsoft Word используйте следующую последовательность действий:
+1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;
+2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;
+3) Удалите лишние пробелы и переносы строк;
+4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:
+Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter. 
+Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице. Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.
+**Списки**
+Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.
+Получается:
+   маркированный список маркированный список    нумерованный список нумерованный список  
+**Заголовки**
+Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".
+ Предусмотрены 6 уровней заголовков:
+**Заголовок 2**
+**Заголовок 3**
+**Заголовок 4**
+Заголовки используются последовательно, по мере понижения значимости информации. 
+Заголовок 1 — заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.
+Для выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".
+Заголовки — важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы. 
+**Якорь**
+Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.
+Чтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".
+Если ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".
+Если ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/format#anchor), нажать "вставить".
+**Вставка картинки/фото**
+При загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.
+1. Нажимаем кнопку "Загрузка и вставка картинки"
+2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра — размер в пикселях по ширине, вторая — размер в пикселях по высоте.
+3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.
+4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".
+5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".
+Если Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы).  Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу.  
+****
+**Загрузка файлов**
+Для размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:
+После этого откроется диалоговое окно загрузки файла:
+В поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.
+Нажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":
+После того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/tables**
+ Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  
+**Копирование таблицы из Word и Excel**
+В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.
+Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":
+Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.
+Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.
+ Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. 
+**Создание таблицы в визуальном редакторе**
+Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку 
+В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).
+После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).
+Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).
+**Специальные шаблоны для создания таблиц**
+Таблицу можно также добавить через «специальные шаблоны». Нажмите на кнопку добавления специального элемента.
+Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.
+Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.
+Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/pages**
+Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
+Создайте страницу, кликнув по иконке 
+При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
+Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
+Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
+Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
+В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
+После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
+После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
+Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
+Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
+Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/sostav**
+Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
+Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа — непосредственно поле для размещения виджетов и, соответственно, информации.
+Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. 
+Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.
+После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!
+**ВИДЖЕТЫ:**
+**Текст**
+ Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. В остальном принципы оформления текста те же, что и на простой статической странице. 
+**Изображения**
+ Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
+**Видео**
+ Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
+**Якорь**
+ Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
+**Цветные блоки**
+ Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке – их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
+**Связанные материалы**
+ Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
+**Список персон**
+ Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия – те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
+**Хронология**
+ С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    
+**Партнеры**
+ Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
+**Колонки**
+ Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  
+**Соцсети**
+ Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
+**Плашка**
+ Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  
+**Даты**
+ Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  
+**Цифра**
+ Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
+**Выпадайки**
+ Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  
+**Кнопка**
+ Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
+**Часто задаваемые вопросы**
+   Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/photo**
+Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
+Вы можете сами проверить свой сайт с помощью этого инструмента.
+Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
+ Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
+Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
+Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
+А для главной страницы типичной образовательной программы – так:
+Разница в объеме потенциально оптимизируемого – в 17 раз.
+Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
+К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/poll**
+**https://portal.hse.ru/poll**
+ Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
+**https://portal.hse.ru/poll**
+**Создание формы**
+Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
+Нажимаем на +, чтобы создать форму.
+Далее нужно указать:
+ название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
+Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
+Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
+Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
+Далее необходимо нажать на кнопку «Добавить блок вопросов».
+Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
+Пример блоков
+Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
+Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
+Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
+Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
+Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
+Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
+Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
+Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
+После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
+**https://portal.hse.ru/poll**
+**Дополнительные параметры**
+Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
+В открывшемся окне вы можете:
+ Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
+В разделе «Дополнительные параметры» вы также сможете:
+ Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
+Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
+Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
+**https://portal.hse.ru/poll**
+**Ссылка на форму/Клонирование/Выгрузка ответов**
+Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
+1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
+2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
+3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
+4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/metaunits**
+В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
+Здания
+Наука
+Поиск по подразделениям
+Сведения об образовательной организации
+Кроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).
+**Редактирование данных**
+Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.
+**Описание полей**
+Телефон и адрес
+Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.
+Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.
+Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.
+Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на portal@hse.ru.
+Почему важно указать телефон подразделения
+С вами будет удобнее связаться
+Только при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.
+Электронная почта
+Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.  
+Уровень подготовки
+Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы. 
+Тип подразделения по Яндексу (актуально только для крупных подразделений)
+Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов
+Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.
+Категория подразделения
+Скорее всего, категория уже проставлена. Если нет, то проставьте ее. 
+Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)
+Тематика исследований
+Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/nov**
+**https://portal.hse.ru/nov**
+ Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
+**https://portal.hse.ru/nov**
+Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
+ Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
+Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
+Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
+Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
+**Создание новости**
+Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
+Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
+Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
+Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
+Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
+При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
+Обязательно выбираете рубрику и ключевые слова.
+Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
+Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
+Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
+Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
+Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
+**Предосмотр новости**
+Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
+**Составной редактор**
+Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
+Далее следуем инструкции по составной странице.
+**Иллюстрация новости**
+Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
+Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
+Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
+Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
+Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
+**Копирование на другой сайт**
+Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
+В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
+Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
+Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
+На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
+Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
+**Сортировка сотрудников по должностям на странице**
+Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
+В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
+В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
+**Шаг 1**
+**Шаг 2**
+Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/tools**
 Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.
@@ -1088,334 +1366,11 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/poll**
-**https://portal.hse.ru/poll**
- Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
-**https://portal.hse.ru/poll**
-**Создание формы**
-Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
-Нажимаем на +, чтобы создать форму.
-Далее нужно указать:
- название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
-Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
-Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
-Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
-Далее необходимо нажать на кнопку «Добавить блок вопросов».
-Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
-Пример блоков
-Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
-Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
-Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
-Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
-Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
-Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
-Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
-Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
-После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
-**https://portal.hse.ru/poll**
-**Дополнительные параметры**
-Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
-В открывшемся окне вы можете:
- Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
-В разделе «Дополнительные параметры» вы также сможете:
- Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
-Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
-Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
-**https://portal.hse.ru/poll**
-**Ссылка на форму/Клонирование/Выгрузка ответов**
-Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
-1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
-2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
-3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
-4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/site**
- Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
-**Доступ к редактированию**
-Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
-Перейти к режиму редактирования сайта можно двумя способами:
- По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
-Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
-**Наполнение сайта**
-Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
- Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
-Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
-Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
-Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
-Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
-**Меню: основные ошибки**
- Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
-**Как вывести страницу «Сотрудники»?**
-Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
-Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
-Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
-**Размещение текстов: что можно и что нельзя**
-**Можно и нужно:**
- Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
- Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
-**Размещение новостей: на что обратить внимание**
- У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/seo_recommends**
- Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  
-**Заголовки страниц**
-Заголовки должны соответствовать содержанию страницы
-Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.
- Чего следует избегать:
- Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". 
-Используйте краткие, но содержательные заголовки
-Максимальная длина заголовка — 150 символов, оптимально — 60 символов.
-Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.
- Чего следует избегать:
- Слишком длинных заголовков, бесполезных для пользователей. 
-**Мета-описание страницы (тег description)**
-Описания должны точно отражать содержание страницы
-Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. 
- Чего следует избегать:
- Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. 
-Используйте разные описания для разных страниц
-Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.
- Чего следует избегать:
- Использования одного мета тега описания для всех или многих страниц сайта. 
-Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta
-**Заголовки в тексте (h2-h6)**
-Предназначение и примеры
-Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.
-Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.
-Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.
-Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.
-Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.
-В редакторе, данные заголовки можно найти в поле «Формат»:
-Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs
- Представьте, что вы пишете обзор
-Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.
- Чего следует избегать:
- Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив ) или &lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. 
- Не злоупотребляйте заголовками
-Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.
- Чего следует избегать:
- Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. 
-**Ссылки**
-Тщательно продумывайте тексты ссылок
-Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.
-Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.
-Используйте информативный текст
-Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.
- Чего следует избегать:
- Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). 
-Текст должен быть лаконичным
-Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.
- Чего следует избегать:
- Длинных текстов ссылки, например сложных предложений или целых абзацев. 
-Подберите текст ссылок и для внутренних URL
-Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.
- Чего следует избегать
- Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. 
-**Изображения**
-Используйте атрибут alt 
-Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.
-Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:
-Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.
-Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.
-Используйте краткие описательные имена файлов и текст в атрибутах alt
-Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.
- Чего следует избегать:
- Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. 
-Добавляйте текст в атрибуты alt, если используете изображения как ссылки
-Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.
- Чего следует избегать:
- Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. 
-**Общие рекомендации**
-Пишите легко читаемые тексты
-Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.
- Чего следует избегать:
- Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/format**
-**https://portal.hse.ru/format**
- Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  
-**https://portal.hse.ru/format**
-**Оформление**
- Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.  Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru 
-**Вставка текста**
-При копировании информации из документа Microsoft Word используйте следующую последовательность действий:
-1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;
-2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;
-3) Удалите лишние пробелы и переносы строк;
-4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:
-Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter. 
-Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице. Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.
-**Списки**
-Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.
-Получается:
-   маркированный список маркированный список    нумерованный список нумерованный список  
-**Заголовки**
-Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".
- Предусмотрены 6 уровней заголовков:
-**Заголовок 2**
-**Заголовок 3**
-**Заголовок 4**
-Заголовки используются последовательно, по мере понижения значимости информации. 
-Заголовок 1 — заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.
-Для выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".
-Заголовки — важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы. 
-**Якорь**
-Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.
-Чтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".
-Если ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".
-Если ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/format#anchor), нажать "вставить".
-**Вставка картинки/фото**
-При загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.
-1. Нажимаем кнопку "Загрузка и вставка картинки"
-2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра — размер в пикселях по ширине, вторая — размер в пикселях по высоте.
-3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.
-4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".
-5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".
-Если Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы).  Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу.  
-****
-**Загрузка файлов**
-Для размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:
-После этого откроется диалоговое окно загрузки файла:
-В поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.
-Нажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":
-После того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/sostav**
-Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
-Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа — непосредственно поле для размещения виджетов и, соответственно, информации.
-Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. 
-Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.
-После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!
-**ВИДЖЕТЫ:**
-**Текст**
- Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. В остальном принципы оформления текста те же, что и на простой статической странице. 
-**Изображения**
- Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
-**Видео**
- Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
-**Якорь**
- Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
-**Цветные блоки**
- Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке – их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
-**Связанные материалы**
- Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
-**Список персон**
- Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия – те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
-**Хронология**
- С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    
-**Партнеры**
- Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
-**Колонки**
- Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  
-**Соцсети**
- Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
-**Плашка**
- Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  
-**Даты**
- Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  
-**Цифра**
- Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
-**Выпадайки**
- Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  
-**Кнопка**
- Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
-**Часто задаваемые вопросы**
-   Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/pages**
-Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
-Создайте страницу, кликнув по иконке 
-При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
-Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
-Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
-Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
-В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
-После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
-После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
-Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
-Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
-Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/photo**
-Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
-Вы можете сами проверить свой сайт с помощью этого инструмента.
-Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
- Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
-Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
-Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
-А для главной страницы типичной образовательной программы – так:
-Разница в объеме потенциально оптимизируемого – в 17 раз.
-Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
-К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instann**
 **https://portal.hse.ru/instann**
@@ -1516,195 +1471,11 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/resp**
-На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
-Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.
-В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.
-Ответственные от факультетов и филиалов за редактирование страниц подразделений
-Ответственные за персональные страницы сотрудников
-Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.
-Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)
-Ответственным от факультетов и филиалов за редактирование страниц подразделений
-Ответственным за персональные страницы сотрудников
-**Как изменить сведения об ответственных**
-**Добавление сотрудника:**
-Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.
-**Удаление сотрудника из списка**
-Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.
-Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/metaunits**
-В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
-Здания
-Наука
-Поиск по подразделениям
-Сведения об образовательной организации
-Кроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).
-**Редактирование данных**
-Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.
-**Описание полей**
-Телефон и адрес
-Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.
-Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.
-Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.
-Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на portal@hse.ru.
-Почему важно указать телефон подразделения
-С вами будет удобнее связаться
-Только при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.
-Электронная почта
-Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.  
-Уровень подготовки
-Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы. 
-Тип подразделения по Яндексу (актуально только для крупных подразделений)
-Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов
-Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.
-Категория подразделения
-Скорее всего, категория уже проставлена. Если нет, то проставьте ее. 
-Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)
-Тематика исследований
-Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/nov**
-**https://portal.hse.ru/nov**
- Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
-**https://portal.hse.ru/nov**
-Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
- Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
-Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
-Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
-Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
-**Создание новости**
-Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
-Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
-Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
-Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
-Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
-При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
-Обязательно выбираете рубрику и ключевые слова.
-Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
-Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
-Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
-Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
-Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
-**Предосмотр новости**
-Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
-**Составной редактор**
-Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
-Далее следуем инструкции по составной странице.
-**Иллюстрация новости**
-Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
-Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
-Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
-Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
-Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
-**Копирование на другой сайт**
-Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
-В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
-Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
-Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
-</t>
-        </is>
-      </c>
-    </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
-Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
-Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
-Заявка должна быть отправлена с корпоративного адреса электронной почты.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/help**
-        		    Шаг 1
-Необходимо удостовериться, что ваша персональная страница появилась на сайте. Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала. 
-        		    Шаг 2
-Следует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина ввести адрес корпоративной почты сотрудника, в качестве пароля – пароль от этой почты.
-Если вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь на digital@hse.ru
-        		    Шаг 3
-В ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста, на portal@hse.ru.
-В письме укажите:
-• ФИО сотрудника
-• Адрес корпоративной почты
-Служба портала пропишет e-mail, и вы сможете войти.
-Письмо должно быть отправлено строго с корпоративной почты сотрудника @hse.ru 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
-На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
-Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
-**Сортировка сотрудников по должностям на странице**
-Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
-В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
-В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
-**Шаг 1**
-**Шаг 2**
-Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/script**
-Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
-Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/slider_banners**
 **https://portal.hse.ru/slider_banners**
@@ -1731,11 +1502,144 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/site**
+ Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
+**Доступ к редактированию**
+Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
+Перейти к режиму редактирования сайта можно двумя способами:
+ По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
+Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
+**Наполнение сайта**
+Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
+ Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
+Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
+Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
+Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
+Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
+**Меню: основные ошибки**
+ Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
+**Как вывести страницу «Сотрудники»?**
+Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
+Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
+Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
+**Размещение текстов: что можно и что нельзя**
+**Можно и нужно:**
+ Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
+ Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
+**Размещение новостей: на что обратить внимание**
+ У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/seo_recommends**
+ Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  
+**Заголовки страниц**
+Заголовки должны соответствовать содержанию страницы
+Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.
+ Чего следует избегать:
+ Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". 
+Используйте краткие, но содержательные заголовки
+Максимальная длина заголовка — 150 символов, оптимально — 60 символов.
+Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.
+ Чего следует избегать:
+ Слишком длинных заголовков, бесполезных для пользователей. 
+**Мета-описание страницы (тег description)**
+Описания должны точно отражать содержание страницы
+Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. 
+ Чего следует избегать:
+ Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. 
+Используйте разные описания для разных страниц
+Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.
+ Чего следует избегать:
+ Использования одного мета тега описания для всех или многих страниц сайта. 
+Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta
+**Заголовки в тексте (h2-h6)**
+Предназначение и примеры
+Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.
+Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.
+Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.
+Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.
+Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.
+В редакторе, данные заголовки можно найти в поле «Формат»:
+Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs
+ Представьте, что вы пишете обзор
+Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.
+ Чего следует избегать:
+ Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив ) или &lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. 
+ Не злоупотребляйте заголовками
+Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.
+ Чего следует избегать:
+ Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. 
+**Ссылки**
+Тщательно продумывайте тексты ссылок
+Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.
+Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.
+Используйте информативный текст
+Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.
+ Чего следует избегать:
+ Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). 
+Текст должен быть лаконичным
+Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.
+ Чего следует избегать:
+ Длинных текстов ссылки, например сложных предложений или целых абзацев. 
+Подберите текст ссылок и для внутренних URL
+Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.
+ Чего следует избегать
+ Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. 
+**Изображения**
+Используйте атрибут alt 
+Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.
+Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:
+Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.
+Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.
+Используйте краткие описательные имена файлов и текст в атрибутах alt
+Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.
+ Чего следует избегать:
+ Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. 
+Добавляйте текст в атрибуты alt, если используете изображения как ссылки
+Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.
+ Чего следует избегать:
+ Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. 
+**Общие рекомендации**
+Пишите легко читаемые тексты
+Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.
+ Чего следует избегать:
+ Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/script**
+Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
+Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/events**
 **https://portal.hse.ru/events**
@@ -1771,11 +1675,11 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/landing**
 **https://portal.hse.ru/landing**
@@ -1841,11 +1745,11 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/header-banner**
 **Простой вариант**
@@ -1866,11 +1770,11 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instev**
 Вход в редакторский режим https://www.hse.ru/adm/  Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).
@@ -1920,6 +1824,102 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>**https://portal.hse.ru/progs**
+**О шаблоне «Сайт образовательной программы»**
+Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.
+ Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение SEO-оптимизированного текста (SEO - search engine optimization) на главной странице  служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. 
+**Основные контакты**
+  Служба поддержки портала,  portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и страницу «Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,  УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,  Центр поддержки и мониторинга образовательных программ  Раздел «Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы «Рейтинги», «Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   
+**Основные документы**
+Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»
+Положение об основной образовательной программе высшего образования
+ Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  
+**Как начать?**
+Если вы никогда ранее не работали с с сайтом образовательной программы (в т.ч. предыдущей версии), получите права редактора, написав с корпоративной почты письмо в свободной форме на адрес portal@hse.ru (служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом. 
+**Что делать, если программа новая и у нее еще нет сайта?**
+Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).
+**Какие материалы нужны для открытия сайта в базовой версии:**
+ Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). 
+**Как подготовить SEO-оптимизированный текст на сайт**
+Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала. 
+Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.
+Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.
+**Структура сайта образовательной программы**
+Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.
+ Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) 
+Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.
+Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.
+Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.
+**Шапка сайта образовательной программы**
+В шапке образовательной программы размещаются:
+ Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП) служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс дня открытых дверей). 
+Размещение тизера в шапке сайта.
+ Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору → Данные → Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. 
+**Главная страница программы**
+Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.
+Какие элементы есть на странице при открытии сайта:
+Метаинформация
+ Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы действительно отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.  Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» 
+Университеты-партнеры образовательной программы
+ Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип. Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. 
+Информация об ОП (раскрывающиеся блоки)
+ Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. 
+Видео (опционально)
+ На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению  к Шишкову Олегу Геннадьевичу или Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. 
+Важные объявления
+ Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум — два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления» → «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! 
+Мероприятия
+ Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле «Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.  Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом «Разместить в подразделении» (выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.  Для создания такой страницы нужно отправить запрос на адрес portal@hse.ru и приложить к письму наполнение для сайта.  
+Новости
+ Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле «Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам, можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. 
+Похожие программы
+ Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». 
+Вокруг нас (социальный блок)
+ Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  
+Меню (правая колонка)
+ Редактируется через Редактору → Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  
+Руководство программы (руководители, менеджеры)
+ Раздел редактируется Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к Сюзанне Райан. 
+**Верхнее меню (разделы программы)**
+В верхнем меню находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.
+Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.
+Раздел О программе
+ В данном разделе размещается общая информация о программе. В раздел «О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической страницы и что делать, если пункт меню помечен «замочком» 
+Раздел Абитуриентам (если есть набор)
+ Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на portal@hse.ru.    В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» 
+Раздел Студентам (если есть студенты)
+ Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел «Студентам» входят следующие обязательные пункты:  Рейтинги* (автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs) (статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.) (статстраница с техническим именем mobility) Практическая подготовка (статстраница с техническим именем internships) Каталог ВКР** (автоматическая страница с техническим именем diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена здесь. 
+Раздел Выпускникам (если есть информация для выпускников)
+ Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  
+**Общее меню**
+Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.
+Учебные курсы
+ Страница генерируется автоматически по адресу /courses на основе данных LMS. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
+Преподаватели
+ Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
+Число студентов и вакантные бюджетные места
+ Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. 
+Документы
+ Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела «Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы. Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики – добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов  (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО - на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07, или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле  «Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.  Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. 
+Расписание
+ Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».  
+Академический совет
+ Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. 
+**Создание новой страницы и нового пункта меню **
+Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».
+Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе «Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей. 
+Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.
+Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.
+Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения измен</t>
+        </is>
+      </c>
+    </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
@@ -1948,8 +1948,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
-Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
+          <t xml:space="preserve">**https://portal.hse.ru/analytics**
+На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.
+Вопросами, связанными с посещаемостью страниц портала, занимается Отдел веб-аналитики и моделирования.
+**Доступ к аналитике**
+**Предоставление доступа для специалистов по привлечению трафика или рекламных агентств**
+ Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). 
+**Предоставление доступа сотрудникам ВШЭ**
+Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.
+Доступ предоставляется в течение одного рабочего дня.
+Запрос на предоставление доступа
+**Как узнать посещаемость сайта**
+**В Яндекс.Метрике**
+Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, — использовать сервис стандартных отчетов «Заголовки страниц».
+В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу https://yandex.ru/support/metrika/
+**В Google Analytics**
+В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение → Контент сайта → Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).
+Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток. Подробная пользовательская инструкция Google Analytics находится по адресу https://support.google.com/analytics/
+**Как узнать число скачиваний файлов**
+**В Яндекс.Метрике**
+Стандартный отчет формируется так: Отчеты → Стандартные отчеты → Содержание → Загрузки файлов.
+Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.
+**В Google Analytics**
+В меню сервиса выбирается вкладка Поведение → События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).
+Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.
 </t>
         </is>
       </c>
@@ -1959,6 +1981,71 @@
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/elibrary**
+С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ. Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.
+Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.
+Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.
+ВНИМАНИЕ! Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.
+Инструкции
+Регистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора
+**Регистрация в Science Index**
+Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.
+Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».
+**Внесение данных в регистрационную анкету и улучшение автоматической привязки публикаций**
+При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет → Профиль автора → Регистрационная карточка автора.
+1. Проверьте, указана ли аффилиация с НИУ ВШЭ
+2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций
+В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.
+3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.
+Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.
+После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.
+**Работа со списком публикаций**
+После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.
+1. Начните с просмотра списка ваших публикаций (Профиль автора → Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.
+Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».
+2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору». В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».
+3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.
+4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.
+**Работа со ссылками на публикации**
+Работа со ссылками во многом напоминает работу с публикациями
+1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».
+2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».
+В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».
+3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».
+4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).
+**Порядок обращения к ответственным от подразделений**
+Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.
+Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.
+Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.
+Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.
+В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).
+Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:
+**Анализ публикационной активности автора**
+Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.
+Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».
+Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
+Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/dpo_new**
 **https://portal.hse.ru/dpo_new**
@@ -2116,11 +2203,11 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/aspresponsible**
 **https://portal.hse.ru/aspresponsible**
@@ -2151,11 +2238,11 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/pay**
 На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес underground@hse.ru. Срок оказания услуги — 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.
@@ -2181,93 +2268,6 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/elibrary**
-С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ. Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.
-Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.
-Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.
-ВНИМАНИЕ! Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.
-Инструкции
-Регистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора
-**Регистрация в Science Index**
-Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.
-Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».
-**Внесение данных в регистрационную анкету и улучшение автоматической привязки публикаций**
-При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет → Профиль автора → Регистрационная карточка автора.
-1. Проверьте, указана ли аффилиация с НИУ ВШЭ
-2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций
-В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.
-3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.
-Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.
-После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.
-**Работа со списком публикаций**
-После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.
-1. Начните с просмотра списка ваших публикаций (Профиль автора → Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.
-Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».
-2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору». В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».
-3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.
-4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.
-**Работа со ссылками на публикации**
-Работа со ссылками во многом напоминает работу с публикациями
-1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».
-2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».
-В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».
-3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».
-4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).
-**Порядок обращения к ответственным от подразделений**
-Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.
-Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.
-Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.
-Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.
-В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).
-Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:
-**Анализ публикационной активности автора**
-Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.
-Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».
-Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/analytics**
-На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.
-Вопросами, связанными с посещаемостью страниц портала, занимается Отдел веб-аналитики и моделирования.
-**Доступ к аналитике**
-**Предоставление доступа для специалистов по привлечению трафика или рекламных агентств**
- Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). 
-**Предоставление доступа сотрудникам ВШЭ**
-Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.
-Доступ предоставляется в течение одного рабочего дня.
-Запрос на предоставление доступа
-**Как узнать посещаемость сайта**
-**В Яндекс.Метрике**
-Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, — использовать сервис стандартных отчетов «Заголовки страниц».
-В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу https://yandex.ru/support/metrika/
-**В Google Analytics**
-В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение → Контент сайта → Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).
-Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток. Подробная пользовательская инструкция Google Analytics находится по адресу https://support.google.com/analytics/
-**Как узнать число скачиваний файлов**
-**В Яндекс.Метрике**
-Стандартный отчет формируется так: Отчеты → Стандартные отчеты → Содержание → Загрузки файлов.
-Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.
-**В Google Analytics**
-В меню сервиса выбирается вкладка Поведение → События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).
-Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.
-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_files/level_1.xlsx
+++ b/data_files/level_1.xlsx
@@ -651,6 +651,81 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">**https://portal.hse.ru/about**
+Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
+**Корпоративный портал (hse.ru) – это…**
+Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.
+**Новости и анонсы на главной странице портала**
+Управление по связям с общественностью  – основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.
+Чтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.
+**Персональные страницы**
+У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.
+Мы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо написать заявку на адрес portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.
+**База учебных курсов**
+Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.
+Если вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.
+**Сайты подразделений и образовательных программ**
+Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.
+Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.
+Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.
+Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.
+Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.
+По вопросам создания сайта обращайтесь, пожалуйста, на portal@hse.ru.
+**Английская версия портала**
+Англоязычный сайт Высшей школы экономики занял в 2015 году первое место в рейтинге сайтов университетов, составленном Российским советом по международным делам.
+Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения  (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.
+Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются  только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.
+Английская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в Отдел развития и поддержки англоязычной версии портала (Мария Бесова).
+При создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и  Стилистическим справочником.
+**Раздел «Цифры и факты»**
+В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.
+Когда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.
+**Система «Антиплагиат»**
+Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».
+Чтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.
+**Отчеты**
+Мы можем дать доступ к заполнению следующих электронных форм отчетов:
+отчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает Управление академического развития);
+отчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития). 
+Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.
+Чтобы получить доступ к отчету, достаточно написать письмо на адрес portal@hse.ru
+Пожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.
+**Новый функционал на портале**
+Разработкой портала занимается Управление разработки информационных систем портала. Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий и Дирекции по порталу и мобильным приложениям. Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол. 
+Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/help**
+        		    Шаг 1
+Необходимо удостовериться, что ваша персональная страница появилась на сайте. Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала. 
+        		    Шаг 2
+Следует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина ввести адрес корпоративной почты сотрудника, в качестве пароля – пароль от этой почты.
+Если вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь на digital@hse.ru
+        		    Шаг 3
+В ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста, на portal@hse.ru.
+В письме укажите:
+• ФИО сотрудника
+• Адрес корпоративной почты
+Служба портала пропишет e-mail, и вы сможете войти.
+Письмо должно быть отправлено строго с корпоративной почты сотрудника @hse.ru 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t xml:space="preserve">**https://portal.hse.ru/persons**
 				Сотрудники
 Все подразделения
@@ -724,148 +799,42 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/about**
-Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
-**Корпоративный портал (hse.ru) – это…**
-Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.
-**Новости и анонсы на главной странице портала**
-Управление по связям с общественностью  – основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.
-Чтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.
-**Персональные страницы**
-У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.
-Мы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо написать заявку на адрес portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.
-**База учебных курсов**
-Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.
-Если вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.
-**Сайты подразделений и образовательных программ**
-Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.
-Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.
-Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.
-Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.
-Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.
-По вопросам создания сайта обращайтесь, пожалуйста, на portal@hse.ru.
-**Английская версия портала**
-Англоязычный сайт Высшей школы экономики занял в 2015 году первое место в рейтинге сайтов университетов, составленном Российским советом по международным делам.
-Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения  (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.
-Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются  только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.
-Английская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в Отдел развития и поддержки англоязычной версии портала (Мария Бесова).
-При создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и  Стилистическим справочником.
-**Раздел «Цифры и факты»**
-В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.
-Когда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.
-**Система «Антиплагиат»**
-Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».
-Чтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.
-**Отчеты**
-Мы можем дать доступ к заполнению следующих электронных форм отчетов:
-отчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает Управление академического развития);
-отчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития). 
-Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.
-Чтобы получить доступ к отчету, достаточно написать письмо на адрес portal@hse.ru
-Пожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.
-**Новый функционал на портале**
-Разработкой портала занимается Управление разработки информационных систем портала. Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий и Дирекции по порталу и мобильным приложениям. Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол. 
-Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/im**
-**https://portal.hse.ru/im**
-Сайты всех структурных подразделений должны соответствовать утвержденному стандарту.
-Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы фирменного стиля не могут противоречить брендбуку НИУ ВШЭ, а их использование должно быть согласовано с Отделом визуальных коммуникаций visual@hse.ru.
-Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).
-Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).
-Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.
-Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.
-Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.
-Заявку на создание сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый контент имеется для размещения. Подробности о дальнейших шагах будут содержаться в ответном письме.
-**https://portal.hse.ru/im**
-**Инструкции по работе с сайтом**
-  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  
-**https://portal.hse.ru/im**
-**Контакты редакторов сайтов подразделений**
-Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге
-**https://portal.hse.ru/im**
-**Часто задаваемые вопросы**
-О JavaScript и iframe на сайтах подразделений 
-**https://portal.hse.ru/im**
-**Шрифт**
-HSESans/HSESlab (ZIP, 228 Кб)
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/instr**
-Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.
- Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  
-**Персональная страница**
-Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.
-Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.
-Для активации английской версии необходимо в личном кабинете:
- Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень 
- Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) 
- и далее поставить статус  «Черновик».
-После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.
-Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).
-Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.
-В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».
-**Подразделения**
-**Кому заводятся английские версии?**
-Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала Марии Никитиной.
-Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.
-Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.
-**Как открыть английскую версию сайта?**
- Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! 
- Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. 
- Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." 
-**Кто может редактировать английскую версию сайта?**
-Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.
-**Что нужно иметь в виду при работе с английской версией сайта?**
- Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. 
- Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием) главному редактору англоязычной версии портала Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. 
-**Новости**
- Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении» – «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). 
- Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. 
-**Анонсы и важные объявления**
- Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). 
-**Образовательные программы**
-Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.
-Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.
-Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".
-Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.
-**Что нужно иметь в виду при работе с английской версией сайта:**
-Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.
- Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  
- Раздел ABOUT 
-Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career  
- Раздел FOR PROSPECTIVE STUDENTS 
-Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница)  
- Раздел FOR STUDENTS - рекомендованные ссылки и страницы 
-Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs
- Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной  программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events             Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply      Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы         Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)    Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР)     Term Papers and Student Theses     Итоговая аттестация     Final Assessment     Рекомендованные онлайн-курсы     Recommended MOOCs      Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  
-**Новости**
- Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. 
-**Анонсы и важные объявления**
- Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). 
+          <t xml:space="preserve">**https://portal.hse.ru/events**
+**https://portal.hse.ru/events**
+ Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  
+**https://portal.hse.ru/events**
+**Как опубликовать анонс на главной странице портала**
+Для публикации анонса на главной странице портала в разделе «Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).
+Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).
+Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).
+Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).
+Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.
+Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях.  
+**https://portal.hse.ru/events**
+**Обязательные требования к анонсам**
+ название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками 
+В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.
+На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.
+Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.
+**Размещение анонсов на сайте подразделения**
+На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.
+Инструкция по размещению анонсов
+**https://portal.hse.ru/events**
+**Как создать подписку на анонсы подразделения**
+Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.
+Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение → скопируйте появившуюся в адресной строке браузера ссылку → добавьте ссылку на подписку в нужный вам раздел сайта. 
+**https://portal.hse.ru/events**
+**Как создать сайт мероприятия**
+Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.
+Сотрудники портала заводят сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также помогает с оформлением в части, где нужна сложная верстка.
+Для того чтобы заказать сайт мероприятия, необходимо прислать на portal@hse.ru заявку, в которой указывается:
+ желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за редактирование сайта. 
 </t>
         </is>
       </c>
@@ -875,502 +844,6 @@
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
-Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
-Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
-Заявка должна быть отправлена с корпоративного адреса электронной почты.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/help**
-        		    Шаг 1
-Необходимо удостовериться, что ваша персональная страница появилась на сайте. Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала. 
-        		    Шаг 2
-Следует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина ввести адрес корпоративной почты сотрудника, в качестве пароля – пароль от этой почты.
-Если вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь на digital@hse.ru
-        		    Шаг 3
-В ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста, на portal@hse.ru.
-В письме укажите:
-• ФИО сотрудника
-• Адрес корпоративной почты
-Служба портала пропишет e-mail, и вы сможете войти.
-Письмо должно быть отправлено строго с корпоративной почты сотрудника @hse.ru 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/resp**
-На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
-Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.
-В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.
-Ответственные от факультетов и филиалов за редактирование страниц подразделений
-Ответственные за персональные страницы сотрудников
-Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.
-Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)
-Ответственным от факультетов и филиалов за редактирование страниц подразделений
-Ответственным за персональные страницы сотрудников
-**Как изменить сведения об ответственных**
-**Добавление сотрудника:**
-Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.
-**Удаление сотрудника из списка**
-Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.
-Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/meta**
-В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
- Быстрые ссылки  Описание документа Соцсети  
-**Описание документа**
-Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов. Большая просьба также заполнить его для уже созданных сайтов и статических страниц.
-Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).
-Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст. 
-**Рекомендации по составлению мета-описаний (c сайта Яндекса):**
- Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. 
-**Примеры плохих мета-описаний (с сайта Яндекса):**
- Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. 
-**Примеры правильного заполнения мета-описаний:**
-https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ
-description: В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.
-https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ
-description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.
-https://www.hse.ru/figures/ Цифры и факты
-description: Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.
-https://ma.hse.ru/ Абитуриентам магистратуры
-description: Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.
-**Соцсети**
-Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.
-На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.
-Картинка 1: когда все заполнено
-Картинка 2: когда ничего не заполнено
-Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со искомой страницы и учтет внесенные на нее изменения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/format**
-**https://portal.hse.ru/format**
- Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  
-**https://portal.hse.ru/format**
-**Оформление**
- Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.  Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru 
-**Вставка текста**
-При копировании информации из документа Microsoft Word используйте следующую последовательность действий:
-1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;
-2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;
-3) Удалите лишние пробелы и переносы строк;
-4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:
-Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter. 
-Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице. Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.
-**Списки**
-Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.
-Получается:
-   маркированный список маркированный список    нумерованный список нумерованный список  
-**Заголовки**
-Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".
- Предусмотрены 6 уровней заголовков:
-**Заголовок 2**
-**Заголовок 3**
-**Заголовок 4**
-Заголовки используются последовательно, по мере понижения значимости информации. 
-Заголовок 1 — заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.
-Для выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".
-Заголовки — важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы. 
-**Якорь**
-Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.
-Чтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".
-Если ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".
-Если ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/format#anchor), нажать "вставить".
-**Вставка картинки/фото**
-При загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.
-1. Нажимаем кнопку "Загрузка и вставка картинки"
-2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра — размер в пикселях по ширине, вторая — размер в пикселях по высоте.
-3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.
-4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".
-5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".
-Если Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы).  Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу.  
-****
-**Загрузка файлов**
-Для размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:
-После этого откроется диалоговое окно загрузки файла:
-В поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.
-Нажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":
-После того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/tables**
- Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  
-**Копирование таблицы из Word и Excel**
-В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.
-Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":
-Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.
-Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.
- Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. 
-**Создание таблицы в визуальном редакторе**
-Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку 
-В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).
-После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).
-Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).
-**Специальные шаблоны для создания таблиц**
-Таблицу можно также добавить через «специальные шаблоны». Нажмите на кнопку добавления специального элемента.
-Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.
-Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.
-Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/pages**
-Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
-Создайте страницу, кликнув по иконке 
-При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
-Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
-Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
-Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
-В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
-После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
-После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
-Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
-Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
-Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/sostav**
-Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
-Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа — непосредственно поле для размещения виджетов и, соответственно, информации.
-Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. 
-Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.
-После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!
-**ВИДЖЕТЫ:**
-**Текст**
- Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. В остальном принципы оформления текста те же, что и на простой статической странице. 
-**Изображения**
- Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
-**Видео**
- Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
-**Якорь**
- Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
-**Цветные блоки**
- Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке – их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
-**Связанные материалы**
- Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
-**Список персон**
- Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия – те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
-**Хронология**
- С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    
-**Партнеры**
- Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
-**Колонки**
- Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  
-**Соцсети**
- Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
-**Плашка**
- Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  
-**Даты**
- Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  
-**Цифра**
- Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
-**Выпадайки**
- Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  
-**Кнопка**
- Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
-**Часто задаваемые вопросы**
-   Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/photo**
-Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
-Вы можете сами проверить свой сайт с помощью этого инструмента.
-Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
- Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
-Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
-Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
-А для главной страницы типичной образовательной программы – так:
-Разница в объеме потенциально оптимизируемого – в 17 раз.
-Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
-К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/poll**
-**https://portal.hse.ru/poll**
- Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
-**https://portal.hse.ru/poll**
-**Создание формы**
-Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
-Нажимаем на +, чтобы создать форму.
-Далее нужно указать:
- название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
-Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
-Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
-Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
-Далее необходимо нажать на кнопку «Добавить блок вопросов».
-Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
-Пример блоков
-Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
-Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
-Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
-Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
-Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
-Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
-Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
-Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
-После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
-**https://portal.hse.ru/poll**
-**Дополнительные параметры**
-Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
-В открывшемся окне вы можете:
- Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
-В разделе «Дополнительные параметры» вы также сможете:
- Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
-Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
-Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
-**https://portal.hse.ru/poll**
-**Ссылка на форму/Клонирование/Выгрузка ответов**
-Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
-1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
-2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
-3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
-4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/metaunits**
-В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
-Здания
-Наука
-Поиск по подразделениям
-Сведения об образовательной организации
-Кроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).
-**Редактирование данных**
-Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.
-**Описание полей**
-Телефон и адрес
-Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.
-Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.
-Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.
-Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на portal@hse.ru.
-Почему важно указать телефон подразделения
-С вами будет удобнее связаться
-Только при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.
-Электронная почта
-Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.  
-Уровень подготовки
-Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы. 
-Тип подразделения по Яндексу (актуально только для крупных подразделений)
-Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов
-Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.
-Категория подразделения
-Скорее всего, категория уже проставлена. Если нет, то проставьте ее. 
-Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)
-Тематика исследований
-Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/nov**
-**https://portal.hse.ru/nov**
- Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
-**https://portal.hse.ru/nov**
-Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
- Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
-Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
-Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
-Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
-**Создание новости**
-Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
-Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
-Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
-Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
-Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
-При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
-Обязательно выбираете рубрику и ключевые слова.
-Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
-Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
-Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
-Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
-Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
-**Предосмотр новости**
-Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
-**Составной редактор**
-Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
-Далее следуем инструкции по составной странице.
-**Иллюстрация новости**
-Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
-Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
-Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
-Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
-Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
-**Копирование на другой сайт**
-Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
-В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
-Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
-Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
-На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
-Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
-**Сортировка сотрудников по должностям на странице**
-Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
-В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
-В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
-**Шаг 1**
-**Шаг 2**
-Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/tools**
-Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.
-На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).
-Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.
-А на этой странице собраны ссылки на зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками Дирекции по порталу и мобильным приложениям  в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы пользуетесь удобным ресурсом, о котором мы еще не знаем, присылайте информацию на адрес dkoptubenko@hse.ru.
-**Обработка фотографий**
-Colordot — инструмент для определения HTML-кода для требуемого цвета. В отличие от аналогов имеет визуально удобную палитру
-Pixlr — не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений
-TinyPNG — один из проверенных инструментов для сжатия изображений перед публикацией их на сайте
-**Бесплатные фотобанки**
-Unsplash — изумительной красоты фотографии, в основном, видовые
-Gratisography — бесплатные жанровые фотографии
-StockSnap.io — каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений
-Picjumbo — платный ресурс, но часть фотографий можно брать оттуда за просто так
-Picography — небольшая по объему коллекция бесплатных фотографий
-Library of Congress — исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения
-Morguefile — в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки
-Textures — подборка паттернов и фоновых изображений
-L+T — альтернативный сервис по подборке фоновых изображений
-FreeStockTextures — более 800 паттернов
-TextureZoom — тематические текстуры
-**Решения для инфографики**
-draw.io — интерактивные блок-схемы мы создаем при помощи этого инструмента
-easelly — простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось
-MyBalsamiq — сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами
-**Визуальные решения для сайта**
-StoryMap — с его помощью можно создавать интерактивные карты.
-Juxtapose — элегантный инструмент для демонстрации изменений на однотипных объектах. С помощью слайдера пользователь может сравнить, как было, и как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с одного ракурса
-Timeline JS — с его помощью можно создавать таймлайны (интерактивные истории, растянутые во времени). На портале использовался, например, при создании страницы к 20-летию нижегородского кампуса
-Soundcite — инструмент для создания аудиопрезентаций
-Prezi — мощная альтернатива Powerpoint для создания презентаций
-Fliphtml5 — инструмент для размещения pdf-файлов в виде раскрытой книги с возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.
-Формулы — инструмент для отображения формул на сайте. 
-**Создание опросов**
-Google Формы — бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за периметром портала. Для формирования опросных или регистрационных форм на портале есть штатный инструмент
-**Работа с соцсетями**
-ВКонтакте pages.clearCache —  инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и учтет внесенные на нее изменения
-vk.com/cc — инструмент для генерации коротких ссылок для «ВКонтакте»
-SMMPlanner — отложенный постинг в социальные сети
-Ezgif — создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)
-Make Beliefs Comix — создание комиксов
-**Оптимизация файлов**
-Онлайн-инструменты для любителей PDF — полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.
-**Узнать больше**
-Tutorialspoint — обширный набор учебников и инструкций: как пользоваться MS Word, Powepoint, Excel и сотнями других программ и приложений
-html academy — на сайте есть отличный бесплатный базовый курс по html и css, «настольная книга» для каждого, кто имеет доступ к редактированию страниц на портале
-Codecademy — интерактивные курсы по программированию
-https://smmplanner.com/
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instann**
 **https://portal.hse.ru/instann**
@@ -1471,215 +944,296 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/slider_banners**
-**https://portal.hse.ru/slider_banners**
-Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.
-**https://portal.hse.ru/slider_banners**
- Заголовок. Несколько слов, кратко и емко описывающих тему. Если заголовок будет слишком длинным, вместе с текстом анонса он может не поместиться на мобильной версии.
-Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у заголовка.
- Как на мобильной версии скрыть часть анонса Если вы видите, что на экране мобильного текст анонса не помещается полностью, оберните его в тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на мобильном и скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; 
-**https://portal.hse.ru/slider_banners**
-**Как оформить баннер**
-Существует два варианта оформления баннера: заливка цветом и фоновая картинка.
-По умолчанию редактор предлагает стиль Amethyst и другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих цветов.
-Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»
-Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине. Перед загрузкой картинки необходимо оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.  На этой странице вы найдете ссылки на бесплатные фотобанки и фотографии нашего университета. Используя их, вы можете быть уверены, что не нарушаете авторские права. На баннерах нельзя размещать изображения с готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и текст на нем теряется, его можно затемнить.
- Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в программе, выбираем в верхнем меню — Изображение — Коррекция — Кривые или используем горячие клавиши Ctrl + M. Далее с помощью изменения точек кривой затемняем изображение до нужного уровня. 
-Стили CSS. В этом поле можно установить позиционирование фонового баннера на странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в примере выше это .vp) должно быть уникальным для каждого баннера и написанным на латинице. Так, .vp — cокращение от «Высший пилотаж». Используйте следующий код, заменив первое значение:
-.vp.splash.pseudo { background-position: 50% 25%; }
-CSS класс. Чтобы стили работали, скопируйте значение первого класса из Стилей CSS, но без точки (в примере это vp).
-Темный текст. Устанавливаете, если фон сплешки светлый.
-**https://portal.hse.ru/slider_banners**
-**Как скрыть/удалить баннер**
-Если вам нужно скрыть баннер, делаете его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать на крестик в правом углу и сохранить изменения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/site**
- Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
-**Доступ к редактированию**
-Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
-Перейти к режиму редактирования сайта можно двумя способами:
- По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
-Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
-**Наполнение сайта**
-Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
- Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
-Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
-Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
-Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
-Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
-**Меню: основные ошибки**
- Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
-**Как вывести страницу «Сотрудники»?**
-Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
-Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
-Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
-**Размещение текстов: что можно и что нельзя**
-**Можно и нужно:**
- Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
- Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
-**Размещение новостей: на что обратить внимание**
- У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/seo_recommends**
- Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  
-**Заголовки страниц**
-Заголовки должны соответствовать содержанию страницы
-Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.
- Чего следует избегать:
- Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". 
-Используйте краткие, но содержательные заголовки
-Максимальная длина заголовка — 150 символов, оптимально — 60 символов.
-Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.
- Чего следует избегать:
- Слишком длинных заголовков, бесполезных для пользователей. 
-**Мета-описание страницы (тег description)**
-Описания должны точно отражать содержание страницы
-Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. 
- Чего следует избегать:
- Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. 
-Используйте разные описания для разных страниц
-Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.
- Чего следует избегать:
- Использования одного мета тега описания для всех или многих страниц сайта. 
-Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta
-**Заголовки в тексте (h2-h6)**
-Предназначение и примеры
-Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.
-Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.
-Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.
-Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.
-Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.
-В редакторе, данные заголовки можно найти в поле «Формат»:
-Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs
- Представьте, что вы пишете обзор
-Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.
- Чего следует избегать:
- Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив ) или &lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. 
- Не злоупотребляйте заголовками
-Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.
- Чего следует избегать:
- Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. 
-**Ссылки**
-Тщательно продумывайте тексты ссылок
-Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.
-Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.
-Используйте информативный текст
-Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.
- Чего следует избегать:
- Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). 
-Текст должен быть лаконичным
-Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.
- Чего следует избегать:
- Длинных текстов ссылки, например сложных предложений или целых абзацев. 
-Подберите текст ссылок и для внутренних URL
-Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.
- Чего следует избегать
- Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. 
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/format**
+**https://portal.hse.ru/format**
+ Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  
+**https://portal.hse.ru/format**
+**Оформление**
+ Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.  Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru 
+**Вставка текста**
+При копировании информации из документа Microsoft Word используйте следующую последовательность действий:
+1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;
+2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;
+3) Удалите лишние пробелы и переносы строк;
+4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:
+Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter. 
+Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице. Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.
+**Списки**
+Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.
+Получается:
+   маркированный список маркированный список    нумерованный список нумерованный список  
+**Заголовки**
+Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".
+ Предусмотрены 6 уровней заголовков:
+**Заголовок 2**
+**Заголовок 3**
+**Заголовок 4**
+Заголовки используются последовательно, по мере понижения значимости информации. 
+Заголовок 1 — заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.
+Для выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".
+Заголовки — важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы. 
+**Якорь**
+Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.
+Чтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".
+Если ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".
+Если ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/format#anchor), нажать "вставить".
+**Вставка картинки/фото**
+При загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.
+1. Нажимаем кнопку "Загрузка и вставка картинки"
+2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра — размер в пикселях по ширине, вторая — размер в пикселях по высоте.
+3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.
+4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".
+5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".
+Если Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы).  Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу.  
+****
+**Загрузка файлов**
+Для размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:
+После этого откроется диалоговое окно загрузки файла:
+В поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.
+Нажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":
+После того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/tables**
+ Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  
+**Копирование таблицы из Word и Excel**
+В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.
+Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":
+Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.
+Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.
+ Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. 
+**Создание таблицы в визуальном редакторе**
+Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку 
+В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).
+После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).
+Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).
+**Специальные шаблоны для создания таблиц**
+Таблицу можно также добавить через «специальные шаблоны». Нажмите на кнопку добавления специального элемента.
+Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.
+Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.
+Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/pages**
+Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
+Создайте страницу, кликнув по иконке 
+При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
+Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
+Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
+Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
+В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
+После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
+После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
+Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
+Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
+Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/sostav**
+Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
+Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа — непосредственно поле для размещения виджетов и, соответственно, информации.
+Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. 
+Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.
+После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!
+**ВИДЖЕТЫ:**
+**Текст**
+ Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. В остальном принципы оформления текста те же, что и на простой статической странице. 
 **Изображения**
-Используйте атрибут alt 
-Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.
-Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:
-Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.
-Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.
-Используйте краткие описательные имена файлов и текст в атрибутах alt
-Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.
- Чего следует избегать:
- Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. 
-Добавляйте текст в атрибуты alt, если используете изображения как ссылки
-Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.
- Чего следует избегать:
- Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. 
-**Общие рекомендации**
-Пишите легко читаемые тексты
-Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.
- Чего следует избегать:
- Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/script**
-Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
-Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/events**
-**https://portal.hse.ru/events**
- Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  
-**https://portal.hse.ru/events**
-**Как опубликовать анонс на главной странице портала**
-Для публикации анонса на главной странице портала в разделе «Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).
-Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).
-Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).
-Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).
-Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.
-Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях.  
-**https://portal.hse.ru/events**
-**Обязательные требования к анонсам**
- название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками 
-В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.
-На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.
-Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.
-**Размещение анонсов на сайте подразделения**
-На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.
-Инструкция по размещению анонсов
-**https://portal.hse.ru/events**
-**Как создать подписку на анонсы подразделения**
-Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.
-Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение → скопируйте появившуюся в адресной строке браузера ссылку → добавьте ссылку на подписку в нужный вам раздел сайта. 
-**https://portal.hse.ru/events**
-**Как создать сайт мероприятия**
-Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.
-Сотрудники портала заводят сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также помогает с оформлением в части, где нужна сложная верстка.
-Для того чтобы заказать сайт мероприятия, необходимо прислать на portal@hse.ru заявку, в которой указывается:
- желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за редактирование сайта. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+ Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
+**Видео**
+ Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
+**Якорь**
+ Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
+**Цветные блоки**
+ Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке – их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
+**Связанные материалы**
+ Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
+**Список персон**
+ Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия – те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
+**Хронология**
+ С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    
+**Партнеры**
+ Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
+**Колонки**
+ Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  
+**Соцсети**
+ Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
+**Плашка**
+ Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  
+**Даты**
+ Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  
+**Цифра**
+ Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
+**Выпадайки**
+ Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  
+**Кнопка**
+ Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
+**Часто задаваемые вопросы**
+   Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/photo**
+Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
+Вы можете сами проверить свой сайт с помощью этого инструмента.
+Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
+ Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
+Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
+Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
+А для главной страницы типичной образовательной программы – так:
+Разница в объеме потенциально оптимизируемого – в 17 раз.
+Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
+К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/instev**
+Вход в редакторский режим https://www.hse.ru/adm/  Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).
+**Оформление главной страницы**
+Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».
+Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» — для английской версии сайта).
+Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом.  
+**1 — 5 пункт заполняется в Блоки — Правая колонка — Данные о мероприятии.**
+**1. Заголовок**
+Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст — основное название мероприятия — отображается крупно.
+**2. Даты мероприятия3. Кнопка регистрации (ссылка на регистрацию)**
+Создание формы регистрации.
+**4. Ключевые даты**
+Заполняется в поле «Пояснение». Надпись «Важные даты» может варьироваться по усмотрению.
+**5. Место проведения, Контакты**
+В этой же вкладке Вы можете заполнять и использовать все другие поля. «Время начала мероприятия», «Языки мероприятия», ссылка на карту «Как добраться», «Важные ссылки», «Файлы» — все эти данные будут отображаться в правой части сайта.
+**6. Меню (горизонтальное) в центральной части страницы**
+**Блоки — Настройки — Меню**
+Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка — название пункта меню, вторая — ссылка на страницу (создание и редактирование статических страниц).
+Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.
+Возможен еще один вариант расположения меню — в правой части сайта под датой мероприятия (см. рисунок ниже).
+По логике заполнения и редактирования правой части сайта, данные пункты вносятся в
+**Блоки — Правая колонка — Данные о мероприятии — Важные ссылки.**
+**Оформление аннотации/главной страницы сайта мероприятия**
+Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.
+Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/ — Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.
+Аннотация находится в поле «О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.
+**Оформление нижней части сайта мероприятия**
+Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.
+**Это делается в Блоки — Подвал — Участники**
+Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.
+По аналогичному принципу устроен пункт оформления партнеров мероприятия.
+**Блоки — Подвал — Партнеры**
+где необходимо добавлять логотип организации-партнера и ссылку на них.
+Однако зачастую бывает удобнее размещать партнеров в правой части сайта.
+Здесь снова работает логика работы с правой колонкой.
+**Блоки — Правая колонка — Текстовые блоки**
+Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.
+**Оформление программы мероприятия**
+Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.
+**Данный инструмент находится в Блоки — Контент — Расписание мероприятий**
+Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.
+**Оформление страницы организационного комитета (программного комитета, докладчиков и др.).**
+Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции: https://portal.hse.ru/sostav.
+И главное — не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/poll**
+**https://portal.hse.ru/poll**
+ Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
+**https://portal.hse.ru/poll**
+**Создание формы**
+Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
+Нажимаем на +, чтобы создать форму.
+Далее нужно указать:
+ название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
+Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
+Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
+Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
+Далее необходимо нажать на кнопку «Добавить блок вопросов».
+Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
+Пример блоков
+Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
+Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
+Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
+Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
+Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
+Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
+Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
+Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
+После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
+**https://portal.hse.ru/poll**
+**Дополнительные параметры**
+Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
+В открывшемся окне вы можете:
+ Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
+В разделе «Дополнительные параметры» вы также сможете:
+ Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
+Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
+Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
+**https://portal.hse.ru/poll**
+**Ссылка на форму/Клонирование/Выгрузка ответов**
+Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
+1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
+2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
+3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
+4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/landing**
 **https://portal.hse.ru/landing**
@@ -1745,11 +1299,11 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/header-banner**
 **Простой вариант**
@@ -1770,65 +1324,148 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/instev**
-Вход в редакторский режим https://www.hse.ru/adm/  Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).
-**Оформление главной страницы**
-Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».
-Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» — для английской версии сайта).
-Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом.  
-**1 — 5 пункт заполняется в Блоки — Правая колонка — Данные о мероприятии.**
-**1. Заголовок**
-Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст — основное название мероприятия — отображается крупно.
-**2. Даты мероприятия3. Кнопка регистрации (ссылка на регистрацию)**
-Создание формы регистрации.
-**4. Ключевые даты**
-Заполняется в поле «Пояснение». Надпись «Важные даты» может варьироваться по усмотрению.
-**5. Место проведения, Контакты**
-В этой же вкладке Вы можете заполнять и использовать все другие поля. «Время начала мероприятия», «Языки мероприятия», ссылка на карту «Как добраться», «Важные ссылки», «Файлы» — все эти данные будут отображаться в правой части сайта.
-**6. Меню (горизонтальное) в центральной части страницы**
-**Блоки — Настройки — Меню**
-Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка — название пункта меню, вторая — ссылка на страницу (создание и редактирование статических страниц).
-Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.
-Возможен еще один вариант расположения меню — в правой части сайта под датой мероприятия (см. рисунок ниже).
-По логике заполнения и редактирования правой части сайта, данные пункты вносятся в
-**Блоки — Правая колонка — Данные о мероприятии — Важные ссылки.**
-**Оформление аннотации/главной страницы сайта мероприятия**
-Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.
-Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/ — Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.
-Аннотация находится в поле «О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.
-**Оформление нижней части сайта мероприятия**
-Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.
-**Это делается в Блоки — Подвал — Участники**
-Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.
-По аналогичному принципу устроен пункт оформления партнеров мероприятия.
-**Блоки — Подвал — Партнеры**
-где необходимо добавлять логотип организации-партнера и ссылку на них.
-Однако зачастую бывает удобнее размещать партнеров в правой части сайта.
-Здесь снова работает логика работы с правой колонкой.
-**Блоки — Правая колонка — Текстовые блоки**
-Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.
-**Оформление программы мероприятия**
-Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.
-**Данный инструмент находится в Блоки — Контент — Расписание мероприятий**
-Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.
-**Оформление страницы организационного комитета (программного комитета, докладчиков и др.).**
-Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции: https://portal.hse.ru/sostav.
-И главное — не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/nov**
+**https://portal.hse.ru/nov**
+ Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
+**https://portal.hse.ru/nov**
+Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
+ Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
+Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
+Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
+Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
+**Создание новости**
+Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
+Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
+Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
+Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
+Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
+При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
+Обязательно выбираете рубрику и ключевые слова.
+Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
+Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
+Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
+Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
+Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
+**Предосмотр новости**
+Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
+**Составной редактор**
+Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
+Далее следуем инструкции по составной странице.
+**Иллюстрация новости**
+Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
+Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
+Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
+Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
+Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
+**Копирование на другой сайт**
+Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
+В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
+Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
+Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/slider_banners**
+**https://portal.hse.ru/slider_banners**
+Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.
+**https://portal.hse.ru/slider_banners**
+ Заголовок. Несколько слов, кратко и емко описывающих тему. Если заголовок будет слишком длинным, вместе с текстом анонса он может не поместиться на мобильной версии.
+Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у заголовка.
+ Как на мобильной версии скрыть часть анонса Если вы видите, что на экране мобильного текст анонса не помещается полностью, оберните его в тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на мобильном и скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; 
+**https://portal.hse.ru/slider_banners**
+**Как оформить баннер**
+Существует два варианта оформления баннера: заливка цветом и фоновая картинка.
+По умолчанию редактор предлагает стиль Amethyst и другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих цветов.
+Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»
+Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине. Перед загрузкой картинки необходимо оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.  На этой странице вы найдете ссылки на бесплатные фотобанки и фотографии нашего университета. Используя их, вы можете быть уверены, что не нарушаете авторские права. На баннерах нельзя размещать изображения с готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и текст на нем теряется, его можно затемнить.
+ Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в программе, выбираем в верхнем меню — Изображение — Коррекция — Кривые или используем горячие клавиши Ctrl + M. Далее с помощью изменения точек кривой затемняем изображение до нужного уровня. 
+Стили CSS. В этом поле можно установить позиционирование фонового баннера на странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в примере выше это .vp) должно быть уникальным для каждого баннера и написанным на латинице. Так, .vp — cокращение от «Высший пилотаж». Используйте следующий код, заменив первое значение:
+.vp.splash.pseudo { background-position: 50% 25%; }
+CSS класс. Чтобы стили работали, скопируйте значение первого класса из Стилей CSS, но без точки (в примере это vp).
+Темный текст. Устанавливаете, если фон сплешки светлый.
+**https://portal.hse.ru/slider_banners**
+**Как скрыть/удалить баннер**
+Если вам нужно скрыть баннер, делаете его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать на крестик в правом углу и сохранить изменения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/tools**
+Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.
+На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).
+Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.
+А на этой странице собраны ссылки на зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками Дирекции по порталу и мобильным приложениям  в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы пользуетесь удобным ресурсом, о котором мы еще не знаем, присылайте информацию на адрес dkoptubenko@hse.ru.
+**Обработка фотографий**
+Colordot — инструмент для определения HTML-кода для требуемого цвета. В отличие от аналогов имеет визуально удобную палитру
+Pixlr — не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений
+TinyPNG — один из проверенных инструментов для сжатия изображений перед публикацией их на сайте
+**Бесплатные фотобанки**
+Unsplash — изумительной красоты фотографии, в основном, видовые
+Gratisography — бесплатные жанровые фотографии
+StockSnap.io — каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений
+Picjumbo — платный ресурс, но часть фотографий можно брать оттуда за просто так
+Picography — небольшая по объему коллекция бесплатных фотографий
+Library of Congress — исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения
+Morguefile — в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки
+Textures — подборка паттернов и фоновых изображений
+L+T — альтернативный сервис по подборке фоновых изображений
+FreeStockTextures — более 800 паттернов
+TextureZoom — тематические текстуры
+**Решения для инфографики**
+draw.io — интерактивные блок-схемы мы создаем при помощи этого инструмента
+easelly — простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось
+MyBalsamiq — сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами
+**Визуальные решения для сайта**
+StoryMap — с его помощью можно создавать интерактивные карты.
+Juxtapose — элегантный инструмент для демонстрации изменений на однотипных объектах. С помощью слайдера пользователь может сравнить, как было, и как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с одного ракурса
+Timeline JS — с его помощью можно создавать таймлайны (интерактивные истории, растянутые во времени). На портале использовался, например, при создании страницы к 20-летию нижегородского кампуса
+Soundcite — инструмент для создания аудиопрезентаций
+Prezi — мощная альтернатива Powerpoint для создания презентаций
+Fliphtml5 — инструмент для размещения pdf-файлов в виде раскрытой книги с возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.
+Формулы — инструмент для отображения формул на сайте. 
+**Создание опросов**
+Google Формы — бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за периметром портала. Для формирования опросных или регистрационных форм на портале есть штатный инструмент
+**Работа с соцсетями**
+ВКонтакте pages.clearCache —  инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и учтет внесенные на нее изменения
+vk.com/cc — инструмент для генерации коротких ссылок для «ВКонтакте»
+SMMPlanner — отложенный постинг в социальные сети
+Ezgif — создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)
+Make Beliefs Comix — создание комиксов
+**Оптимизация файлов**
+Онлайн-инструменты для любителей PDF — полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.
+**Узнать больше**
+Tutorialspoint — обширный набор учебников и инструкций: как пользоваться MS Word, Powepoint, Excel и сотнями других программ и приложений
+html academy — на сайте есть отличный бесплатный базовый курс по html и css, «настольная книга» для каждого, кто имеет доступ к редактированию страниц на портале
+Codecademy — интерактивные курсы по программированию
+https://smmplanner.com/
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>**https://portal.hse.ru/progs**
 **О шаблоне «Сайт образовательной программы»**
@@ -1920,6 +1557,369 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
+Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
+Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
+Заявка должна быть отправлена с корпоративного адреса электронной почты.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/instr**
+Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.
+ Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  
+**Персональная страница**
+Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.
+Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.
+Для активации английской версии необходимо в личном кабинете:
+ Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень 
+ Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) 
+ и далее поставить статус  «Черновик».
+После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.
+Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).
+Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.
+В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».
+**Подразделения**
+**Кому заводятся английские версии?**
+Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала Марии Никитиной.
+Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.
+Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.
+**Как открыть английскую версию сайта?**
+ Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! 
+ Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. 
+ Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." 
+**Кто может редактировать английскую версию сайта?**
+Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.
+**Что нужно иметь в виду при работе с английской версией сайта?**
+ Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. 
+ Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием) главному редактору англоязычной версии портала Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. 
+**Новости**
+ Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении» – «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). 
+ Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. 
+**Анонсы и важные объявления**
+ Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). 
+**Образовательные программы**
+Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.
+Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.
+Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".
+Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.
+**Что нужно иметь в виду при работе с английской версией сайта:**
+Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.
+ Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  
+ Раздел ABOUT 
+Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career  
+ Раздел FOR PROSPECTIVE STUDENTS 
+Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница)  
+ Раздел FOR STUDENTS - рекомендованные ссылки и страницы 
+Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs
+ Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной  программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events             Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply      Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы         Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)    Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР)     Term Papers and Student Theses     Итоговая аттестация     Final Assessment     Рекомендованные онлайн-курсы     Recommended MOOCs      Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  
+**Новости**
+ Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. 
+**Анонсы и важные объявления**
+ Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/im**
+**https://portal.hse.ru/im**
+Сайты всех структурных подразделений должны соответствовать утвержденному стандарту.
+Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы фирменного стиля не могут противоречить брендбуку НИУ ВШЭ, а их использование должно быть согласовано с Отделом визуальных коммуникаций visual@hse.ru.
+Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).
+Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).
+Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.
+Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.
+Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.
+Заявку на создание сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый контент имеется для размещения. Подробности о дальнейших шагах будут содержаться в ответном письме.
+**https://portal.hse.ru/im**
+**Инструкции по работе с сайтом**
+  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  
+**https://portal.hse.ru/im**
+**Контакты редакторов сайтов подразделений**
+Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге
+**https://portal.hse.ru/im**
+**Часто задаваемые вопросы**
+О JavaScript и iframe на сайтах подразделений 
+**https://portal.hse.ru/im**
+**Шрифт**
+HSESans/HSESlab (ZIP, 228 Кб)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/resp**
+На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
+Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.
+В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.
+Ответственные от факультетов и филиалов за редактирование страниц подразделений
+Ответственные за персональные страницы сотрудников
+Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.
+Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)
+Ответственным от факультетов и филиалов за редактирование страниц подразделений
+Ответственным за персональные страницы сотрудников
+**Как изменить сведения об ответственных**
+**Добавление сотрудника:**
+Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.
+**Удаление сотрудника из списка**
+Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.
+Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/site**
+ Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
+**Доступ к редактированию**
+Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
+Перейти к режиму редактирования сайта можно двумя способами:
+ По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
+Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
+**Наполнение сайта**
+Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
+ Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
+Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
+Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
+Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
+Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
+**Меню: основные ошибки**
+ Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
+**Как вывести страницу «Сотрудники»?**
+Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
+Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
+Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
+**Размещение текстов: что можно и что нельзя**
+**Можно и нужно:**
+ Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
+ Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
+**Размещение новостей: на что обратить внимание**
+ У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/metaunits**
+В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
+Здания
+Наука
+Поиск по подразделениям
+Сведения об образовательной организации
+Кроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).
+**Редактирование данных**
+Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.
+**Описание полей**
+Телефон и адрес
+Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.
+Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.
+Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.
+Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на portal@hse.ru.
+Почему важно указать телефон подразделения
+С вами будет удобнее связаться
+Только при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.
+Электронная почта
+Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.  
+Уровень подготовки
+Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы. 
+Тип подразделения по Яндексу (актуально только для крупных подразделений)
+Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов
+Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.
+Категория подразделения
+Скорее всего, категория уже проставлена. Если нет, то проставьте ее. 
+Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)
+Тематика исследований
+Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/seo_recommends**
+ Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  
+**Заголовки страниц**
+Заголовки должны соответствовать содержанию страницы
+Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.
+ Чего следует избегать:
+ Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". 
+Используйте краткие, но содержательные заголовки
+Максимальная длина заголовка — 150 символов, оптимально — 60 символов.
+Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.
+ Чего следует избегать:
+ Слишком длинных заголовков, бесполезных для пользователей. 
+**Мета-описание страницы (тег description)**
+Описания должны точно отражать содержание страницы
+Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. 
+ Чего следует избегать:
+ Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. 
+Используйте разные описания для разных страниц
+Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.
+ Чего следует избегать:
+ Использования одного мета тега описания для всех или многих страниц сайта. 
+Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta
+**Заголовки в тексте (h2-h6)**
+Предназначение и примеры
+Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.
+Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.
+Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.
+Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.
+Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.
+В редакторе, данные заголовки можно найти в поле «Формат»:
+Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs
+ Представьте, что вы пишете обзор
+Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.
+ Чего следует избегать:
+ Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив ) или &lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. 
+ Не злоупотребляйте заголовками
+Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.
+ Чего следует избегать:
+ Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. 
+**Ссылки**
+Тщательно продумывайте тексты ссылок
+Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.
+Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.
+Используйте информативный текст
+Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.
+ Чего следует избегать:
+ Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). 
+Текст должен быть лаконичным
+Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.
+ Чего следует избегать:
+ Длинных текстов ссылки, например сложных предложений или целых абзацев. 
+Подберите текст ссылок и для внутренних URL
+Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.
+ Чего следует избегать
+ Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. 
+**Изображения**
+Используйте атрибут alt 
+Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.
+Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:
+Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.
+Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.
+Используйте краткие описательные имена файлов и текст в атрибутах alt
+Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.
+ Чего следует избегать:
+ Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. 
+Добавляйте текст в атрибуты alt, если используете изображения как ссылки
+Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.
+ Чего следует избегать:
+ Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. 
+**Общие рекомендации**
+Пишите легко читаемые тексты
+Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.
+ Чего следует избегать:
+ Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/meta**
+В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
+ Быстрые ссылки  Описание документа Соцсети  
+**Описание документа**
+Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов. Большая просьба также заполнить его для уже созданных сайтов и статических страниц.
+Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).
+Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст. 
+**Рекомендации по составлению мета-описаний (c сайта Яндекса):**
+ Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. 
+**Примеры плохих мета-описаний (с сайта Яндекса):**
+ Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. 
+**Примеры правильного заполнения мета-описаний:**
+https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ
+description: В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.
+https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ
+description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.
+https://www.hse.ru/figures/ Цифры и факты
+description: Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.
+https://ma.hse.ru/ Абитуриентам магистратуры
+description: Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.
+**Соцсети**
+Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.
+На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.
+Картинка 1: когда все заполнено
+Картинка 2: когда ничего не заполнено
+Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со искомой страницы и учтет внесенные на нее изменения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
+На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
+Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
+**Сортировка сотрудников по должностям на странице**
+Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
+В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
+В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
+**Шаг 1**
+**Шаг 2**
+Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/script**
+Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
+Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.
+</t>
+        </is>
+      </c>
+    </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
@@ -1947,6 +1947,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/aspresponsible**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по экономике**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по менеджменту**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по государственному и муниципальному управлению; по философским наукам**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по праву**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школы: по социологическим наукам; по политическим наукам; по искусству и дизайну; по международным отношениям и зарубежным региональным исследованиям**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по историческим наукам; по филологическим наукам; по философским наукам; по культурологии**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по техническим наукам**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по компьютерным наукам; по физике**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по образованию**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по психологии**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по математике**
+**https://portal.hse.ru/aspresponsible**
+**Академическая аспирантура**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/analytics**
 На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.
@@ -1976,11 +2011,53 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/pay**
+На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес underground@hse.ru. Срок оказания услуги — 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.
+**Что нужно указать в заявке**
+Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:
+Номер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.
+Наименование подразделения, которое будет осуществлять прием платежей;
+Шифр подразделения по ИС-ПРО;
+Адрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);
+Список электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки отчета по произведенным оплатам;
+Сроки приема платежей;
+Включен ли в сумму платежа НДС или нет;
+Требуется ли англоязычная версия формы;
+Список категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы платежей в рублях;
+Текст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);
+При необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;
+Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.
+Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.
+Важно!• Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора платежей суммы к оплате указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.• Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается. Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.
+**Варианты форм оплаты**
+Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
+Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/elibrary**
 С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ. Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.
@@ -2029,23 +2106,11 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
-Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/dpo_new**
 **https://portal.hse.ru/dpo_new**
@@ -2203,71 +2268,6 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/aspresponsible**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по экономике**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по менеджменту**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по государственному и муниципальному управлению; по философским наукам**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по праву**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школы: по социологическим наукам; по политическим наукам; по искусству и дизайну; по международным отношениям и зарубежным региональным исследованиям**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по историческим наукам; по филологическим наукам; по философским наукам; по культурологии**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по техническим наукам**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по компьютерным наукам; по физике**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по образованию**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по психологии**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по математике**
-**https://portal.hse.ru/aspresponsible**
-**Академическая аспирантура**
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/pay**
-На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес underground@hse.ru. Срок оказания услуги — 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.
-**Что нужно указать в заявке**
-Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:
-Номер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.
-Наименование подразделения, которое будет осуществлять прием платежей;
-Шифр подразделения по ИС-ПРО;
-Адрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);
-Список электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки отчета по произведенным оплатам;
-Сроки приема платежей;
-Включен ли в сумму платежа НДС или нет;
-Требуется ли англоязычная версия формы;
-Список категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы платежей в рублях;
-Текст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);
-При необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;
-Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.
-Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.
-Важно!• Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора платежей суммы к оплате указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.• Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается. Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.
-**Варианты форм оплаты**
-Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:
-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_files/level_1.xlsx
+++ b/data_files/level_1.xlsx
@@ -651,81 +651,6 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/about**
-Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
-**Корпоративный портал (hse.ru) – это…**
-Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.
-**Новости и анонсы на главной странице портала**
-Управление по связям с общественностью  – основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.
-Чтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.
-**Персональные страницы**
-У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.
-Мы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо написать заявку на адрес portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.
-**База учебных курсов**
-Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.
-Если вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.
-**Сайты подразделений и образовательных программ**
-Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.
-Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.
-Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.
-Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.
-Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.
-По вопросам создания сайта обращайтесь, пожалуйста, на portal@hse.ru.
-**Английская версия портала**
-Англоязычный сайт Высшей школы экономики занял в 2015 году первое место в рейтинге сайтов университетов, составленном Российским советом по международным делам.
-Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения  (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.
-Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются  только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.
-Английская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в Отдел развития и поддержки англоязычной версии портала (Мария Бесова).
-При создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и  Стилистическим справочником.
-**Раздел «Цифры и факты»**
-В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.
-Когда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.
-**Система «Антиплагиат»**
-Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».
-Чтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.
-**Отчеты**
-Мы можем дать доступ к заполнению следующих электронных форм отчетов:
-отчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает Управление академического развития);
-отчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития). 
-Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.
-Чтобы получить доступ к отчету, достаточно написать письмо на адрес portal@hse.ru
-Пожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.
-**Новый функционал на портале**
-Разработкой портала занимается Управление разработки информационных систем портала. Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий и Дирекции по порталу и мобильным приложениям. Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол. 
-Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/help**
-        		    Шаг 1
-Необходимо удостовериться, что ваша персональная страница появилась на сайте. Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала. 
-        		    Шаг 2
-Следует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина ввести адрес корпоративной почты сотрудника, в качестве пароля – пароль от этой почты.
-Если вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь на digital@hse.ru
-        		    Шаг 3
-В ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста, на portal@hse.ru.
-В письме укажите:
-• ФИО сотрудника
-• Адрес корпоративной почты
-Служба портала пропишет e-mail, и вы сможете войти.
-Письмо должно быть отправлено строго с корпоративной почты сотрудника @hse.ru 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t xml:space="preserve">**https://portal.hse.ru/persons**
 				Сотрудники
 Все подразделения
@@ -799,11 +724,63 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/about**
+Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
+**Корпоративный портал (hse.ru) – это…**
+Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.
+**Новости и анонсы на главной странице портала**
+Управление по связям с общественностью  – основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.
+Чтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.
+**Персональные страницы**
+У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.
+Мы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо написать заявку на адрес portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.
+**База учебных курсов**
+Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.
+Если вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.
+**Сайты подразделений и образовательных программ**
+Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.
+Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.
+Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.
+Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.
+Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.
+По вопросам создания сайта обращайтесь, пожалуйста, на portal@hse.ru.
+**Английская версия портала**
+Англоязычный сайт Высшей школы экономики занял в 2015 году первое место в рейтинге сайтов университетов, составленном Российским советом по международным делам.
+Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения  (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.
+Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются  только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.
+Английская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в Отдел развития и поддержки англоязычной версии портала (Мария Бесова).
+При создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и  Стилистическим справочником.
+**Раздел «Цифры и факты»**
+В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.
+Когда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.
+**Система «Антиплагиат»**
+Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».
+Чтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.
+**Отчеты**
+Мы можем дать доступ к заполнению следующих электронных форм отчетов:
+отчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает Управление академического развития);
+отчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития). 
+Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.
+Чтобы получить доступ к отчету, достаточно написать письмо на адрес portal@hse.ru
+Пожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.
+**Новый функционал на портале**
+Разработкой портала занимается Управление разработки информационных систем портала. Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий и Дирекции по порталу и мобильным приложениям. Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол. 
+Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/events**
 **https://portal.hse.ru/events**
@@ -839,11 +816,528 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/instev**
+Вход в редакторский режим https://www.hse.ru/adm/  Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).
+**Оформление главной страницы**
+Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».
+Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» — для английской версии сайта).
+Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом.  
+**1 — 5 пункт заполняется в Блоки — Правая колонка — Данные о мероприятии.**
+**1. Заголовок**
+Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст — основное название мероприятия — отображается крупно.
+**2. Даты мероприятия3. Кнопка регистрации (ссылка на регистрацию)**
+Создание формы регистрации.
+**4. Ключевые даты**
+Заполняется в поле «Пояснение». Надпись «Важные даты» может варьироваться по усмотрению.
+**5. Место проведения, Контакты**
+В этой же вкладке Вы можете заполнять и использовать все другие поля. «Время начала мероприятия», «Языки мероприятия», ссылка на карту «Как добраться», «Важные ссылки», «Файлы» — все эти данные будут отображаться в правой части сайта.
+**6. Меню (горизонтальное) в центральной части страницы**
+**Блоки — Настройки — Меню**
+Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка — название пункта меню, вторая — ссылка на страницу (создание и редактирование статических страниц).
+Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.
+Возможен еще один вариант расположения меню — в правой части сайта под датой мероприятия (см. рисунок ниже).
+По логике заполнения и редактирования правой части сайта, данные пункты вносятся в
+**Блоки — Правая колонка — Данные о мероприятии — Важные ссылки.**
+**Оформление аннотации/главной страницы сайта мероприятия**
+Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.
+Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/ — Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.
+Аннотация находится в поле «О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.
+**Оформление нижней части сайта мероприятия**
+Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.
+**Это делается в Блоки — Подвал — Участники**
+Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.
+По аналогичному принципу устроен пункт оформления партнеров мероприятия.
+**Блоки — Подвал — Партнеры**
+где необходимо добавлять логотип организации-партнера и ссылку на них.
+Однако зачастую бывает удобнее размещать партнеров в правой части сайта.
+Здесь снова работает логика работы с правой колонкой.
+**Блоки — Правая колонка — Текстовые блоки**
+Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.
+**Оформление программы мероприятия**
+Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.
+**Данный инструмент находится в Блоки — Контент — Расписание мероприятий**
+Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.
+**Оформление страницы организационного комитета (программного комитета, докладчиков и др.).**
+Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции: https://portal.hse.ru/sostav.
+И главное — не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.
+</t>
+        </is>
+      </c>
+    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/poll**
+**https://portal.hse.ru/poll**
+ Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
+**https://portal.hse.ru/poll**
+**Создание формы**
+Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
+Нажимаем на +, чтобы создать форму.
+Далее нужно указать:
+ название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
+Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
+Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
+Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
+Далее необходимо нажать на кнопку «Добавить блок вопросов».
+Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
+Пример блоков
+Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
+Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
+Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
+Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
+Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
+Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
+Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
+Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
+После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
+**https://portal.hse.ru/poll**
+**Дополнительные параметры**
+Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
+В открывшемся окне вы можете:
+ Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
+В разделе «Дополнительные параметры» вы также сможете:
+ Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
+Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
+Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
+**https://portal.hse.ru/poll**
+**Ссылка на форму/Клонирование/Выгрузка ответов**
+Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
+1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
+2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
+3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
+4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/format**
+**https://portal.hse.ru/format**
+ Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  
+**https://portal.hse.ru/format**
+**Оформление**
+ Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.  Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru 
+**Вставка текста**
+При копировании информации из документа Microsoft Word используйте следующую последовательность действий:
+1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;
+2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;
+3) Удалите лишние пробелы и переносы строк;
+4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:
+Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter. 
+Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице. Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.
+**Списки**
+Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.
+Получается:
+   маркированный список маркированный список    нумерованный список нумерованный список  
+**Заголовки**
+Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".
+ Предусмотрены 6 уровней заголовков:
+**Заголовок 2**
+**Заголовок 3**
+**Заголовок 4**
+Заголовки используются последовательно, по мере понижения значимости информации. 
+Заголовок 1 — заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.
+Для выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".
+Заголовки — важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы. 
+**Якорь**
+Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.
+Чтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".
+Если ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".
+Если ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/format#anchor), нажать "вставить".
+**Вставка картинки/фото**
+При загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.
+1. Нажимаем кнопку "Загрузка и вставка картинки"
+2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра — размер в пикселях по ширине, вторая — размер в пикселях по высоте.
+3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.
+4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".
+5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".
+Если Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы).  Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу.  
+****
+**Загрузка файлов**
+Для размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:
+После этого откроется диалоговое окно загрузки файла:
+В поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.
+Нажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":
+После того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/tables**
+ Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  
+**Копирование таблицы из Word и Excel**
+В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.
+Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":
+Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.
+Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.
+ Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. 
+**Создание таблицы в визуальном редакторе**
+Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку 
+В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).
+После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).
+Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).
+**Специальные шаблоны для создания таблиц**
+Таблицу можно также добавить через «специальные шаблоны». Нажмите на кнопку добавления специального элемента.
+Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.
+Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.
+Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/sostav**
+Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
+Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа — непосредственно поле для размещения виджетов и, соответственно, информации.
+Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. 
+Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.
+После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!
+**ВИДЖЕТЫ:**
+**Текст**
+ Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. В остальном принципы оформления текста те же, что и на простой статической странице. 
+**Изображения**
+ Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
+**Видео**
+ Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
+**Якорь**
+ Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
+**Цветные блоки**
+ Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке – их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
+**Связанные материалы**
+ Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
+**Список персон**
+ Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия – те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
+**Хронология**
+ С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    
+**Партнеры**
+ Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
+**Колонки**
+ Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  
+**Соцсети**
+ Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
+**Плашка**
+ Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  
+**Даты**
+ Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  
+**Цифра**
+ Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
+**Выпадайки**
+ Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  
+**Кнопка**
+ Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
+**Часто задаваемые вопросы**
+   Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/photo**
+Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
+Вы можете сами проверить свой сайт с помощью этого инструмента.
+Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
+ Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
+Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
+Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
+А для главной страницы типичной образовательной программы – так:
+Разница в объеме потенциально оптимизируемого – в 17 раз.
+Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
+К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/pages**
+Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
+Создайте страницу, кликнув по иконке 
+При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
+Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
+Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
+Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
+В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
+После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
+После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
+Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
+Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
+Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/landing**
+**https://portal.hse.ru/landing**
+Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).
+**https://portal.hse.ru/landing**
+ Быстрые ссылки  Шапка Меню Основная колонка Виджеты  
+**https://portal.hse.ru/landing**
+**Шапка**
+В данном разделе редактируется то, что размещается в шапке сайта (картинка, заголовок, подзаголовок, кнопки).
+При выборе картинки в шапку имейте в виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по центру. Размер изображения ­— 1600 пикселей по ширине, вес — 200-300 кб. Изображения, заливаемые на портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у проекта есть свой фирстиль, который должен быть отражен в шапке, то необходимо учитывать требования к картинке.
+Чтобы шапка отображалась не только на главной, но и на внутренних страницах сайта, нужно зайти в раздел «Шапка на вторых страницах» и выбрать: «Шапка с главной страницы» или «Своя шапка». Обычно для показа на внутренних страницах сайта используется «Шапка с главной страницы».
+**Меню**
+Отображение меню регулируется в разделе «Шапка». По умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы хотите его вывести — «снизу» или «сверху».
+Есть также опция сделать меню «по центру». Сами пункты меню редактируются в Данные-Блоки-Меню
+**Основная колонка**
+«Основная колонка главной страницы» — главный раздел, которым вы пользуетесь. Слева расположен набор виджетов, справа — поле, куда виджет нужно переместить и где будет располагаться ваш контент.
+Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. Нажимаем «Сохранить» в конце страницы и обязательно проверяем, что получилось!
+**Текст**
+ Для размещения текста нужно выбрать виджет «Фрагмент текста с заголовком».  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и цифры соединяли тире, а не дефисы), используйте программу «Типограф». 
+**Изображения**
+ Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
+**Видео**
+ Видео сначала необходимо разместить на Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант — «Встроить». У вас откроется окно, где слева будет видео, а справа — встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
+**Якорь**
+ Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в нужное место и прописать в нем латинскими буквами «имя якоря» (напр: anchor). В ссылке, по которой пользователь будет переходить в определенное место страницы, в поле «адрес» нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
+**Цветные блоки**
+ Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке — их может быть 2 или 3, нажимаете на кнопку «добавить», открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
+**Новости**
+ Новости размещаются в разделе «Новости», см. инструкцию. При этом, чтобы они показывались на странице, их нужно вывести с помощью виджета «Новости», выбрав оформление «Плитки». Если вы хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в поле «Заголовок».  Пример:  
+**Мероприятия (анонсы)**
+ Анонсы размещаются в разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на странице, их нужно вывести с помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в поле «Заголовок».  Пример:  
+**Связанные материалы**
+ Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом «Связанные материалы». Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
+**Список персон**
+ Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из ВШЭ, то вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле «Описание/контакты» добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле «Описание/контакты» добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. В поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет «Строка с колонками», а потом непосредственного в него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы хотите 3 персоны в ряд. Выставляете ширину колонки «3», если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу «12». Остальные действия — те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
+**Хронология**
+ С помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В появившемся окне вписываете заголовок и текст, далее нажимаете опять «Добавить запись» за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете «Добавить запись» внутри окна.  Пример:    
+**Партнеры**
+ Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
+**Колонки**
+ Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом «Строка с колонками». У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с заголовком».  Пример:  
+**Контент-блок**
+ Если необходимо разбить текст на смысловые части, наложив текст на фон (цвет или картинка), то надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в который непосредственно будете размещать информацию — например, виджет «Фрагмент текста с заголовком».  Пример:  
+**Соцсети**
+ Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
+**Плашка**
+ Для выделения значимых пунктов в тексте можно воспользоваться виджетом «Плашка с цифрой». Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы не ставите галочку около «Нумерация». Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет «Строка с колонками» (о том, как это сделать смотрите выше), а потом в него переместить виджет «Плашка с цифрой». Пример:  
+**Даты**
+ Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и «Текст». Если вы хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  
+**Цифра**
+ Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
+**Выпадайки**
+ Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет «Набор с выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в поле «Описание» ставите текст, который будет показываться до скрытого текста, в поле «Открывающийся текст» вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет «Набор с выпадайками 2». Нажимаете кнопку «Добавить блок», в поле «Заголовок» вписываете текст, по которому будут кликать, в поле «Открывающийся текст» вписываете текст, который будет открываться по клику.  Пример:  
+**Кнопка**
+ Если вам нужно создать кнопку, например «Регистрация», вы выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
+**Часто задаваемые вопросы**
+ Если вам нужно создать блок «Часто задаваемые вопросы», то вы выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и «Ответ». Далее нажимаете «Добавить». В открывшемся поле заполняете название кнопки и ссылку на страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с заливкой, так и прозрачной.  Пример:  Чтобы разместить все вопросы на странице, надо выбрать виджет «Вопросы и ответы (FAQ)», нажать «Добавить вопрос» и заполнить поля «Вопрос» и «Ответ».  Пример:  
+**Вкладки**
+ Если вы хотите разместить информацию в виде переключающихся между собой блоков, то нужно выбрать виджет «Вкладки». Далее вы нажимаете «Добавить вкладку», в поле «Заголовок» пишите название вкладки, в пустое поле перемещаете виджет «Фрагмент текста с заголовком», где и размещаете информацию.  Пример:  
+**Слайдер**
+ Инструкцию по размещению баннера в виджете «Слайдер» вы можете прочитать здесь. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/header-banner**
+**Простой вариант**
+Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo
+**Сложный вариант – используется, когда у проекта есть свой фирстиль**
+Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:
+1. Фон (пример: заливка цветом, паттерн).
+2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).
+3. Графический элемент (пример: логотип, иллюстрация, фото).
+При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:
+1. 375px для мобильных устройств;
+2. 800px для планшетов;
+3. 1600px для пк и ноутбуков.
+Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу – служебные поля, в которых может быть размещен только фон.
+Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.
+Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/slider_banners**
+**https://portal.hse.ru/slider_banners**
+Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.
+**https://portal.hse.ru/slider_banners**
+ Заголовок. Несколько слов, кратко и емко описывающих тему. Если заголовок будет слишком длинным, вместе с текстом анонса он может не поместиться на мобильной версии.
+Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у заголовка.
+ Как на мобильной версии скрыть часть анонса Если вы видите, что на экране мобильного текст анонса не помещается полностью, оберните его в тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на мобильном и скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; 
+**https://portal.hse.ru/slider_banners**
+**Как оформить баннер**
+Существует два варианта оформления баннера: заливка цветом и фоновая картинка.
+По умолчанию редактор предлагает стиль Amethyst и другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих цветов.
+Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»
+Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине. Перед загрузкой картинки необходимо оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.  На этой странице вы найдете ссылки на бесплатные фотобанки и фотографии нашего университета. Используя их, вы можете быть уверены, что не нарушаете авторские права. На баннерах нельзя размещать изображения с готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и текст на нем теряется, его можно затемнить.
+ Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в программе, выбираем в верхнем меню — Изображение — Коррекция — Кривые или используем горячие клавиши Ctrl + M. Далее с помощью изменения точек кривой затемняем изображение до нужного уровня. 
+Стили CSS. В этом поле можно установить позиционирование фонового баннера на странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в примере выше это .vp) должно быть уникальным для каждого баннера и написанным на латинице. Так, .vp — cокращение от «Высший пилотаж». Используйте следующий код, заменив первое значение:
+.vp.splash.pseudo { background-position: 50% 25%; }
+CSS класс. Чтобы стили работали, скопируйте значение первого класса из Стилей CSS, но без точки (в примере это vp).
+Темный текст. Устанавливаете, если фон сплешки светлый.
+**https://portal.hse.ru/slider_banners**
+**Как скрыть/удалить баннер**
+Если вам нужно скрыть баннер, делаете его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать на крестик в правом углу и сохранить изменения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/tools**
+Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.
+На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).
+Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.
+А на этой странице собраны ссылки на зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками Дирекции по порталу и мобильным приложениям  в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы пользуетесь удобным ресурсом, о котором мы еще не знаем, присылайте информацию на адрес dkoptubenko@hse.ru.
+**Обработка фотографий**
+Colordot — инструмент для определения HTML-кода для требуемого цвета. В отличие от аналогов имеет визуально удобную палитру
+Pixlr — не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений
+TinyPNG — один из проверенных инструментов для сжатия изображений перед публикацией их на сайте
+**Бесплатные фотобанки**
+Unsplash — изумительной красоты фотографии, в основном, видовые
+Gratisography — бесплатные жанровые фотографии
+StockSnap.io — каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений
+Picjumbo — платный ресурс, но часть фотографий можно брать оттуда за просто так
+Picography — небольшая по объему коллекция бесплатных фотографий
+Library of Congress — исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения
+Morguefile — в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки
+Textures — подборка паттернов и фоновых изображений
+L+T — альтернативный сервис по подборке фоновых изображений
+FreeStockTextures — более 800 паттернов
+TextureZoom — тематические текстуры
+**Решения для инфографики**
+draw.io — интерактивные блок-схемы мы создаем при помощи этого инструмента
+easelly — простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось
+MyBalsamiq — сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами
+**Визуальные решения для сайта**
+StoryMap — с его помощью можно создавать интерактивные карты.
+Juxtapose — элегантный инструмент для демонстрации изменений на однотипных объектах. С помощью слайдера пользователь может сравнить, как было, и как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с одного ракурса
+Timeline JS — с его помощью можно создавать таймлайны (интерактивные истории, растянутые во времени). На портале использовался, например, при создании страницы к 20-летию нижегородского кампуса
+Soundcite — инструмент для создания аудиопрезентаций
+Prezi — мощная альтернатива Powerpoint для создания презентаций
+Fliphtml5 — инструмент для размещения pdf-файлов в виде раскрытой книги с возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.
+Формулы — инструмент для отображения формул на сайте. 
+**Создание опросов**
+Google Формы — бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за периметром портала. Для формирования опросных или регистрационных форм на портале есть штатный инструмент
+**Работа с соцсетями**
+ВКонтакте pages.clearCache —  инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и учтет внесенные на нее изменения
+vk.com/cc — инструмент для генерации коротких ссылок для «ВКонтакте»
+SMMPlanner — отложенный постинг в социальные сети
+Ezgif — создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)
+Make Beliefs Comix — создание комиксов
+**Оптимизация файлов**
+Онлайн-инструменты для любителей PDF — полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.
+**Узнать больше**
+Tutorialspoint — обширный набор учебников и инструкций: как пользоваться MS Word, Powepoint, Excel и сотнями других программ и приложений
+html academy — на сайте есть отличный бесплатный базовый курс по html и css, «настольная книга» для каждого, кто имеет доступ к редактированию страниц на портале
+Codecademy — интерактивные курсы по программированию
+https://smmplanner.com/
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/nov**
+**https://portal.hse.ru/nov**
+ Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
+**https://portal.hse.ru/nov**
+Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
+ Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
+Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
+Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
+Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
+**Создание новости**
+Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
+Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
+Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
+Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
+Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
+При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
+Обязательно выбираете рубрику и ключевые слова.
+Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
+Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
+Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
+Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
+Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
+**Предосмотр новости**
+Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
+**Составной редактор**
+Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
+Далее следуем инструкции по составной странице.
+**Иллюстрация новости**
+Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
+Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
+Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
+Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
+Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
+**Копирование на другой сайт**
+Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
+В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
+Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
+Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instann**
 **https://portal.hse.ru/instann**
@@ -944,528 +1438,11 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/format**
-**https://portal.hse.ru/format**
- Быстрые ссылки  Оформление Вставка текста Списки Заголовки Якорь Вставка картинки/фото Загрузка файлов Вставка таблицы  
-**https://portal.hse.ru/format**
-**Оформление**
- Все элементы форматирования и оформления придуманы не просто так. Любая страница сайта должна иметь правильную структуру, которая определённым образом обрабатывается браузерами и поисковыми системами. Чем проще, логичнее и понятнее структура страницы, тем быстрее она открывается (загружается), тем правильнее она индексируется поисковыми роботами (что влияет на выдачу сайта в поисковых системах). Не надо создавать пустые страницы (и выводить их в меню), страницы для размещения ссылки на другую страницу, страницы для размещения одного или нескольких файлов – это плохо влияет на имидж вашего сайта, а также на его индексацию в поисковых системах. Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Данный тип верстки не используется на веб-страницах. Например, при веб-верстке выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно также следите за тем, чтобы не было наследуемых из Word двойных пробелов.  Не надо использовать дополнительное форматирование текста. Оформление должно быть строго в корпоративном стиле. Не должно быть лишних подчёркиваний (в веб-верстке это выглядит как гиперссылка, которая никуда не ведет), выделения информации множеством восклицательных знаков, принудительного увеличения размера шрифта, изменения стиля шрифта или раскрашивания текста в разные цвета. Пожалуйста, пользуйтесь штатными инструментами форматирования. Для более интересного оформления можно воспользоваться виджетами, которые есть в функционале составной страницы. Если что-то не получается или не знаете, как оформить, пишите на portal@hse.ru 
-**Вставка текста**
-При копировании информации из документа Microsoft Word используйте следующую последовательность действий:
-1) Скопируйте текст из документа и нажмите на значок вставки информации из word файла. Вставьте скопированные материалы в открывшемся окне и нажмите «Вставить»;
-2) Выделите весь вставленный текст в поле и затем последовательно нажмите значок очистки лишнего кода и очистки формата;
-3) Удалите лишние пробелы и переносы строк;
-4) Разбейте текст на абзацы. Для этого необходимо выделить весь текст и выбрать «Абзац» на панели редактирования:
-Чтобы разбить текст на абзацы, можно также использовать сочетание клавиш Shift+Enter. 
-Если текст вставлен из Word некорректно, всё форматирование, отображающееся в редакторском интерфейсе, может пропасть или отображаться неправильно на готовой странице. Лучше всего форматировать тексты не в текстовых редакторах (Word), а непосредственно в визуальном редакторе.
-**Списки**
-Существует возможность создать как нумерованный, так и маркированный список. Для этого необходимо выделить текст и нажать на соответствующие кнопки на панели инструментов.
-Получается:
-   маркированный список маркированный список    нумерованный список нумерованный список  
-**Заголовки**
-Когда на странице размещён текст большого объёма, и его необходимо разбить на логические части (структурировать), название каждой такой части можно оформить элементом "Заголовок".
- Предусмотрены 6 уровней заголовков:
-**Заголовок 2**
-**Заголовок 3**
-**Заголовок 4**
-Заголовки используются последовательно, по мере понижения значимости информации. 
-Заголовок 1 — заголовок первого уровня, самый важный, который используется в поле "Заголовок страницы" при отображении готовой страницы (не нужно в поле "Заголовок страницы" принудительно выбирать "Заголовок 1"). На странице нельзя использовать несколько заголовков первого уровня! Поэтому в поле "Текст" оформлять какой-либо заголовок стилем "Заголовок 1" не нужно.
-Для выделения информации одинаковой значимости в рамках одной страницы используются заголовки одинакового уровня (например, "Заголовок 3"). Если внутри такого заголовка необходим подзаголовок, для его оформления используется заголовок четвёртого уровня ("Заголовок 4"). Крайне не желательно пропускать уровни заголовков. Например, если для заголовка используется "Заголовок 3", для подзаголовка должен использоваться "Заголовок 4", а не "Заголовок 5" или "Заголовок 6".
-Заголовки — важный элемент для поисковых систем! Они задают правильную структуру страницы. "Заголовком" нельзя оформлять отдельные предложения или абзацы. 
-**Якорь**
-Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Якоря удобно применять в документах большого объема, чтобы можно было быстро переходить к нужному разделу.
-Чтобы создать якорь, необходимо поставить курсор в соответствующем месте страницы, на панели инструментов нажать на значок "якорь", в открывшемся окне прописать латинскими буквами "имя якоря" (напр: anchor), нажать "вставить".
-Если ссылку на якорь нужно разместить на той же странице, где сделан якорь, необходимо нажать на значок "ссылка" на панели инструментов, в поле "якоря" выбрать соответствующее имя якоря, далее нажать "вставить".
-Если ссылку на якорь нужно разместить на другой странице, то необходимо нажать на значок "ссылка" на панели инструментов, в поле "адрес" прописать ссылку на страницу с якорем, а также имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/format#anchor), нажать "вставить".
-**Вставка картинки/фото**
-При загрузке изображений обращайте внимание на его размер. Чем шире изображение, тем больше места оно занимает на странице. Изменить размер изображения можно непосредственно при его загрузке.
-1. Нажимаем кнопку "Загрузка и вставка картинки"
-2. Ждём загрузки изображения. Переходим на вкладку "Положение", поле "Размер". Первая цифра — размер в пикселях по ширине, вторая — размер в пикселях по высоте.
-3. Если размер изображения по ширине и высоте устраивает, нажимаем вставить.
-4. В том случае, если при размещении картинки она занимает слишком много места (непосредственно в редакторском интерфейсе или на готовой странице при её сохранении), в редакторском интерфейсе кликаем на картинку левой кнопкой мыши (тем самым выбирая изображение), после того, как на границах изображения появилась рамка, кликаем правой кнопкой мыши. В появившемся меню выбираем пункт "Добавить/изменить изображение".
-5. В открывшемся окне снова выбираем вкладку "Положение" и меняем размеры картинки. Нажимаем кнопку "Обновить".
-Если Вы собираетесь разместить несколько изображений на странице, лучше воспользоваться опцией «Фотоальбом» (внизу страницы).  Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете страницу.  
-****
-**Загрузка файлов**
-Для размещения файлов на странице необходимо воспользоваться кнопкой  на панели редактирования:
-После этого откроется диалоговое окно загрузки файла:
-В поле "Выберите файл" выбираем нужный файл (желательно, чтобы в имени файла были латинские буквы и между словами не было пробелов). В поле "Название" обязательно указываем название файла! Именно это название будет выводиться на сайте и использоваться для поиска по порталу и в поисковых системах. Обратите внимание на то, что у загружаемого файла должно быть внятное название без сокращений, многоточий и т.п. Нельзя называть файл "Регламент исп-я...тем...технич-го рег-та" и т.п. Пользователь ничего не поймет из подобного названия.
-Нажимаем кнопку "Загрузить". После того как файл загрузится, вид окна изменится. Для вставки файла на страницу нажимаем "Вставить":
-После того как файл появился в редакторском интерфейсе, его название при необходимости можно поправить.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/tables**
- Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  
-**Копирование таблицы из Word и Excel**
-В том случае, если Вы копируете таблицу из Word или Excel, необходимо пользоваться инструментами очистки лишнего кода и форматирования.
-Сначала нужно воспользоваться кнопкой "очистка стилей таблицы":
-Далее необходимо использовать "метелку" и "ластик" для очистки формата текста.
-Если таблица будет вставлена некорректно, она будет некорректно отображаться на экранах компьютеров и мобильных устройств.
- Оформление должно быть в строгом корпоративном стиле! Не надо задавать красную строку, выравнивать текст по ширине, по центру, по левому краю, по правому краю. Выравнивание по ширине применяется только при книжной верстке, где есть переносы, при веб-верстке переносы отсутствуют и выравнивание по ширине приводит к тому, что слова расползаются, появляются большие интервалы. Внимательно следите за тем, чтобы не было двойных пробелов, лишних подчёркиваний, выделения информации множеством восклицательных знаков и путем раскрашивания текста во все цвета радуги. 
-**Создание таблицы в визуальном редакторе**
-Создавать таблицы лучше непосредственно в визуальном редакторе статической страницы. Для создания таблицы кликните на иконку 
-В появившемся окне укажите необходимое количество строк и столбцов. При необходимости отметьте флажок «Заголовок ячейки». В этом случае у первой строчки таблицы ячейки будут объединены. В момент первоначального создания таблицы не рекомендуем задавать границы таблицы, поскольку в этом случае в визуальном редакторе границы таблицы отображаться не будут (хотя при сохранении страницы и при просмотре её в обычном режиме все границы отобразятся).
-После заполнения необходимых полей нажимаем кнопку «Вставить». После этого работа с таблицей в редакторском интерфейсе происходит так же, как в любом текстовом редакторе. Правой кнопкой мышки либо при помощи кнопок работы с таблицей можно добавлять и удалять строки, объединять и разбивать ячейки, устанавливать ширину и высоту строк (в случае, если это действительно необходимо).
-Если вы в самом начале работы с таблицей не поставили значение границы, а границы для данной таблицы необходимы, то задать их можно двумя способами: 1) ставим курсор в любом месте таблицы, кликаем правой кнопкой мышки, в появившемся контекстном меню выбираем «Параметры таблицы», в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ); 2) ставим курсор в любом месте таблицы и снова нажимаем на иконку создания таблицы. В появившемся окошке в поле «Граница» проставляем значение толщины границ (1 – практически универсальный размер границ).
-**Специальные шаблоны для создания таблиц**
-Таблицу можно также добавить через «специальные шаблоны». Нажмите на кнопку добавления специального элемента.
-Строка данных включает в себя заголовок и 2 строки с данными, значения и их расшифровка. Можно разместить до 6 столбцов с возможностью их объединения.
-Блок данных представляет из себя несколько колонок с информацией, максимальное количество колонок также равно 6.
-Воздушная таблица отделена от верхнего контента на странице линией, при наведении на строку таблицы будет изменяться ее цвет.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/pages**
-Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
-Создайте страницу, кликнув по иконке 
-При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
-Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
-Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
-Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
-В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
-После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
-После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
-Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
-Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
-Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/sostav**
-Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
-Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа — непосредственно поле для размещения виджетов и, соответственно, информации.
-Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. 
-Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.
-После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!
-**ВИДЖЕТЫ:**
-**Текст**
- Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. В остальном принципы оформления текста те же, что и на простой статической странице. 
-**Изображения**
- Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
-**Видео**
- Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
-**Якорь**
- Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
-**Цветные блоки**
- Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке – их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
-**Связанные материалы**
- Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
-**Список персон**
- Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия – те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
-**Хронология**
- С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    
-**Партнеры**
- Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
-**Колонки**
- Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  
-**Соцсети**
- Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
-**Плашка**
- Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  
-**Даты**
- Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  
-**Цифра**
- Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
-**Выпадайки**
- Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  
-**Кнопка**
- Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
-**Часто задаваемые вопросы**
-   Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/photo**
-Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
-Вы можете сами проверить свой сайт с помощью этого инструмента.
-Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
- Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
-Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
-Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
-А для главной страницы типичной образовательной программы – так:
-Разница в объеме потенциально оптимизируемого – в 17 раз.
-Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
-К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/instev**
-Вход в редакторский режим https://www.hse.ru/adm/  Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).
-**Оформление главной страницы**
-Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».
-Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» — для английской версии сайта).
-Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом.  
-**1 — 5 пункт заполняется в Блоки — Правая колонка — Данные о мероприятии.**
-**1. Заголовок**
-Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст — основное название мероприятия — отображается крупно.
-**2. Даты мероприятия3. Кнопка регистрации (ссылка на регистрацию)**
-Создание формы регистрации.
-**4. Ключевые даты**
-Заполняется в поле «Пояснение». Надпись «Важные даты» может варьироваться по усмотрению.
-**5. Место проведения, Контакты**
-В этой же вкладке Вы можете заполнять и использовать все другие поля. «Время начала мероприятия», «Языки мероприятия», ссылка на карту «Как добраться», «Важные ссылки», «Файлы» — все эти данные будут отображаться в правой части сайта.
-**6. Меню (горизонтальное) в центральной части страницы**
-**Блоки — Настройки — Меню**
-Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка — название пункта меню, вторая — ссылка на страницу (создание и редактирование статических страниц).
-Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.
-Возможен еще один вариант расположения меню — в правой части сайта под датой мероприятия (см. рисунок ниже).
-По логике заполнения и редактирования правой части сайта, данные пункты вносятся в
-**Блоки — Правая колонка — Данные о мероприятии — Важные ссылки.**
-**Оформление аннотации/главной страницы сайта мероприятия**
-Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.
-Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/ — Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.
-Аннотация находится в поле «О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.
-**Оформление нижней части сайта мероприятия**
-Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.
-**Это делается в Блоки — Подвал — Участники**
-Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.
-По аналогичному принципу устроен пункт оформления партнеров мероприятия.
-**Блоки — Подвал — Партнеры**
-где необходимо добавлять логотип организации-партнера и ссылку на них.
-Однако зачастую бывает удобнее размещать партнеров в правой части сайта.
-Здесь снова работает логика работы с правой колонкой.
-**Блоки — Правая колонка — Текстовые блоки**
-Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.
-**Оформление программы мероприятия**
-Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.
-**Данный инструмент находится в Блоки — Контент — Расписание мероприятий**
-Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.
-**Оформление страницы организационного комитета (программного комитета, докладчиков и др.).**
-Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции: https://portal.hse.ru/sostav.
-И главное — не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/poll**
-**https://portal.hse.ru/poll**
- Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
-**https://portal.hse.ru/poll**
-**Создание формы**
-Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
-Нажимаем на +, чтобы создать форму.
-Далее нужно указать:
- название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
-Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
-Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
-Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
-Далее необходимо нажать на кнопку «Добавить блок вопросов».
-Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
-Пример блоков
-Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
-Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
-Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
-Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
-Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
-Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
-Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
-Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
-После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
-**https://portal.hse.ru/poll**
-**Дополнительные параметры**
-Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
-В открывшемся окне вы можете:
- Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
-В разделе «Дополнительные параметры» вы также сможете:
- Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
-Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
-Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
-**https://portal.hse.ru/poll**
-**Ссылка на форму/Клонирование/Выгрузка ответов**
-Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
-1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
-2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
-3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
-4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/landing**
-**https://portal.hse.ru/landing**
-Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).
-**https://portal.hse.ru/landing**
- Быстрые ссылки  Шапка Меню Основная колонка Виджеты  
-**https://portal.hse.ru/landing**
-**Шапка**
-В данном разделе редактируется то, что размещается в шапке сайта (картинка, заголовок, подзаголовок, кнопки).
-При выборе картинки в шапку имейте в виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по центру. Размер изображения ­— 1600 пикселей по ширине, вес — 200-300 кб. Изображения, заливаемые на портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у проекта есть свой фирстиль, который должен быть отражен в шапке, то необходимо учитывать требования к картинке.
-Чтобы шапка отображалась не только на главной, но и на внутренних страницах сайта, нужно зайти в раздел «Шапка на вторых страницах» и выбрать: «Шапка с главной страницы» или «Своя шапка». Обычно для показа на внутренних страницах сайта используется «Шапка с главной страницы».
-**Меню**
-Отображение меню регулируется в разделе «Шапка». По умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы хотите его вывести — «снизу» или «сверху».
-Есть также опция сделать меню «по центру». Сами пункты меню редактируются в Данные-Блоки-Меню
-**Основная колонка**
-«Основная колонка главной страницы» — главный раздел, которым вы пользуетесь. Слева расположен набор виджетов, справа — поле, куда виджет нужно переместить и где будет располагаться ваш контент.
-Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. Нажимаем «Сохранить» в конце страницы и обязательно проверяем, что получилось!
-**Текст**
- Для размещения текста нужно выбрать виджет «Фрагмент текста с заголовком».  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и цифры соединяли тире, а не дефисы), используйте программу «Типограф». 
-**Изображения**
- Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
-**Видео**
- Видео сначала необходимо разместить на Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант — «Встроить». У вас откроется окно, где слева будет видео, а справа — встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
-**Якорь**
- Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в нужное место и прописать в нем латинскими буквами «имя якоря» (напр: anchor). В ссылке, по которой пользователь будет переходить в определенное место страницы, в поле «адрес» нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
-**Цветные блоки**
- Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке — их может быть 2 или 3, нажимаете на кнопку «добавить», открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
-**Новости**
- Новости размещаются в разделе «Новости», см. инструкцию. При этом, чтобы они показывались на странице, их нужно вывести с помощью виджета «Новости», выбрав оформление «Плитки». Если вы хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в поле «Заголовок».  Пример:  
-**Мероприятия (анонсы)**
- Анонсы размещаются в разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на странице, их нужно вывести с помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в поле «Заголовок».  Пример:  
-**Связанные материалы**
- Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом «Связанные материалы». Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
-**Список персон**
- Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из ВШЭ, то вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле «Описание/контакты» добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле «Описание/контакты» добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. В поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет «Строка с колонками», а потом непосредственного в него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы хотите 3 персоны в ряд. Выставляете ширину колонки «3», если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу «12». Остальные действия — те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
-**Хронология**
- С помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В появившемся окне вписываете заголовок и текст, далее нажимаете опять «Добавить запись» за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете «Добавить запись» внутри окна.  Пример:    
-**Партнеры**
- Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
-**Колонки**
- Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом «Строка с колонками». У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с заголовком».  Пример:  
-**Контент-блок**
- Если необходимо разбить текст на смысловые части, наложив текст на фон (цвет или картинка), то надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в который непосредственно будете размещать информацию — например, виджет «Фрагмент текста с заголовком».  Пример:  
-**Соцсети**
- Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
-**Плашка**
- Для выделения значимых пунктов в тексте можно воспользоваться виджетом «Плашка с цифрой». Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы не ставите галочку около «Нумерация». Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет «Строка с колонками» (о том, как это сделать смотрите выше), а потом в него переместить виджет «Плашка с цифрой». Пример:  
-**Даты**
- Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и «Текст». Если вы хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  
-**Цифра**
- Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
-**Выпадайки**
- Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет «Набор с выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в поле «Описание» ставите текст, который будет показываться до скрытого текста, в поле «Открывающийся текст» вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет «Набор с выпадайками 2». Нажимаете кнопку «Добавить блок», в поле «Заголовок» вписываете текст, по которому будут кликать, в поле «Открывающийся текст» вписываете текст, который будет открываться по клику.  Пример:  
-**Кнопка**
- Если вам нужно создать кнопку, например «Регистрация», вы выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
-**Часто задаваемые вопросы**
- Если вам нужно создать блок «Часто задаваемые вопросы», то вы выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и «Ответ». Далее нажимаете «Добавить». В открывшемся поле заполняете название кнопки и ссылку на страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с заливкой, так и прозрачной.  Пример:  Чтобы разместить все вопросы на странице, надо выбрать виджет «Вопросы и ответы (FAQ)», нажать «Добавить вопрос» и заполнить поля «Вопрос» и «Ответ».  Пример:  
-**Вкладки**
- Если вы хотите разместить информацию в виде переключающихся между собой блоков, то нужно выбрать виджет «Вкладки». Далее вы нажимаете «Добавить вкладку», в поле «Заголовок» пишите название вкладки, в пустое поле перемещаете виджет «Фрагмент текста с заголовком», где и размещаете информацию.  Пример:  
-**Слайдер**
- Инструкцию по размещению баннера в виджете «Слайдер» вы можете прочитать здесь. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/header-banner**
-**Простой вариант**
-Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo
-**Сложный вариант – используется, когда у проекта есть свой фирстиль**
-Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:
-1. Фон (пример: заливка цветом, паттерн).
-2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).
-3. Графический элемент (пример: логотип, иллюстрация, фото).
-При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:
-1. 375px для мобильных устройств;
-2. 800px для планшетов;
-3. 1600px для пк и ноутбуков.
-Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу – служебные поля, в которых может быть размещен только фон.
-Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.
-Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/nov**
-**https://portal.hse.ru/nov**
- Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
-**https://portal.hse.ru/nov**
-Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
- Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
-Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
-Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
-Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
-**Создание новости**
-Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
-Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
-Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
-Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
-Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
-При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
-Обязательно выбираете рубрику и ключевые слова.
-Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
-Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
-Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
-Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
-Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
-**Предосмотр новости**
-Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
-**Составной редактор**
-Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
-Далее следуем инструкции по составной странице.
-**Иллюстрация новости**
-Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
-Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
-Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
-Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
-Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
-**Копирование на другой сайт**
-Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
-В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
-Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
-Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/slider_banners**
-**https://portal.hse.ru/slider_banners**
-Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.
-**https://portal.hse.ru/slider_banners**
- Заголовок. Несколько слов, кратко и емко описывающих тему. Если заголовок будет слишком длинным, вместе с текстом анонса он может не поместиться на мобильной версии.
-Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у заголовка.
- Как на мобильной версии скрыть часть анонса Если вы видите, что на экране мобильного текст анонса не помещается полностью, оберните его в тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на мобильном и скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; 
-**https://portal.hse.ru/slider_banners**
-**Как оформить баннер**
-Существует два варианта оформления баннера: заливка цветом и фоновая картинка.
-По умолчанию редактор предлагает стиль Amethyst и другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих цветов.
-Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»
-Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине. Перед загрузкой картинки необходимо оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.  На этой странице вы найдете ссылки на бесплатные фотобанки и фотографии нашего университета. Используя их, вы можете быть уверены, что не нарушаете авторские права. На баннерах нельзя размещать изображения с готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и текст на нем теряется, его можно затемнить.
- Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в программе, выбираем в верхнем меню — Изображение — Коррекция — Кривые или используем горячие клавиши Ctrl + M. Далее с помощью изменения точек кривой затемняем изображение до нужного уровня. 
-Стили CSS. В этом поле можно установить позиционирование фонового баннера на странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в примере выше это .vp) должно быть уникальным для каждого баннера и написанным на латинице. Так, .vp — cокращение от «Высший пилотаж». Используйте следующий код, заменив первое значение:
-.vp.splash.pseudo { background-position: 50% 25%; }
-CSS класс. Чтобы стили работали, скопируйте значение первого класса из Стилей CSS, но без точки (в примере это vp).
-Темный текст. Устанавливаете, если фон сплешки светлый.
-**https://portal.hse.ru/slider_banners**
-**Как скрыть/удалить баннер**
-Если вам нужно скрыть баннер, делаете его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать на крестик в правом углу и сохранить изменения.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/tools**
-Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.
-На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).
-Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.
-А на этой странице собраны ссылки на зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками Дирекции по порталу и мобильным приложениям  в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы пользуетесь удобным ресурсом, о котором мы еще не знаем, присылайте информацию на адрес dkoptubenko@hse.ru.
-**Обработка фотографий**
-Colordot — инструмент для определения HTML-кода для требуемого цвета. В отличие от аналогов имеет визуально удобную палитру
-Pixlr — не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений
-TinyPNG — один из проверенных инструментов для сжатия изображений перед публикацией их на сайте
-**Бесплатные фотобанки**
-Unsplash — изумительной красоты фотографии, в основном, видовые
-Gratisography — бесплатные жанровые фотографии
-StockSnap.io — каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений
-Picjumbo — платный ресурс, но часть фотографий можно брать оттуда за просто так
-Picography — небольшая по объему коллекция бесплатных фотографий
-Library of Congress — исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения
-Morguefile — в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки
-Textures — подборка паттернов и фоновых изображений
-L+T — альтернативный сервис по подборке фоновых изображений
-FreeStockTextures — более 800 паттернов
-TextureZoom — тематические текстуры
-**Решения для инфографики**
-draw.io — интерактивные блок-схемы мы создаем при помощи этого инструмента
-easelly — простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось
-MyBalsamiq — сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами
-**Визуальные решения для сайта**
-StoryMap — с его помощью можно создавать интерактивные карты.
-Juxtapose — элегантный инструмент для демонстрации изменений на однотипных объектах. С помощью слайдера пользователь может сравнить, как было, и как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с одного ракурса
-Timeline JS — с его помощью можно создавать таймлайны (интерактивные истории, растянутые во времени). На портале использовался, например, при создании страницы к 20-летию нижегородского кампуса
-Soundcite — инструмент для создания аудиопрезентаций
-Prezi — мощная альтернатива Powerpoint для создания презентаций
-Fliphtml5 — инструмент для размещения pdf-файлов в виде раскрытой книги с возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.
-Формулы — инструмент для отображения формул на сайте. 
-**Создание опросов**
-Google Формы — бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за периметром портала. Для формирования опросных или регистрационных форм на портале есть штатный инструмент
-**Работа с соцсетями**
-ВКонтакте pages.clearCache —  инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и учтет внесенные на нее изменения
-vk.com/cc — инструмент для генерации коротких ссылок для «ВКонтакте»
-SMMPlanner — отложенный постинг в социальные сети
-Ezgif — создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)
-Make Beliefs Comix — создание комиксов
-**Оптимизация файлов**
-Онлайн-инструменты для любителей PDF — полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.
-**Узнать больше**
-Tutorialspoint — обширный набор учебников и инструкций: как пользоваться MS Word, Powepoint, Excel и сотнями других программ и приложений
-html academy — на сайте есть отличный бесплатный базовый курс по html и css, «настольная книга» для каждого, кто имеет доступ к редактированию страниц на портале
-Codecademy — интерактивные курсы по программированию
-https://smmplanner.com/
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
         <is>
           <t>**https://portal.hse.ru/progs**
 **О шаблоне «Сайт образовательной программы»**
@@ -1557,16 +1534,47 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/help**
+        		    Шаг 1
+Необходимо удостовериться, что ваша персональная страница появилась на сайте. Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала. 
+        		    Шаг 2
+Следует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина ввести адрес корпоративной почты сотрудника, в качестве пароля – пароль от этой почты.
+Если вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь на digital@hse.ru
+        		    Шаг 3
+В ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста, на portal@hse.ru.
+В письме укажите:
+• ФИО сотрудника
+• Адрес корпоративной почты
+Служба портала пропишет e-mail, и вы сможете войти.
+Письмо должно быть отправлено строго с корпоративной почты сотрудника @hse.ru 
+</t>
+        </is>
+      </c>
+    </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
-Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
-Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
-Заявка должна быть отправлена с корпоративного адреса электронной почты.
+          <t xml:space="preserve">**https://portal.hse.ru/newdesignbb**
+Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки) и поставить соответствующую галочку.
+В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.
+Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».
+На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть). 
+Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует выбрать нужную доску из списка.
+Что не следует делать:
+Создавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».
+Использовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание
+Пренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.
+Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.
+Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs
 </t>
         </is>
       </c>
@@ -1671,68 +1679,6 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/resp**
-На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
-Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.
-В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.
-Ответственные от факультетов и филиалов за редактирование страниц подразделений
-Ответственные за персональные страницы сотрудников
-Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.
-Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)
-Ответственным от факультетов и филиалов за редактирование страниц подразделений
-Ответственным за персональные страницы сотрудников
-**Как изменить сведения об ответственных**
-**Добавление сотрудника:**
-Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.
-**Удаление сотрудника из списка**
-Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.
-Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/site**
- Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
-**Доступ к редактированию**
-Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
-Перейти к режиму редактирования сайта можно двумя способами:
- По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
-Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
-**Наполнение сайта**
-Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
- Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
-Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
-Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
-Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
-Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
-**Меню: основные ошибки**
- Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
-**Как вывести страницу «Сотрудники»?**
-Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
-Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
-Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
-**Размещение текстов: что можно и что нельзя**
-**Можно и нужно:**
- Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
- Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
-**Размещение новостей: на что обратить внимание**
- У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t xml:space="preserve">**https://portal.hse.ru/metaunits**
 В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
 Здания
@@ -1767,11 +1713,142 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/script**
+Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
+Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
+На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
+Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
+**Сортировка сотрудников по должностям на странице**
+Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
+В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
+В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
+**Шаг 1**
+**Шаг 2**
+Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
+</t>
+        </is>
+      </c>
+    </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/meta**
+В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
+ Быстрые ссылки  Описание документа Соцсети  
+**Описание документа**
+Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов. Большая просьба также заполнить его для уже созданных сайтов и статических страниц.
+Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).
+Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст. 
+**Рекомендации по составлению мета-описаний (c сайта Яндекса):**
+ Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. 
+**Примеры плохих мета-описаний (с сайта Яндекса):**
+ Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. 
+**Примеры правильного заполнения мета-описаний:**
+https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ
+description: В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.
+https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ
+description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.
+https://www.hse.ru/figures/ Цифры и факты
+description: Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.
+https://ma.hse.ru/ Абитуриентам магистратуры
+description: Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.
+**Соцсети**
+Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.
+На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.
+Картинка 1: когда все заполнено
+Картинка 2: когда ничего не заполнено
+Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со искомой страницы и учтет внесенные на нее изменения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/site**
+ Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
+**Доступ к редактированию**
+Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
+Перейти к режиму редактирования сайта можно двумя способами:
+ По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
+Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
+**Наполнение сайта**
+Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
+ Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
+Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
+Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
+Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
+Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
+**Меню: основные ошибки**
+ Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
+**Как вывести страницу «Сотрудники»?**
+Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
+Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
+Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
+**Размещение текстов: что можно и что нельзя**
+**Можно и нужно:**
+ Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
+ Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
+**Размещение новостей: на что обратить внимание**
+ У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/resp**
+На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
+Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.
+В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.
+Ответственные от факультетов и филиалов за редактирование страниц подразделений
+Ответственные за персональные страницы сотрудников
+Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.
+Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)
+Ответственным от факультетов и филиалов за редактирование страниц подразделений
+Ответственным за персональные страницы сотрудников
+**Как изменить сведения об ответственных**
+**Добавление сотрудника:**
+Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.
+**Удаление сотрудника из списка**
+Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.
+Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/seo_recommends**
  Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  
@@ -1851,93 +1928,16 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/meta**
-В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
- Быстрые ссылки  Описание документа Соцсети  
-**Описание документа**
-Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов. Большая просьба также заполнить его для уже созданных сайтов и статических страниц.
-Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).
-Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст. 
-**Рекомендации по составлению мета-описаний (c сайта Яндекса):**
- Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. 
-**Примеры плохих мета-описаний (с сайта Яндекса):**
- Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. 
-**Примеры правильного заполнения мета-описаний:**
-https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ
-description: В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.
-https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ
-description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.
-https://www.hse.ru/figures/ Цифры и факты
-description: Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.
-https://ma.hse.ru/ Абитуриентам магистратуры
-description: Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.
-**Соцсети**
-Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.
-На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.
-Картинка 1: когда все заполнено
-Картинка 2: когда ничего не заполнено
-Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со искомой страницы и учтет внесенные на нее изменения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
-На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
-Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
-**Сортировка сотрудников по должностям на странице**
-Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
-В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
-В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
-**Шаг 1**
-**Шаг 2**
-Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/script**
-Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
-Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/newdesignbb**
-Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки) и поставить соответствующую галочку.
-В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.
-Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».
-На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть). 
-Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует выбрать нужную доску из списка.
-Что не следует делать:
-Создавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».
-Использовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание
-Пренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.
-Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.
-Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs
+          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
+Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
+Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
+Заявка должна быть отправлена с корпоративного адреса электронной почты.
 </t>
         </is>
       </c>
@@ -1947,170 +1947,6 @@
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/aspresponsible**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по экономике**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по менеджменту**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по государственному и муниципальному управлению; по философским наукам**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по праву**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школы: по социологическим наукам; по политическим наукам; по искусству и дизайну; по международным отношениям и зарубежным региональным исследованиям**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по историческим наукам; по филологическим наукам; по философским наукам; по культурологии**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по техническим наукам**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по компьютерным наукам; по физике**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по образованию**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по психологии**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по математике**
-**https://portal.hse.ru/aspresponsible**
-**Академическая аспирантура**
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/analytics**
-На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.
-Вопросами, связанными с посещаемостью страниц портала, занимается Отдел веб-аналитики и моделирования.
-**Доступ к аналитике**
-**Предоставление доступа для специалистов по привлечению трафика или рекламных агентств**
- Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). 
-**Предоставление доступа сотрудникам ВШЭ**
-Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.
-Доступ предоставляется в течение одного рабочего дня.
-Запрос на предоставление доступа
-**Как узнать посещаемость сайта**
-**В Яндекс.Метрике**
-Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, — использовать сервис стандартных отчетов «Заголовки страниц».
-В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу https://yandex.ru/support/metrika/
-**В Google Analytics**
-В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение → Контент сайта → Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).
-Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток. Подробная пользовательская инструкция Google Analytics находится по адресу https://support.google.com/analytics/
-**Как узнать число скачиваний файлов**
-**В Яндекс.Метрике**
-Стандартный отчет формируется так: Отчеты → Стандартные отчеты → Содержание → Загрузки файлов.
-Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.
-**В Google Analytics**
-В меню сервиса выбирается вкладка Поведение → События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).
-Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/pay**
-На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес underground@hse.ru. Срок оказания услуги — 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.
-**Что нужно указать в заявке**
-Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:
-Номер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.
-Наименование подразделения, которое будет осуществлять прием платежей;
-Шифр подразделения по ИС-ПРО;
-Адрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);
-Список электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки отчета по произведенным оплатам;
-Сроки приема платежей;
-Включен ли в сумму платежа НДС или нет;
-Требуется ли англоязычная версия формы;
-Список категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы платежей в рублях;
-Текст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);
-При необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;
-Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.
-Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.
-Важно!• Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора платежей суммы к оплате указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.• Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается. Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.
-**Варианты форм оплаты**
-Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
-Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/elibrary**
-С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ. Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.
-Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.
-Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.
-ВНИМАНИЕ! Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.
-Инструкции
-Регистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора
-**Регистрация в Science Index**
-Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.
-Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».
-**Внесение данных в регистрационную анкету и улучшение автоматической привязки публикаций**
-При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет → Профиль автора → Регистрационная карточка автора.
-1. Проверьте, указана ли аффилиация с НИУ ВШЭ
-2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций
-В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.
-3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.
-Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.
-После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.
-**Работа со списком публикаций**
-После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.
-1. Начните с просмотра списка ваших публикаций (Профиль автора → Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.
-Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».
-2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору». В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».
-3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.
-4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.
-**Работа со ссылками на публикации**
-Работа со ссылками во многом напоминает работу с публикациями
-1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».
-2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».
-В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».
-3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».
-4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).
-**Порядок обращения к ответственным от подразделений**
-Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.
-Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.
-Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.
-Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.
-В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).
-Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:
-**Анализ публикационной активности автора**
-Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.
-Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».
-Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/dpo_new**
 **https://portal.hse.ru/dpo_new**
@@ -2268,6 +2104,170 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/pay**
+На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес underground@hse.ru. Срок оказания услуги — 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.
+**Что нужно указать в заявке**
+Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:
+Номер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.
+Наименование подразделения, которое будет осуществлять прием платежей;
+Шифр подразделения по ИС-ПРО;
+Адрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);
+Список электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки отчета по произведенным оплатам;
+Сроки приема платежей;
+Включен ли в сумму платежа НДС или нет;
+Требуется ли англоязычная версия формы;
+Список категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы платежей в рублях;
+Текст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);
+При необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;
+Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.
+Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.
+Важно!• Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора платежей суммы к оплате указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.• Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается. Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.
+**Варианты форм оплаты**
+Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/analytics**
+На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.
+Вопросами, связанными с посещаемостью страниц портала, занимается Отдел веб-аналитики и моделирования.
+**Доступ к аналитике**
+**Предоставление доступа для специалистов по привлечению трафика или рекламных агентств**
+ Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). 
+**Предоставление доступа сотрудникам ВШЭ**
+Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.
+Доступ предоставляется в течение одного рабочего дня.
+Запрос на предоставление доступа
+**Как узнать посещаемость сайта**
+**В Яндекс.Метрике**
+Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, — использовать сервис стандартных отчетов «Заголовки страниц».
+В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу https://yandex.ru/support/metrika/
+**В Google Analytics**
+В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение → Контент сайта → Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).
+Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток. Подробная пользовательская инструкция Google Analytics находится по адресу https://support.google.com/analytics/
+**Как узнать число скачиваний файлов**
+**В Яндекс.Метрике**
+Стандартный отчет формируется так: Отчеты → Стандартные отчеты → Содержание → Загрузки файлов.
+Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.
+**В Google Analytics**
+В меню сервиса выбирается вкладка Поведение → События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).
+Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/aspresponsible**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по экономике**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по менеджменту**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по государственному и муниципальному управлению; по философским наукам**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по праву**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школы: по социологическим наукам; по политическим наукам; по искусству и дизайну; по международным отношениям и зарубежным региональным исследованиям**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по историческим наукам; по филологическим наукам; по философским наукам; по культурологии**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по техническим наукам**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по компьютерным наукам; по физике**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по образованию**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по психологии**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по математике**
+**https://portal.hse.ru/aspresponsible**
+**Академическая аспирантура**
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/elibrary**
+С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ. Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.
+Что можно сделать в первую очередь: 1) зарегистрироваться в РИНЦ:Science Index; 2) уточнить регистрационные данные для улучшения привязки публикаций; 3) проверить и скорректировать свой список публикаций; 4) проверить и скорректировать список ссылок на свои публикации.
+Ниже приведена краткая инструкция с учетом опыта работы с РИНЦ в НИУ ВШЭ. Полную инструкцию для авторов можно найти на сайте РИНЦ.
+ВНИМАНИЕ! Для корректной работы с сайтом РИНЦ необходимо отключить блокировку всплывающих окон для elibrary.ru.
+Инструкции
+Регистрация в Science IndexВнесение данных в регистрационную анкету и улучшение автоматической привязки публикацийРабота со списком публикацийРабота со ссылками на публикацииПорядок обращения к ответственным от подразделенийАнализ публикационной активности автора
+**Регистрация в Science Index**
+Если вы не зарегистрированы в Science Index, пройдите по этой ссылке: https://elibrary.ru/author_info.asp?isnew=1&amp;inreestr=on, либо выберите кнопку «Регистрация» в панели «Вход» на сайте elibrary.ru.
+Убедитесь, что в регистрационной анкете проставлена галочка «зарегистрировать меня как автора в системе Science Index».
+**Внесение данных в регистрационную анкету и улучшение автоматической привязки публикаций**
+При регистрации необходимо внести данные во все поля, обязательные для заполнения. Однако мы рекомендуем обратить внимание и на другие поля, так как это поможет автоматически привязать максимальное число ваших публикаций к аккаунту. Если вы уже зарегистрированы в Science Index, то можете внести эти данные, перейдя по ссылке: https://elibrary.ru/author_info.asp?isold=1, или пройдя в Личный кабинет → Профиль автора → Регистрационная карточка автора.
+1. Проверьте, указана ли аффилиация с НИУ ВШЭ
+2. В нижней части формы находятся поля, которые могут улучшить качество автоматической привязки публикаций
+В поле «Журналы» внесите журналы, в которых вы публиковались. В поле «Организации» укажите другие организации, в которых вы могли работать ранее. Если раньше у вас была другая фамилия, укажите ее в поле «Предыдущая фамилия (девичья)». Если вы публиковались или собираетесь публиковаться в зарубежных изданиях, укажите варианты написания фамилии латиницей – через запятую. В поле «Идентификационные коды автора» укажите любые другие свои идентификационные коды.
+3. После сохранения карточки в течение 2-10 дней вы получите уникальный идентификатор: SPIN-код автора.
+Он будет указан в панели «Сессия» слева, а также в начале регистрационной карточки. Необходимо указать этот SPIN-код в своем личном кабинете на портале НИУ ВШЭ.
+После получения SPIN-кода система выполнит привязку публикаций к вашему профилю, и вы получите возможность вносить исправления в список публикаций и список ссылок на публикации.
+**Работа со списком публикаций**
+После регистрации и заполнения карточки система попытается идентифицировать ваши работы автоматически и привязать их к вашему профилю. Однако возможны и ошибки идентификации.
+1. Начните с просмотра списка ваших публикаций (Профиль автора → Мои публикации). Проверьте, все ли публикации присутствуют в списке. Нет ли публикаций других авторов. Если таковые имеются, выберите их и нажмите «Удалить выделенные публикации…». Проверьте, правильно ли указана аффилиация для этих публикаций. Например, аффилиация с НИУ ВШЭ должна выглядеть так, как на рисунке ниже, то есть оформлена в виде гиперссылки со всплывающим полным названием.
+Если это не так, нажмите «Идентифицировать организацию, указанную в публикации в качестве места моей работы» в панели «Инструменты».
+2. Если в списке не обнаружены некоторые публикации, выберите в выпадающем списке «Показывать» «Непривязанные публикации, которые могут принадлежать данному автору». В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные публикации в список работ автора».
+3. Если некоторых публикаций нет ни в одном из указанных двух списков, это означает, что система не смогла идентифицировать публикации автоматически. В таком случае можно попытаться найти и привязать публикации вручную. Воспользуйтесь расширенным поиском (в левой верхней части страницы): вначале можно поискать по неполному имени и отчеству автора, затем, если, например, известно точное название публикации – по названию. После нажатия кнопки «Поиск» выводится список найденных публикаций – звездочкой помечены те, которые уже привязаны к вашему профилю. Если в списке найденных публикаций вы видите ту, которую необходимо привязать, щелкните по ее названию – откроется страница с описанием. В панели «Инструменты» выберите пункт «Добавить публикацию в список моих работ (если Вы являетесь ее автором)». После проверки публикация будет привязана к вашему профилю.
+4. Если не удалось найти публикацию ни в одном из этих случаев, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил нужную публикацию.
+**Работа со ссылками на публикации**
+Работа со ссылками во многом напоминает работу с публикациями
+1. Начните с просмотра списка ссылок: Профиль автора → Мои цитирования (либо в списке публикаций в панели «Инструменты» выберите «Вывести список ссылок на работы автора». Проверьте, нет ли в списке лишних ссылок. Если таковые имеются, выберите их и нажмите «Удалить выделенные ссылки из списка цитирований автора».
+2. В выпадающем списке «Показывать» выберите «Непривязанные ссылки, которые могут принадлежать данному автору».
+В открывшемся списке пометьте галочками принадлежащие вам публикации, после чего нажмите «Добавить выделенные ссылки в список цитирований автора».
+3. Если какие-то ссылки в этих списках отсутствуют, их можно попытаться привязать вручную. Для этого из Профиля автора перейдите в раздел «Поиск цитирований в РИНЦ». Довольно часто ссылки не могут быть привязаны, так как в цитирующей работе неверно указана ФИО автора. Поэтому можно начать поиск с ввода в поле «Автор цитируемой публикации» фамилии автора без инициалов, или даже части фамилии. Если вы хотели бы уточнить список ссылок на конкретную работу, можно в поле «Любое слово из текста ссылки» ввести часть названия работы. После нажатия кнопки «Поиск» выводится список работ с соответствующими им ссылками. Звездочка означает, что данная ссылка уже привязана к вашей публикации. Выберите в списке те ссылки, которые необходимо привязать и в панели «Инструменты» нажмите «Добавить выделенные ссылки в список моих цитирований».
+4. Если ссылки по-прежнему отсутствуют, вы можете обратиться к ответственному от вашего подразделения, чтобы он добавил цитирующие публикации в РИНЦ (см. ниже).
+**Порядок обращения к ответственным от подразделений**
+Как видно из сказанного выше, у автора имеется достаточно богатый набор инструментов для уточнения данных о своих публикациях – а следовательно, и для уточнения индексов цитирования. Единственное существенное ограничение – отсутствует возможность добавлять публикации. Причем это касается и добавления ссылок на ваши публикации – так как добавление ссылки равносильно добавлению публикации.
+Пожалуйста, примите во внимание, что ответственный от подразделения не сможет добавить публикацию, если у него не будет полного ее описания. А оператор со стороны РИНЦ может отказать в добавлении, если у него не будет ссылки на опубликованную статью или ее электронной копии.
+Поэтому при обращении к ответственному необходимо предоставить следующие данные. Если это статья, то 1) название статьи, 2) название журнала; 3) год (том, номер), 4) страницы; 5) тематика – желательно, по классификатору ГРНТИ; 6) список литературы, 7) прямая ссылка на опубликованную статью; 8) (желательно) электронная копия статьи.
+Если это книга/сборник, то 1) название, 2) издательство, 3) год (том, если есть), 4) место издания (город), 5) тематика – желательно, по классификатору ГРНТИ; 6) прямая ссылка на описание книги на сайте издательства; 7) (желательно) электронная копия книги.
+В том случае, если добавление публикаций требуется для их привязки в качестве ссылки на одну из ваших публикаций, приведите название своей публикации и далее список ссылающихся публикаций со всеми необходимыми данными (см. выше).
+Ответственного для своего подразделения вы можете найти в списке ниже. Если ответственного в списке нет, можно написать Ощепкову Ивану Владимировичу:
+**Анализ публикационной активности автора**
+Чтобы оценить влияние вносимых изменений на показатели публикационной активности (индекс Хирша и т.п.), пожалуйста, перейдите на страницу «Анализ публикационной активности автора». Попасть на эту страницу можно из раздела «Персональный профиль автора», а также из «Авторского указателя», щелкнув мышью на цветной иконке с гистограммой.
+Если вы внесли изменения, и это не отобразилось на статистике, нажмите «Обновить показатели автора» на панели «Инструменты».
+Как правило, внесенные изменения будут отражены в ваших показателях в тот же день. Однако в отдельных (напр., спорных) случаях изменения могут быть учтены лишь через некоторое время (от недели до двух месяцев). Если вы считаете, что некие изменения не были учтены в течение долгого времени, обратитесь к ответственному от вашего подразделения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
+Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_files/level_1.xlsx
+++ b/data_files/level_1.xlsx
@@ -487,6 +487,278 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">**https://portal.hse.ru/persons**
+				Сотрудники
+Все подразделения
+Отдел развития и поддержки англоязычной версии портала
+Отдел развития и поддержки русскоязычной версии портала
+Учёные звания:
+Члены и члены-корреспонденты РАН и РАО
+Имеющие степень PhD
+Награды:
+Награжденные государственными наградами и почетными званиями
+Отмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти
+Отмеченные наградами и почетными званиями регионов и муниципальных образований
+Награжденные наградами иностранных государств
+Награжденные почетным знаком ВШЭ
+Лауреаты премии “Золотая Вышка”
+Награжденные медалями ВШЭ
+Отмеченные почетными грамотами университета
+Функционал:
+Ответственные за персональные страницы сотрудников
+Ответственные от факультетов и филиалов за редактирование страниц подразделений
+Сотрудники учебного офиса
+							Аболина Наталья Александровна
+Начальник управления
+Научные интересы
+web-технологии
+качество и контент сайта
+мониторинг качества образования
+мониторинг качества приема в вузы
+рейтинги высших учебных заведений
+юзабилити
+							Смирнова Людмила Викторовна
+Администратор
+Отдел развития и поддержки англоязычной версии портала
+							Никитина Мария Константиновна
+Главный редактор
+							Гриббен Кристофер Майкл
+Редактор
+							Соловова Екатерина Сергеевна
+Редактор
+							Черняховская Анна Мировна
+Редактор
+Отдел развития и поддержки русскоязычной версии портала
+							Фомичева Татьяна Александровна
+Начальник отдела
+Научные интересы
+Социология науки и образования
+инклюзивное образование
+интернет-исследования
+качество и контент сайта
+мониторинг качества образования
+социология семьи и детства
+университетские сайты
+							Бережная Лариса Георгиевна
+Дизайнер
+							Воробьева Татьяна Олеговна
+Редактор
+							Золотусская Мария Игоревна
+Редактор
+							Клименко Евгения Ивановна
+Редактор
+							Новикова Елена Геннадьевна
+Редактор
+Научные интересы
+мониторинг качества образования
+мониторинг качества приема в вузы
+							Чудаева Ольга Владимировна
+Редактор
+							Шушаков Максим Сергеевич
+Дизайнер
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/about**
+Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
+**Корпоративный портал (hse.ru) – это…**
+Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.
+**Новости и анонсы на главной странице портала**
+Управление по связям с общественностью  – основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.
+Чтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.
+**Персональные страницы**
+У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.
+Мы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо написать заявку на адрес portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.
+**База учебных курсов**
+Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.
+Если вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.
+**Сайты подразделений и образовательных программ**
+Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.
+Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.
+Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.
+Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.
+Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.
+По вопросам создания сайта обращайтесь, пожалуйста, на portal@hse.ru.
+**Английская версия портала**
+Англоязычный сайт Высшей школы экономики занял в 2015 году первое место в рейтинге сайтов университетов, составленном Российским советом по международным делам.
+Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения  (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.
+Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются  только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.
+Английская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в Отдел развития и поддержки англоязычной версии портала (Мария Бесова).
+При создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и  Стилистическим справочником.
+**Раздел «Цифры и факты»**
+В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.
+Когда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.
+**Система «Антиплагиат»**
+Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».
+Чтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.
+**Отчеты**
+Мы можем дать доступ к заполнению следующих электронных форм отчетов:
+отчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает Управление академического развития);
+отчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития). 
+Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.
+Чтобы получить доступ к отчету, достаточно написать письмо на адрес portal@hse.ru
+Пожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.
+**Новый функционал на портале**
+Разработкой портала занимается Управление разработки информационных систем портала. Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий и Дирекции по порталу и мобильным приложениям. Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол. 
+Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>**https://portal.hse.ru/progs**
+**О шаблоне «Сайт образовательной программы»**
+Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.
+ Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение SEO-оптимизированного текста (SEO - search engine optimization) на главной странице  служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. 
+**Основные контакты**
+  Служба поддержки портала,  portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и страницу «Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,  УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,  Центр поддержки и мониторинга образовательных программ  Раздел «Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы «Рейтинги», «Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   
+**Основные документы**
+Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»
+Положение об основной образовательной программе высшего образования
+ Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  
+**Как начать?**
+Если вы никогда ранее не работали с с сайтом образовательной программы (в т.ч. предыдущей версии), получите права редактора, написав с корпоративной почты письмо в свободной форме на адрес portal@hse.ru (служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом. 
+**Что делать, если программа новая и у нее еще нет сайта?**
+Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).
+**Какие материалы нужны для открытия сайта в базовой версии:**
+ Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). 
+**Как подготовить SEO-оптимизированный текст на сайт**
+Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала. 
+Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.
+Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.
+**Структура сайта образовательной программы**
+Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.
+ Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) 
+Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.
+Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.
+Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.
+**Шапка сайта образовательной программы**
+В шапке образовательной программы размещаются:
+ Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП) служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс дня открытых дверей). 
+Размещение тизера в шапке сайта.
+ Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору → Данные → Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. 
+**Главная страница программы**
+Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.
+Какие элементы есть на странице при открытии сайта:
+Метаинформация
+ Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы действительно отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.  Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» 
+Университеты-партнеры образовательной программы
+ Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип. Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. 
+Информация об ОП (раскрывающиеся блоки)
+ Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. 
+Видео (опционально)
+ На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению  к Шишкову Олегу Геннадьевичу или Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. 
+Важные объявления
+ Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум — два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления» → «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! 
+Мероприятия
+ Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле «Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.  Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом «Разместить в подразделении» (выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.  Для создания такой страницы нужно отправить запрос на адрес portal@hse.ru и приложить к письму наполнение для сайта.  
+Новости
+ Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле «Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам, можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. 
+Похожие программы
+ Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». 
+Вокруг нас (социальный блок)
+ Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  
+Меню (правая колонка)
+ Редактируется через Редактору → Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  
+Руководство программы (руководители, менеджеры)
+ Раздел редактируется Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к Сюзанне Райан. 
+**Верхнее меню (разделы программы)**
+В верхнем меню находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.
+Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.
+Раздел О программе
+ В данном разделе размещается общая информация о программе. В раздел «О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической страницы и что делать, если пункт меню помечен «замочком» 
+Раздел Абитуриентам (если есть набор)
+ Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на portal@hse.ru.    В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» 
+Раздел Студентам (если есть студенты)
+ Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел «Студентам» входят следующие обязательные пункты:  Рейтинги* (автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs) (статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.) (статстраница с техническим именем mobility) Практическая подготовка (статстраница с техническим именем internships) Каталог ВКР** (автоматическая страница с техническим именем diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена здесь. 
+Раздел Выпускникам (если есть информация для выпускников)
+ Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  
+**Общее меню**
+Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.
+Учебные курсы
+ Страница генерируется автоматически по адресу /courses на основе данных LMS. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
+Преподаватели
+ Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
+Число студентов и вакантные бюджетные места
+ Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. 
+Документы
+ Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела «Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы. Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики – добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов  (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО - на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07, или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле  «Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.  Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. 
+Расписание
+ Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».  
+Академический совет
+ Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. 
+**Создание новой страницы и нового пункта меню **
+Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».
+Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе «Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей. 
+Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.
+Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.
+Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения измен</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/newdesignbb**
+Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки) и поставить соответствующую галочку.
+В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.
+Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».
+На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть). 
+Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует выбрать нужную доску из списка.
+Что не следует делать:
+Создавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».
+Использовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание
+Пренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.
+Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.
+Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/help**
+        		    Шаг 1
+Необходимо удостовериться, что ваша персональная страница появилась на сайте. Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала. 
+        		    Шаг 2
+Следует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина ввести адрес корпоративной почты сотрудника, в качестве пароля – пароль от этой почты.
+Если вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь на digital@hse.ru
+        		    Шаг 3
+В ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста, на portal@hse.ru.
+В письме укажите:
+• ФИО сотрудника
+• Адрес корпоративной почты
+Служба портала пропишет e-mail, и вы сможете войти.
+Письмо должно быть отправлено строго с корпоративной почты сотрудника @hse.ru 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t xml:space="preserve">**https://portal.hse.ru/personalpages**
 **У кого есть персональная страница и как она появляется на портале?**
 Сотрудники НИУ ВШЭ (за исключением сотрудников категории административно-хозяйственного персонала, не занимающих руководящие должности) обязаны иметь заполненную в соответствии со Стандартом персональную страницу.
@@ -645,286 +917,274 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/persons**
-				Сотрудники
-Все подразделения
-Отдел развития и поддержки англоязычной версии портала
-Отдел развития и поддержки русскоязычной версии портала
-Учёные звания:
-Члены и члены-корреспонденты РАН и РАО
-Имеющие степень PhD
-Награды:
-Награжденные государственными наградами и почетными званиями
-Отмеченные наградами и почетными званиями Правительства, Федерального собрания и федеральных органов исполнительной власти
-Отмеченные наградами и почетными званиями регионов и муниципальных образований
-Награжденные наградами иностранных государств
-Награжденные почетным знаком ВШЭ
-Лауреаты премии “Золотая Вышка”
-Награжденные медалями ВШЭ
-Отмеченные почетными грамотами университета
-Функционал:
-Ответственные за персональные страницы сотрудников
-Ответственные от факультетов и филиалов за редактирование страниц подразделений
-Сотрудники учебного офиса
-							Аболина Наталья Александровна
-Начальник управления
-Научные интересы
-web-технологии
-качество и контент сайта
-мониторинг качества образования
-мониторинг качества приема в вузы
-рейтинги высших учебных заведений
-юзабилити
-							Смирнова Людмила Викторовна
-Администратор
-Отдел развития и поддержки англоязычной версии портала
-							Никитина Мария Константиновна
-Главный редактор
-							Гриббен Кристофер Майкл
-Редактор
-							Соловова Екатерина Сергеевна
-Редактор
-							Черняховская Анна Мировна
-Редактор
-Отдел развития и поддержки русскоязычной версии портала
-							Фомичева Татьяна Александровна
-Начальник отдела
-Научные интересы
-Социология науки и образования
-инклюзивное образование
-интернет-исследования
-качество и контент сайта
-мониторинг качества образования
-социология семьи и детства
-университетские сайты
-							Бережная Лариса Георгиевна
-Дизайнер
-							Воробьева Татьяна Олеговна
-Редактор
-							Золотусская Мария Игоревна
-Редактор
-							Клименко Евгения Ивановна
-Редактор
-							Новикова Елена Геннадьевна
-Редактор
-Научные интересы
-мониторинг качества образования
-мониторинг качества приема в вузы
-							Чудаева Ольга Владимировна
-Редактор
-							Шушаков Максим Сергеевич
-Дизайнер
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/about**
-Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
-**Корпоративный портал (hse.ru) – это…**
-Над порталом работаем не только мы, и нам было бы очень тяжело обойтись без наших коллег из других подразделений.
-**Новости и анонсы на главной странице портала**
-Управление по связям с общественностью  – основной поставщик новостей для главной страницы корпоративного портала Университета. Без них портал не был бы таким интересным. Если у вашего подразделения есть новостной повод, то не забудьте проинформировать об этом наших коллег. Мы же можем помочь проанонсировать ваше мероприятие.
-Чтобы опубликовать анонс на главной странице портала, необходимо разместить анонс на сайте подразделения и прислать ссылку на него на адрес portalnews@hse.ru. Подробнее об анонсировании мероприятий можно прочитать здесь.
-**Персональные страницы**
-У каждого сотрудника (будь то именитый профессор или менеджер, бухгалтер или программист) на портале есть своя страница. Заглянув на персональную страницу, можно узнать, чем занимается ученый, какие предметы преподает профессор, какие вопросы помогает решить административный сотрудник. Создается она автоматически после внесения приказа о приеме сотрудника в базу Управления персонала ИС-ПРО.
-Мы даем сотрудникам все необходимые права для редактирования персональной страницы. Для того чтобы получить доступ к редактированию, необходимо написать заявку на адрес portal@hse.ru. Если у вас есть вопросы по тому, как появляется та или иная информация на странице, что именно публикуете вы, а что появляется автоматически из баз данных университета, то ответ можно найти на этой странице. Если вопросы все-таки остались, обратитесь к ответственному от своего подразделения. Английская версия личной страницы активируется английской редакцией портала. Заполнять открытые для редактирования поля необходимо самостоятельно.
-**База учебных курсов**
-Мы осуществляем техническую поддержку базы учебных курсов на портале НИУ ВШЭ, однако за описание курса мы ответственность не несем. Вся информация загружается к нам автоматически из учебных планов и модуля нагрузки системы «Абитуриент-Студент-Выпускник-Аспирант» (АСАВ). Из АСАВ мы получаем также и английское название курса для отображения в расписании.
-Если вы являетесь ответственным от кафедры/департамента, то вам необходимо получить права, написав об этом на адрес portal@hse.ru.
-**Сайты подразделений и образовательных программ**
-Вместе с сотрудниками подразделений мы работаем над сайтами подразделений, образовательных программ, мероприятий и проектов.
-Сайты подразделений создаются автоматически после того, как сведения внесены в ИС-ПРО. Подробнее о сайтах подразделений можно прочитать здесь.
-Сайты образовательных программ открываем мы, но только после внесения программы в АСАВ (иначе на сайте не будут отображаться рабочие учебные планы, расписание). При дальнейшей работе с сайтом вам поможет инструкция.
-Сайты мероприятий, семинаров, школ для школьников мы можем создать только при наличии у вас материалов для наполнения сайта. Пустые сайты (с надписью «В разработке») мы не открываем.
-Мы осуществляем первичное наполнение сайтов и потом только оказываем техническую поддержку. Поддержание актуальности сайта – ответственность сотрудника подразделения, для которого сайт был создан.
-По вопросам создания сайта обращайтесь, пожалуйста, на portal@hse.ru.
-**Английская версия портала**
-Англоязычный сайт Высшей школы экономики занял в 2015 году первое место в рейтинге сайтов университетов, составленном Российским советом по международным делам.
-Мы осуществляем перевод новостей для главной ленты портала, также можем помочь перевести основную информацию для сайта подразделения  (тексты «О подразделении», «Научная деятельность» и другие тексты, которые меняются редко). Переводом новостей, анонсов и прочих текстов подразделение занимается самостоятельно. Мы также размещаем в главной ленте портала анонсы англоязычных мероприятий и активируем английские версии личных страниц.
-Англоязычные версии сайтов обязательно создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующих с иностранными организациями, студентами и преподавателями, а также для образовательных программ, на которых преподавание ведется на английском языке. В других случаях сайты создаются  только при условии готовности подразделения оперативно их поддерживать и регулярно обновлять своими силами.
-Английская версия создается по заявке от подразделения на адрес portal@hse.ru или непосредственно при обращении в Отдел развития и поддержки англоязычной версии портала (Мария Бесова).
-При создании текстов необходимо руководствоваться Глоссарием терминов ВШЭ и  Стилистическим справочником.
-**Раздел «Цифры и факты»**
-В НИУ ВШЭ постоянно что-то меняется: открываются новые программы, проводятся исследования, появляются новые подразделения. Подготовить статистическую информацию о жизни Университета нам помогает Аналитический центр.
-Когда вы используете какие-то цифры для статей, интервью и проч., пожалуйста, уточните у нас или в Аналитическом центре, не будут ли эти сведения обновлены в ближайшее время.
-**Система «Антиплагиат»**
-Мы предоставляем права преподавателям НИУ ВШЭ для проверки студенческих работ в системе «Антиплагиат».
-Чтобы получить доступ, достаточно написать заявку с любого адреса корпоративной почты на адрес antiplagiat@hse.ru.
-**Отчеты**
-Мы можем дать доступ к заполнению следующих электронных форм отчетов:
-отчет о деятельности научно-учебных и проектно-учебных лабораторий (отчет принимает Управление академического развития);
-отчет участника группы высокого профессионального потенциала НИУ ВШЭ (отчет кадрового резерва) (отчет принимает Управление академического развития). 
-Мы можем рассказать, как вносить информацию, но не можем рассказать, что именно должно быть внесено в отчет – на эти вопросы вам смогут ответить сотрудники соответствующих подразделений.
-Чтобы получить доступ к отчету, достаточно написать письмо на адрес portal@hse.ru
-Пожалуйста, указывайте в письме, за заполнение какого отчета вы отвечаете. Некоторые отчеты сдаются в одно время и нам сложно понять, какой именно вас интересует.
-**Новый функционал на портале**
-Разработкой портала занимается Управление разработки информационных систем портала. Если есть объективная необходимость в появлении чего-то нового, то мы готовы обсудить это вместе. Пожалуйста, до обсуждения постарайтесь кратко сформулировать основные пожелания, прикинуть, какие системы внутри университета это может затронуть. И, пожалуйста, не нужно пытаться заказать разработку одновременно Дирекции информационных технологий и Дирекции по порталу и мобильным приложениям. Желание подстраховаться естественно, но, поверьте, никому не хочется делать работу в стол. 
-Если, прочитав все это, вы не нашли ответ на свой вопрос, напишите директору по порталу Дмитрию Коптюбенко.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/events**
-**https://portal.hse.ru/events**
- Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  
-**https://portal.hse.ru/events**
-**Как опубликовать анонс на главной странице портала**
-Для публикации анонса на главной странице портала в разделе «Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).
-Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).
-Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).
-Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).
-Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.
-Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях.  
-**https://portal.hse.ru/events**
-**Обязательные требования к анонсам**
- название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками 
-В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.
-На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.
-Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.
-**Размещение анонсов на сайте подразделения**
-На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.
-Инструкция по размещению анонсов
-**https://portal.hse.ru/events**
-**Как создать подписку на анонсы подразделения**
-Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.
-Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение → скопируйте появившуюся в адресной строке браузера ссылку → добавьте ссылку на подписку в нужный вам раздел сайта. 
-**https://portal.hse.ru/events**
-**Как создать сайт мероприятия**
-Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.
-Сотрудники портала заводят сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также помогает с оформлением в части, где нужна сложная верстка.
-Для того чтобы заказать сайт мероприятия, необходимо прислать на portal@hse.ru заявку, в которой указывается:
- желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за редактирование сайта. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/instev**
-Вход в редакторский режим https://www.hse.ru/adm/  Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).
-**Оформление главной страницы**
-Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».
-Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» — для английской версии сайта).
-Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом.  
-**1 — 5 пункт заполняется в Блоки — Правая колонка — Данные о мероприятии.**
-**1. Заголовок**
-Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст — основное название мероприятия — отображается крупно.
-**2. Даты мероприятия3. Кнопка регистрации (ссылка на регистрацию)**
-Создание формы регистрации.
-**4. Ключевые даты**
-Заполняется в поле «Пояснение». Надпись «Важные даты» может варьироваться по усмотрению.
-**5. Место проведения, Контакты**
-В этой же вкладке Вы можете заполнять и использовать все другие поля. «Время начала мероприятия», «Языки мероприятия», ссылка на карту «Как добраться», «Важные ссылки», «Файлы» — все эти данные будут отображаться в правой части сайта.
-**6. Меню (горизонтальное) в центральной части страницы**
-**Блоки — Настройки — Меню**
-Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка — название пункта меню, вторая — ссылка на страницу (создание и редактирование статических страниц).
-Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.
-Возможен еще один вариант расположения меню — в правой части сайта под датой мероприятия (см. рисунок ниже).
-По логике заполнения и редактирования правой части сайта, данные пункты вносятся в
-**Блоки — Правая колонка — Данные о мероприятии — Важные ссылки.**
-**Оформление аннотации/главной страницы сайта мероприятия**
-Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.
-Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/ — Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.
-Аннотация находится в поле «О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.
-**Оформление нижней части сайта мероприятия**
-Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.
-**Это делается в Блоки — Подвал — Участники**
-Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.
-По аналогичному принципу устроен пункт оформления партнеров мероприятия.
-**Блоки — Подвал — Партнеры**
-где необходимо добавлять логотип организации-партнера и ссылку на них.
-Однако зачастую бывает удобнее размещать партнеров в правой части сайта.
-Здесь снова работает логика работы с правой колонкой.
-**Блоки — Правая колонка — Текстовые блоки**
-Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.
-**Оформление программы мероприятия**
-Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.
-**Данный инструмент находится в Блоки — Контент — Расписание мероприятий**
-Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.
-**Оформление страницы организационного комитета (программного комитета, докладчиков и др.).**
-Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции: https://portal.hse.ru/sostav.
-И главное — не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/poll**
-**https://portal.hse.ru/poll**
- Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
-**https://portal.hse.ru/poll**
-**Создание формы**
-Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
-Нажимаем на +, чтобы создать форму.
-Далее нужно указать:
- название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
-Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
-Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
-Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
-Далее необходимо нажать на кнопку «Добавить блок вопросов».
-Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
-Пример блоков
-Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
-Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
-Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
-Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
-Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
-Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
-Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
-Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
-После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
-**https://portal.hse.ru/poll**
-**Дополнительные параметры**
-Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
-В открывшемся окне вы можете:
- Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
-В разделе «Дополнительные параметры» вы также сможете:
- Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
-Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
-Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
-**https://portal.hse.ru/poll**
-**Ссылка на форму/Клонирование/Выгрузка ответов**
-Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
-1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
-2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
-3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
-4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/instr**
+Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.
+ Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  
+**Персональная страница**
+Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.
+Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.
+Для активации английской версии необходимо в личном кабинете:
+ Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень 
+ Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) 
+ и далее поставить статус  «Черновик».
+После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.
+Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).
+Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.
+В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».
+**Подразделения**
+**Кому заводятся английские версии?**
+Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала Марии Никитиной.
+Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.
+Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.
+**Как открыть английскую версию сайта?**
+ Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! 
+ Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. 
+ Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." 
+**Кто может редактировать английскую версию сайта?**
+Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.
+**Что нужно иметь в виду при работе с английской версией сайта?**
+ Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. 
+ Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием) главному редактору англоязычной версии портала Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. 
+**Новости**
+ Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении» – «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). 
+ Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. 
+**Анонсы и важные объявления**
+ Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). 
+**Образовательные программы**
+Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.
+Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.
+Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".
+Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.
+**Что нужно иметь в виду при работе с английской версией сайта:**
+Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.
+ Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  
+ Раздел ABOUT 
+Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career  
+ Раздел FOR PROSPECTIVE STUDENTS 
+Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница)  
+ Раздел FOR STUDENTS - рекомендованные ссылки и страницы 
+Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs
+ Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной  программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events             Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply      Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы         Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)    Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР)     Term Papers and Student Theses     Итоговая аттестация     Final Assessment     Рекомендованные онлайн-курсы     Recommended MOOCs      Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  
+**Новости**
+ Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. 
+**Анонсы и важные объявления**
+ Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/im**
+**https://portal.hse.ru/im**
+Сайты всех структурных подразделений должны соответствовать утвержденному стандарту.
+Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы фирменного стиля не могут противоречить брендбуку НИУ ВШЭ, а их использование должно быть согласовано с Отделом визуальных коммуникаций visual@hse.ru.
+Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).
+Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).
+Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.
+Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.
+Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.
+Заявку на создание сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый контент имеется для размещения. Подробности о дальнейших шагах будут содержаться в ответном письме.
+**https://portal.hse.ru/im**
+**Инструкции по работе с сайтом**
+  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  
+**https://portal.hse.ru/im**
+**Контакты редакторов сайтов подразделений**
+Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге
+**https://portal.hse.ru/im**
+**Часто задаваемые вопросы**
+О JavaScript и iframe на сайтах подразделений 
+**https://portal.hse.ru/im**
+**Шрифт**
+HSESans/HSESlab (ZIP, 228 Кб)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/resp**
+На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
+Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.
+В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.
+Ответственные от факультетов и филиалов за редактирование страниц подразделений
+Ответственные за персональные страницы сотрудников
+Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.
+Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)
+Ответственным от факультетов и филиалов за редактирование страниц подразделений
+Ответственным за персональные страницы сотрудников
+**Как изменить сведения об ответственных**
+**Добавление сотрудника:**
+Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.
+**Удаление сотрудника из списка**
+Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.
+Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/nov**
+**https://portal.hse.ru/nov**
+ Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
+**https://portal.hse.ru/nov**
+Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
+ Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
+Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
+Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
+Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
+**Создание новости**
+Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
+Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
+Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
+Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
+Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
+При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
+Обязательно выбираете рубрику и ключевые слова.
+Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
+Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
+Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
+Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
+Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
+**Предосмотр новости**
+Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
+**Составной редактор**
+Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
+Далее следуем инструкции по составной странице.
+**Иллюстрация новости**
+Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
+Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
+Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
+Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
+Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
+**Копирование на другой сайт**
+Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
+В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
+Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
+Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/photo**
+Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
+Вы можете сами проверить свой сайт с помощью этого инструмента.
+Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
+ Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
+Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
+Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
+А для главной страницы типичной образовательной программы – так:
+Разница в объеме потенциально оптимизируемого – в 17 раз.
+Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
+К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/sostav**
+Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
+Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа — непосредственно поле для размещения виджетов и, соответственно, информации.
+Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. 
+Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.
+После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!
+**ВИДЖЕТЫ:**
+**Текст**
+ Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. В остальном принципы оформления текста те же, что и на простой статической странице. 
+**Изображения**
+ Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
+**Видео**
+ Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
+**Якорь**
+ Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
+**Цветные блоки**
+ Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке – их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
+**Связанные материалы**
+ Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
+**Список персон**
+ Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия – те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
+**Хронология**
+ С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    
+**Партнеры**
+ Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
+**Колонки**
+ Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  
+**Соцсети**
+ Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
+**Плашка**
+ Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  
+**Даты**
+ Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  
+**Цифра**
+ Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
+**Выпадайки**
+ Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  
+**Кнопка**
+ Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
+**Часто задаваемые вопросы**
+   Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/pages**
+Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
+Создайте страницу, кликнув по иконке 
+При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
+Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
+Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
+Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
+В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
+После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
+После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
+Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
+Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
+Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/format**
 **https://portal.hse.ru/format**
@@ -978,11 +1238,11 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/tables**
  Быстрые ссылки  Копирование таблицы из Word и Excel Создание таблицы в визуальном редакторе Специальные шаблоны для создания таблицы  
@@ -1006,201 +1266,87 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/sostav**
-Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
-Слева расположены виджеты, отвечающие за формат размещения информации в том или ином блоке: текст, фото, видео... Справа — непосредственно поле для размещения виджетов и, соответственно, информации.
-Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. 
-Внутри центральной части страницы в редакторском интерфейсе все виджеты можно легко менять местами, просто перетягивая их мышью, удалять ненужные и добавлять новые.
-После размещения необходимой информации нажимаем "Сохранить" и обязательно проверяем, что получилось!
-**ВИДЖЕТЫ:**
-**Текст**
- Для размещения текста нужно выбрать виджет "Фрагмент текста с заголовком".  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. В остальном принципы оформления текста те же, что и на простой статической странице. 
-**Изображения**
- Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
-**Видео**
- Видео сначала необходимо разместить на Youtube. Затем выбираете виджет "Видео", ставите галочку "Стороннее видео", в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант – «Встроить». У вас откроется окно, где слева будет видео, а справа – встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
-**Якорь**
- Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет "Якорь" в нужное место и прописать в нем латинскими буквами "имя якоря" (напр: anchor). В ссылке, по которой пользователь будет переходить в опеределенное место страницы, в поле "адрес" нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
-**Цветные блоки**
- Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке – их может быть 2 или 3, нажимаете на кнопку "добавить", открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
-**Связанные материалы**
- Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом "Связанные материалы". Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
-**Список персон**
- Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Нажимаете "Добавить персону". Если персона из ВШЭ, то вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет "Список персон". Заполняете поле "Заголовок". Выбираете вид "Список". Проставляете галочку "Отображать вертикальным списком". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Одиночный", стиль "Большое фото". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле "Описание/контакты" добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. В поле "Описание/контакты" добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет "Строка с колонками", а потом непосредственного в него добавляете виджет "Список персон". Выставляете ширину колонки "4", если вы хотите 3 персоны в ряд. Выставляете ширину колонки "3", если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу "12". Остальные действия – те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет "Список персон", заполняете поле "Заголовок", далее выбираете вид "Карусель". Нажимаете "Добавить персону". Если персона из ВШЭ, то вы вводите ФИО, нажимаете "Найти" и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение "Из ВШЭ" на "Не из ВШЭ". Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете "Вырезать", чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
-**Хронология**
- С помощью виджета "Хронология" можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет "Хронология". Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова "Нумерация". Выбираете цвет, далее нажимаете "Добавить запись". В появившемся окне вписываете заголовок и текст, далее нажимаете опять "Добавить запись" за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете "Добавить запись" внутри окна.  Пример:    
-**Партнеры**
- Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет "Партнеры", заполнить поле "Заголовок", загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
-**Колонки**
- Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом "Строка с колонками". У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу "12". Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет "Фрагмент текста с заголовком".  Пример:  
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/meta**
+В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
+ Быстрые ссылки  Описание документа Соцсети  
+**Описание документа**
+Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов. Большая просьба также заполнить его для уже созданных сайтов и статических страниц.
+Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).
+Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст. 
+**Рекомендации по составлению мета-описаний (c сайта Яндекса):**
+ Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. 
+**Примеры плохих мета-описаний (с сайта Яндекса):**
+ Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. 
+**Примеры правильного заполнения мета-описаний:**
+https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ
+description: В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.
+https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ
+description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.
+https://www.hse.ru/figures/ Цифры и факты
+description: Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.
+https://ma.hse.ru/ Абитуриентам магистратуры
+description: Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.
 **Соцсети**
- Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет "Соцсети", нажать "Добавить запись", заполнить поле "Заголовок", поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
-**Плашка**
- Для выделения значимых пунктов в тексте можно воспользоваться виджетом "Плашка с цифрой". Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около "Нумерация", нажимаете "Добавить запись". Внутри заполняете поле "Заголовок" (если нужно) и поле "Текст". Пример:  Можно сделать плашки без цифры, тогда вы не ставите галочку около "Нумерация". Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет "Строка с колонками" (о том, как это сделать смотрите выше), а потом в него переместить виджет "Плашка с цифрой". Пример:  
-**Даты**
- Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом "Связанные события". После того как вы переместили виджет, нажимаете "Добавить запись", далее заполняете поля "Число", "Месяц" и "Текст". Если вы хотите, чтобы между датами стояли стрелки, ставите галочку "Показывать стрелку".  Пример:  
-**Цифра**
- Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет "Цифра дня", перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
-**Выпадайки**
- Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет "Набор с выпадайками". Нажимаете кнопку "Добавить блок", проставляете заголовок, в поле "Описание" ставите текст, который будет показываться до скрытого текста, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет "Набор с выпадайками 2". Нажимаете кнопку "Добавить блок", в поле "Заголовок" вписываете текст, по которому будут кликать, в поле "Открывающийся текст" вписываете текст, который будет открываться по клику.  Пример:  
-**Кнопка**
- Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
-**Часто задаваемые вопросы**
-   Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/photo**
-Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
-Вы можете сами проверить свой сайт с помощью этого инструмента.
-Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
- Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
-Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
-Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
-А для главной страницы типичной образовательной программы – так:
-Разница в объеме потенциально оптимизируемого – в 17 раз.
-Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
-К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/pages**
-Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
-Создайте страницу, кликнув по иконке 
-При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
-Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
-Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
-Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
-В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
-После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
-После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
-Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
-Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
-Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/landing**
-**https://portal.hse.ru/landing**
-Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).
-**https://portal.hse.ru/landing**
- Быстрые ссылки  Шапка Меню Основная колонка Виджеты  
-**https://portal.hse.ru/landing**
-**Шапка**
-В данном разделе редактируется то, что размещается в шапке сайта (картинка, заголовок, подзаголовок, кнопки).
-При выборе картинки в шапку имейте в виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по центру. Размер изображения ­— 1600 пикселей по ширине, вес — 200-300 кб. Изображения, заливаемые на портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у проекта есть свой фирстиль, который должен быть отражен в шапке, то необходимо учитывать требования к картинке.
-Чтобы шапка отображалась не только на главной, но и на внутренних страницах сайта, нужно зайти в раздел «Шапка на вторых страницах» и выбрать: «Шапка с главной страницы» или «Своя шапка». Обычно для показа на внутренних страницах сайта используется «Шапка с главной страницы».
-**Меню**
-Отображение меню регулируется в разделе «Шапка». По умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы хотите его вывести — «снизу» или «сверху».
-Есть также опция сделать меню «по центру». Сами пункты меню редактируются в Данные-Блоки-Меню
-**Основная колонка**
-«Основная колонка главной страницы» — главный раздел, которым вы пользуетесь. Слева расположен набор виджетов, справа — поле, куда виджет нужно переместить и где будет располагаться ваш контент.
-Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. Нажимаем «Сохранить» в конце страницы и обязательно проверяем, что получилось!
-**Текст**
- Для размещения текста нужно выбрать виджет «Фрагмент текста с заголовком».  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и цифры соединяли тире, а не дефисы), используйте программу «Типограф». 
-**Изображения**
- Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
-**Видео**
- Видео сначала необходимо разместить на Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант — «Встроить». У вас откроется окно, где слева будет видео, а справа — встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
-**Якорь**
- Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в нужное место и прописать в нем латинскими буквами «имя якоря» (напр: anchor). В ссылке, по которой пользователь будет переходить в определенное место страницы, в поле «адрес» нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
-**Цветные блоки**
- Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке — их может быть 2 или 3, нажимаете на кнопку «добавить», открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
-**Новости**
- Новости размещаются в разделе «Новости», см. инструкцию. При этом, чтобы они показывались на странице, их нужно вывести с помощью виджета «Новости», выбрав оформление «Плитки». Если вы хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в поле «Заголовок».  Пример:  
-**Мероприятия (анонсы)**
- Анонсы размещаются в разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на странице, их нужно вывести с помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в поле «Заголовок».  Пример:  
-**Связанные материалы**
- Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом «Связанные материалы». Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
-**Список персон**
- Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из ВШЭ, то вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле «Описание/контакты» добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле «Описание/контакты» добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. В поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет «Строка с колонками», а потом непосредственного в него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы хотите 3 персоны в ряд. Выставляете ширину колонки «3», если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу «12». Остальные действия — те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
-**Хронология**
- С помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В появившемся окне вписываете заголовок и текст, далее нажимаете опять «Добавить запись» за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете «Добавить запись» внутри окна.  Пример:    
-**Партнеры**
- Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
-**Колонки**
- Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом «Строка с колонками». У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с заголовком».  Пример:  
-**Контент-блок**
- Если необходимо разбить текст на смысловые части, наложив текст на фон (цвет или картинка), то надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в который непосредственно будете размещать информацию — например, виджет «Фрагмент текста с заголовком».  Пример:  
-**Соцсети**
- Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
-**Плашка**
- Для выделения значимых пунктов в тексте можно воспользоваться виджетом «Плашка с цифрой». Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы не ставите галочку около «Нумерация». Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет «Строка с колонками» (о том, как это сделать смотрите выше), а потом в него переместить виджет «Плашка с цифрой». Пример:  
-**Даты**
- Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и «Текст». Если вы хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  
-**Цифра**
- Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
-**Выпадайки**
- Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет «Набор с выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в поле «Описание» ставите текст, который будет показываться до скрытого текста, в поле «Открывающийся текст» вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет «Набор с выпадайками 2». Нажимаете кнопку «Добавить блок», в поле «Заголовок» вписываете текст, по которому будут кликать, в поле «Открывающийся текст» вписываете текст, который будет открываться по клику.  Пример:  
-**Кнопка**
- Если вам нужно создать кнопку, например «Регистрация», вы выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
-**Часто задаваемые вопросы**
- Если вам нужно создать блок «Часто задаваемые вопросы», то вы выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и «Ответ». Далее нажимаете «Добавить». В открывшемся поле заполняете название кнопки и ссылку на страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с заливкой, так и прозрачной.  Пример:  Чтобы разместить все вопросы на странице, надо выбрать виджет «Вопросы и ответы (FAQ)», нажать «Добавить вопрос» и заполнить поля «Вопрос» и «Ответ».  Пример:  
-**Вкладки**
- Если вы хотите разместить информацию в виде переключающихся между собой блоков, то нужно выбрать виджет «Вкладки». Далее вы нажимаете «Добавить вкладку», в поле «Заголовок» пишите название вкладки, в пустое поле перемещаете виджет «Фрагмент текста с заголовком», где и размещаете информацию.  Пример:  
-**Слайдер**
- Инструкцию по размещению баннера в виджете «Слайдер» вы можете прочитать здесь. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/header-banner**
-**Простой вариант**
-Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo
-**Сложный вариант – используется, когда у проекта есть свой фирстиль**
-Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:
-1. Фон (пример: заливка цветом, паттерн).
-2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).
-3. Графический элемент (пример: логотип, иллюстрация, фото).
-При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:
-1. 375px для мобильных устройств;
-2. 800px для планшетов;
-3. 1600px для пк и ноутбуков.
-Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу – служебные поля, в которых может быть размещен только фон.
-Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.
-Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.
+На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.
+Картинка 1: когда все заполнено
+Картинка 2: когда ничего не заполнено
+Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со искомой страницы и учтет внесенные на нее изменения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/metaunits**
+В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
+Здания
+Наука
+Поиск по подразделениям
+Сведения об образовательной организации
+Кроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).
+**Редактирование данных**
+Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.
+**Описание полей**
+Телефон и адрес
+Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.
+Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.
+Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.
+Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на portal@hse.ru.
+Почему важно указать телефон подразделения
+С вами будет удобнее связаться
+Только при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.
+Электронная почта
+Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.  
+Уровень подготовки
+Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы. 
+Тип подразделения по Яндексу (актуально только для крупных подразделений)
+Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов
+Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.
+Категория подразделения
+Скорее всего, категория уже проставлена. Если нет, то проставьте ее. 
+Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)
+Тематика исследований
+Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/slider_banners**
 **https://portal.hse.ru/slider_banners**
@@ -1227,11 +1373,11 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/tools**
 Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.
@@ -1285,59 +1431,228 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/nov**
-**https://portal.hse.ru/nov**
- Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
-**https://portal.hse.ru/nov**
-Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
- Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
-Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
-Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
-Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
-**Создание новости**
-Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
-Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
-Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
-Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
-Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
-При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
-Обязательно выбираете рубрику и ключевые слова.
-Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
-Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
-Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
-Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
-Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
-**Предосмотр новости**
-Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
-**Составной редактор**
-Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
-Далее следуем инструкции по составной странице.
-**Иллюстрация новости**
-Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
-Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
-Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
-Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
-Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
-**Копирование на другой сайт**
-Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
-В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
-Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
-Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/poll**
+**https://portal.hse.ru/poll**
+ Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
+**https://portal.hse.ru/poll**
+**Создание формы**
+Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
+Нажимаем на +, чтобы создать форму.
+Далее нужно указать:
+ название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
+Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
+Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
+Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
+Далее необходимо нажать на кнопку «Добавить блок вопросов».
+Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
+Пример блоков
+Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
+Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
+Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
+Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
+Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
+Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
+Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
+Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
+После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
+**https://portal.hse.ru/poll**
+**Дополнительные параметры**
+Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
+В открывшемся окне вы можете:
+ Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
+В разделе «Дополнительные параметры» вы также сможете:
+ Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
+Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
+Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
+**https://portal.hse.ru/poll**
+**Ссылка на форму/Клонирование/Выгрузка ответов**
+Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
+1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
+2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
+3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
+4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
+Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
+Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
+Заявка должна быть отправлена с корпоративного адреса электронной почты.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/seo_recommends**
+ Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  
+**Заголовки страниц**
+Заголовки должны соответствовать содержанию страницы
+Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.
+ Чего следует избегать:
+ Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". 
+Используйте краткие, но содержательные заголовки
+Максимальная длина заголовка — 150 символов, оптимально — 60 символов.
+Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.
+ Чего следует избегать:
+ Слишком длинных заголовков, бесполезных для пользователей. 
+**Мета-описание страницы (тег description)**
+Описания должны точно отражать содержание страницы
+Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. 
+ Чего следует избегать:
+ Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. 
+Используйте разные описания для разных страниц
+Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.
+ Чего следует избегать:
+ Использования одного мета тега описания для всех или многих страниц сайта. 
+Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta
+**Заголовки в тексте (h2-h6)**
+Предназначение и примеры
+Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.
+Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.
+Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.
+Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.
+Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.
+В редакторе, данные заголовки можно найти в поле «Формат»:
+Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs
+ Представьте, что вы пишете обзор
+Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.
+ Чего следует избегать:
+ Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив ) или &lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. 
+ Не злоупотребляйте заголовками
+Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.
+ Чего следует избегать:
+ Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. 
+**Ссылки**
+Тщательно продумывайте тексты ссылок
+Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.
+Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.
+Используйте информативный текст
+Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.
+ Чего следует избегать:
+ Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). 
+Текст должен быть лаконичным
+Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.
+ Чего следует избегать:
+ Длинных текстов ссылки, например сложных предложений или целых абзацев. 
+Подберите текст ссылок и для внутренних URL
+Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.
+ Чего следует избегать
+ Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. 
+**Изображения**
+Используйте атрибут alt 
+Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.
+Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:
+Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.
+Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.
+Используйте краткие описательные имена файлов и текст в атрибутах alt
+Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.
+ Чего следует избегать:
+ Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. 
+Добавляйте текст в атрибуты alt, если используете изображения как ссылки
+Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.
+ Чего следует избегать:
+ Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. 
+**Общие рекомендации**
+Пишите легко читаемые тексты
+Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.
+ Чего следует избегать:
+ Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/script**
+Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
+Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
+На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
+Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
+**Сортировка сотрудников по должностям на странице**
+Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
+В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
+В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
+**Шаг 1**
+**Шаг 2**
+Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/site**
+ Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
+**Доступ к редактированию**
+Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
+Перейти к режиму редактирования сайта можно двумя способами:
+ По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
+Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
+**Наполнение сайта**
+Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
+ Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
+Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
+Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
+Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
+Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
+**Меню: основные ошибки**
+ Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
+**Как вывести страницу «Сотрудники»?**
+Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
+Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
+Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
+**Размещение текстов: что можно и что нельзя**
+**Можно и нужно:**
+ Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
+ Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
+**Размещение новостей: на что обратить внимание**
+ У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instann**
 **https://portal.hse.ru/instann**
@@ -1438,382 +1753,42 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>**https://portal.hse.ru/progs**
-**О шаблоне «Сайт образовательной программы»**
-Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.
- Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение SEO-оптимизированного текста (SEO - search engine optimization) на главной странице  служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. 
-**Основные контакты**
-  Служба поддержки портала,  portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и страницу «Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,  УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,  Центр поддержки и мониторинга образовательных программ  Раздел «Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы «Рейтинги», «Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   
-**Основные документы**
-Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»
-Положение об основной образовательной программе высшего образования
- Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  
-**Как начать?**
-Если вы никогда ранее не работали с с сайтом образовательной программы (в т.ч. предыдущей версии), получите права редактора, написав с корпоративной почты письмо в свободной форме на адрес portal@hse.ru (служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом. 
-**Что делать, если программа новая и у нее еще нет сайта?**
-Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).
-**Какие материалы нужны для открытия сайта в базовой версии:**
- Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). 
-**Как подготовить SEO-оптимизированный текст на сайт**
-Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала. 
-Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.
-Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.
-**Структура сайта образовательной программы**
-Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.
- Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) 
-Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.
-Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.
-Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.
-**Шапка сайта образовательной программы**
-В шапке образовательной программы размещаются:
- Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП) служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс дня открытых дверей). 
-Размещение тизера в шапке сайта.
- Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору → Данные → Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. 
-**Главная страница программы**
-Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.
-Какие элементы есть на странице при открытии сайта:
-Метаинформация
- Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы действительно отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.  Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» 
-Университеты-партнеры образовательной программы
- Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип. Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. 
-Информация об ОП (раскрывающиеся блоки)
- Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. 
-Видео (опционально)
- На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению  к Шишкову Олегу Геннадьевичу или Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. 
-Важные объявления
- Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум — два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления» → «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! 
-Мероприятия
- Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле «Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.  Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом «Разместить в подразделении» (выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.  Для создания такой страницы нужно отправить запрос на адрес portal@hse.ru и приложить к письму наполнение для сайта.  
-Новости
- Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле «Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам, можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. 
-Похожие программы
- Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». 
-Вокруг нас (социальный блок)
- Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  
-Меню (правая колонка)
- Редактируется через Редактору → Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  
-Руководство программы (руководители, менеджеры)
- Раздел редактируется Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к Сюзанне Райан. 
-**Верхнее меню (разделы программы)**
-В верхнем меню находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.
-Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.
-Раздел О программе
- В данном разделе размещается общая информация о программе. В раздел «О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической страницы и что делать, если пункт меню помечен «замочком» 
-Раздел Абитуриентам (если есть набор)
- Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на portal@hse.ru.    В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» 
-Раздел Студентам (если есть студенты)
- Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел «Студентам» входят следующие обязательные пункты:  Рейтинги* (автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs) (статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.) (статстраница с техническим именем mobility) Практическая подготовка (статстраница с техническим именем internships) Каталог ВКР** (автоматическая страница с техническим именем diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена здесь. 
-Раздел Выпускникам (если есть информация для выпускников)
- Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  
-**Общее меню**
-Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.
-Учебные курсы
- Страница генерируется автоматически по адресу /courses на основе данных LMS. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
-Преподаватели
- Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
-Число студентов и вакантные бюджетные места
- Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. 
-Документы
- Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела «Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы. Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики – добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов  (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО - на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07, или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле  «Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.  Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. 
-Расписание
- Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».  
-Академический совет
- Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. 
-**Создание новой страницы и нового пункта меню **
-Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».
-Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе «Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей. 
-Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.
-Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.
-Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения измен</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/help**
-        		    Шаг 1
-Необходимо удостовериться, что ваша персональная страница появилась на сайте. Персональная страница появляется на портале автоматически после внесения данных в базу сотрудниками Управления персонала. 
-        		    Шаг 2
-Следует авторизоваться в Едином личном кабинете (ЕЛК). Для этого необходимо в качестве логина ввести адрес корпоративной почты сотрудника, в качестве пароля – пароль от этой почты.
-Если вы не помните пароль от своей почты или у вас возникает ошибка при авторизации, обращайтесь на digital@hse.ru
-        		    Шаг 3
-В ЕЛК нужно перейти в раздел «Корпоративный портал» и нажать на «Персональная страница портала». Если вы не сможете войти в редактирование персональной страницы, значит, ваш корпоративный e-mail не прописан в необходимом поле. Напишите, пожалуйста, на portal@hse.ru.
-В письме укажите:
-• ФИО сотрудника
-• Адрес корпоративной почты
-Служба портала пропишет e-mail, и вы сможете войти.
-Письмо должно быть отправлено строго с корпоративной почты сотрудника @hse.ru 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/newdesignbb**
-Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки) и поставить соответствующую галочку.
-В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.
-Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».
-На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть). 
-Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует выбрать нужную доску из списка.
-Что не следует делать:
-Создавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».
-Использовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание
-Пренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.
-Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.
-Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/instr**
-Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.
- Быстрые ссылки  Персональные страницы Подразделения Образовательные программы  
-**Персональная страница**
-Английская версия персональной страницы активируется по желанию сотрудника, если по роду деятельности необходимо взаимодействовать с иностранцами.
-Кроме того, английские версии активируются, если возникает необходимость дать ссылку на страницу сотрудника из английской новости/анонса/страницы мероприятия или подразделения.
-Для активации английской версии необходимо в личном кабинете:
- Заполнить поле Фамилия, имя на английском. Отчество полностью добавлять не надо, но можно поставить первую букву отчества (например, Ivan I. Ivanov). Заполнить английские поля, открытые для редактирования (аналогично русской странице, если информация актуальна для иностранной аудитории). В частности, необходимо заполнить поля Специальность в разделах Образование и Ученая степень 
- Сохранить все изменения Выбрать пункт «Статус английской версии» (британский флажок) 
- и далее поставить статус  «Черновик».
-После выставления статуса «Черновик» страница поступает к редактору портала, который проверяет, что информация на странице отображается корректно и меняет статус на «Проверено», после чего английская страница появляется на портале.
-Информация в поля, закрытые для редактирования, выгружается автоматически на основе данных ЗиК/ИС-ПРО (поступают из Управления персоналом).
-Информация, автоматически загружаемая из баз данных (подразделение, должность, образование, ученые степени, ученые звания), отображается в едином формате для всех сотрудников.
-В английской версии не предусмотрен вывод информации из ЗиК/ИС-ПРО в раздел «Достижения и поощрения». Если нужно добавить такой раздел в английской версии, то это можно сделать через функцию «Добавить текст» (то есть сделать текстовую вставку). Чтобы вставка появлялась только в английской версии, надо оставить пустыми поля «Заголовок русский» и «Текст комментария русский» и заполнить только поля «Заголовок английский» и «Текст комментария английский».
-**Подразделения**
-**Кому заводятся английские версии?**
-Англоязычные версии сайтов создаются для структурных подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями по заявке от структурного подразделения главному редактору англоязычной версии портала Марии Никитиной.
-Для структурных подразделений, не ведущих международной деятельности и не взаимодействующих с англоязычными студентами / преподавателями / партнерами, создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами структурного подразделения. Обновление информации англоязычном сайте осуществляется силами ответственного от подразделения за ведение сайта.
-Оперативное поддержание» подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.
-**Как открыть английскую версию сайта?**
- Если английская версия нужна и есть ресурсы на ее поддержание, то необходимо прислать заявку на активацию английской версии вместе с текстами для первоначального наполнения главному редактору англоязычной версии портала Марии Никитиной. Нельзя выставлять статус английской версии "Черновик", не подготовив тексты для сайта и не прислав предварительно заявку на открытие английской версии! 
- Мы не открываем пустые сайты (без английских статических страниц), поэтому нужно сначала прислать тексты, а потом английская версия сайта будет активирована. 
- Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо прислать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название подразделения_раздел" – например, "департамент математики ФЭН_about.doc." 
-**Кто может редактировать английскую версию сайта?**
-Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.
-**Что нужно иметь в виду при работе с английской версией сайта?**
- Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно. Подробнее о форматировании и редактировании страниц и сайтов можно почитать тут. 
- Для создания статической страницы в английской версии нужно действовать так же, как при создании русской статической страницы, только Язык страницы нужно выбрать "Английский". Статические страницы сходного содержания (например, О подразделении) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О подразделении" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут).  На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужное подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Если вариант перевода названия подразделения на портале не устраивает, то необходимо прислать заявку на смену названия (с обоснованием) главному редактору англоязычной версии портала Марии Никитиной. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, у факультета поменялось руководство – новых людей надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно. 
-**Новости**
- Новости необходимо обновлять как минимум раз в месяц.  В английской версии необходимы новости, интересные иностранной аудитории – о значимых англоязычных публикациях, международных проектах и конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощи функции «Разместить в подразделении» – «Ссылка на оригинальную новость». В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). 
- Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. 
-**Анонсы и важные объявления**
- Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте подразделения появляется информация, актуальная для иностранных сотрудников и студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). 
-**Образовательные программы**
-Англоязычная версия сайта в обязательном порядке создается для образовательных программ, осуществляемых полностью или частично на английском языке. Для образовательных программ, реализуемых на русском языке, создание англоязычной версии сайта возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами менеджера образовательной программы.
-Оперативное поддержание подразумевает регулярное размещение анонсов англоязычных мероприятий и новостей в английской новостной ленте, а также обновление статических страниц.
-Английская редакция может помочь с переводом текстов для основных статических страниц при первичном наполнении сайта. Заявку на перевод необходимо присылать главному редактору англоязычной версии портала Марии Никитиной. Имя файла с текстом на перевод (или редактирование) следует оформлять следующим образом "Название программы_кампус_раздел" – например, "big data_stpete_about.doc".
-Отдельных прав на редактирование английской версии получать не надо. Редактор, работающий с русским сайтом, отвечает и за английскую версию. Если уже есть доступ к русской версии, то запрашивать доступ к английской версии необходимости нет.
-**Что нужно иметь в виду при работе с английской версией сайта:**
-Принципы работы с сайтом абсолютно те же, что и для русской версии – разделы сайта редактируются в пункте Блоки англ, статические страницы, новости и анонсы – в разделах Страницы, Новости и Анонсы соответственно.
- Для создания статической страницы в английской версии нужно действовать так же, как для создания русской статической страницы, только "Язык страницы" нужно выбрать "Английский". Статические страницы сходного содержания (например, О программе) должны иметь одинаковые технические имена (набранные латиницей, прописными буквами). То есть страница "О программе" будет иметь техническое имя about для обеих версий – английской и русской. Только в этом случае будет корректно работать переключалка языков. При переводе текстов следует руководствоваться глоссарием ВШЭ и стилистическим справочником (расположены тут) На портале исторически был принят британский вариант английского языка, поэтому для соблюдения единообразия необходимо придерживаться британского правописания (например, programme, а не program, centre вместо center). Следует иметь в виду, что тот или иной вариант языка никак не влияет на понимание текста иностранной аудиторией, тогда как разнобой в правописании (где-то британский, где-то американский) смотрится плохо и поэтому недопустим. При переводе названий подразделений необходимо использовать те названия, которые приняты на портале (нужно подразделение можно найти при помощи функции «Поиск» на портале). Использование одинакового варианта повышает индексируемость сайта в поисковых системах. Английские новости и анонсы размещаются в английской версии. В русскую версию их ставить нельзя. Если вносятся изменения на русские страницы, то необходимо изменить и соответствующие английские страницы (например, поменялось описание программы, то новую информацию надо добавить не только на русской, но и на английской странице). Изменения на русских страницах не транслируются автоматически на английские страницы, необходимо их внести отдельно.  Обязательные и рекомендованные страницы и порядок ссылок в меню в английской версии сайта образовательной программы:  
- Раздел ABOUT 
-Programme Overview - техническое имя страницы: about Curriculum (описание содержания/структуры программы, не просто список курсов) Partnerships (при наличии - рассказ о характере партнерств и пользе для студентов) Faculty Members (рассказ о ключевых преподавателях, не просто список) Student Profiles (мини-интервью с фотографиями - минимум 5 студентов) Alumni (минимум 5 выпускников - при наличии. рассказы об их карьере после выпуска. необходимы фотографии) - техническое имя страницы: alumni Career Opportunities (карьерные траектории - с примерами компаний и ожидаемых зарплат после выпуска) - техническое имя страницы: career  
- Раздел FOR PROSPECTIVE STUDENTS 
-Requirements (требования к портфолио и предыдущему уровню образования/опыту) - техническое имя страницы requirements How to Apply (процесс подачи документов) - техническое имя страницы tracks Class Profile (рекомендованная страница. Пример - https://www.hse.ru/en/ma/sti/classprofile) FAQ (рекомендованная страница)  
- Раздел FOR STUDENTS - рекомендованные ссылки и страницы 
-Notice Board (доска объявлений) Student Ratings Student Theses Final Assessment - техническое имя assessment Academic Mobility - техническое имя страницы mobility Practical Training - техническое имя страницы internships Recommended MOOCs - техническое имя страницы moocs
- Список переводов рубрик для сайтов образовательных программ:      Название раздела/подраздела   English titles       Учебные курсы   Courses     Преподаватели   Faculty     Документы   Documents     Расписание   Timetable     Тизер дня открытых дверей   Open House     Академический совет   Academic Council     Академический руководитель   Academic Supervisor     Отдел сопровождения учебного процесса образовательной  программы/менеджер образовательной программы   Study Office / Programme Coordinator     Важные объявления   Important Announcements     Новости   News     Анонсы   Events             Краткий паспорт программы   Programme Facts     О программе   Programme Overview     Партнеры   Partnerships / Double degree Programme (при наличии)     Профили студентов (в русской версии Достижения студентов)   Student Profiles     Выпускники   Alumni     Научно-исследовательский семинар (НИС) (в англ версии необязательный раздел)   Research Seminar     Проектная и исследовательская работа (в англ версии не обязательный раздел)   Project and Research Work (Research Opportunities – если представлен список возможных мест, а не описание осуществленных проектов)     Паспорт образовательной программы   Programme Facts     Будущая профессия   Career Opportunitiies     Траектории поступления   How to Apply      Подготовка   Requirements     Информационный блок с полезными ссылками для студентов программы         Рейтинги   Student Rating     Студенческая мобильность   Academic Mobility     Практическая подготовка (Практика)    Practical Training     (Internship)     Курсовые и выпускные квалификационные работы (ВКР)     Term Papers and Student Theses     Итоговая аттестация     Final Assessment     Рекомендованные онлайн-курсы     Recommended MOOCs      Скачать одним файлом: Английские названия для рубрик (DOCX, 17 Кб)  
-**Новости**
- Новости необходимо обновлять как минимум раз в два месяца.  В английской версии необходимы новости, интересные иностранной аудитории – о международных проектах, стажировках, конференциях. Переводом новостей подразделение занимается самостоятельно. Английские тексты должны быть написаны грамотным, понятным языком, без использования автоматических переводчиков (типа google translate). Если у новости есть русский вариант, то ее следует ставить «Переводом» (чтобы работала переключалка языков). Подробнее о работе с новостями в английской версии можно прочесть в Инструкции по размещению английских новостей в новостной ленте Новости с главной ленты портала и с сайтов других подразделений можно копировать на сайт подразделения при помощь функции «Разместить в подразделении» - "Ссылка на оригинальную новость" (см скриншоты выше, в разделе Сайты подразделений). В этом случае на сайт подразделения попадет русская новость и потом подтянется перевод (после того, как появится на портале). Если использовать функцию "Полное клонирование", то никакие изменения в оригинале новости (например, добавление перевода), не будут отображаться в клоне новости. Поэтому этот вариант лучше не использовать. 
-**Анонсы и важные объявления**
- Если подразделение проводит англоязычное мероприятие,то необходимо разместить анонс как в русской, так и в английской версии. Анонс размещается «Переводом», чтобы работала переключалка языков. Если на сайте появляется информация, актуальная для иностранных студентов (подача заявок на конкурсы и тд), то ее необходимо дублировать и в английской версии тоже (в анонсах или в важных объявлениях). 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/im**
-**https://portal.hse.ru/im**
-Сайты всех структурных подразделений должны соответствовать утвержденному стандарту.
-Дизайн сайтов должен быть выполнен в общей стилистике корпоративного портала. Элементы фирменного стиля не могут противоречить брендбуку НИУ ВШЭ, а их использование должно быть согласовано с Отделом визуальных коммуникаций visual@hse.ru.
-Рекомендации по цветовой палитре – см. брендбук НИУ ВШЭ (для цифровых носителей).
-Сайты размещаются в домене hse.ru и имеют адрес вида: http://www.hse.ru/имя или http://имя.hse.ru (см. регламент).
-Англоязычные версии сайтов создаются для подразделений, осуществляющих международную деятельность и/или взаимодействующим с иностранными организациями, студентами и преподавателями. Для остальных подразделений создание англоязычных версий сайтов возможно только при условии их оперативного поддержания и регулярного обновления в дальнейшем силами подразделения.
-Ответственность за своевременное размещение и актуализацию информации несет руководитель подразделения.
-Обновление информации осуществляется ответственным от структурного подразделения за ведение сайта.
-Заявку на создание сайта нужно прислать на portal@hse.ru, указав название подразделения и какой готовый контент имеется для размещения. Подробности о дальнейших шагах будут содержаться в ответном письме.
-**https://portal.hse.ru/im**
-**Инструкции по работе с сайтом**
-  Основные принципы работы с сайтом Как получить доступ к редактированию  Редактирование блока «Функционал сотрудников подразделений» Редактирование блока «Показ в списках и на картах» Раздел «Сотрудники» Размещение новостей Размещение анонсов Создание статических страниц Простая статическая страница Составная статическая страница Создание таблиц Оптимизация фотографий Размещение баннера Создание опроса/регистрационной формы Как передать данные в CRM Размещение мета-тегов Рекомендации по поисковой оптимизации В помощь редактору: фотобанки, инструменты Шрифт HSE Sans Редактирование английской версии  Русско-английский глоссарий терминов ВШЭ  
-**https://portal.hse.ru/im**
-**Контакты редакторов сайтов подразделений**
-Список редакторов ВШЭ-Москва и кампусов ВШЭ в Нижнем Новгороде, Перми, Санкт-Петербурге
-**https://portal.hse.ru/im**
-**Часто задаваемые вопросы**
-О JavaScript и iframe на сайтах подразделений 
-**https://portal.hse.ru/im**
-**Шрифт**
-HSESans/HSESlab (ZIP, 228 Кб)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/metaunits**
-В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
-Здания
-Наука
-Поиск по подразделениям
-Сведения об образовательной организации
-Кроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).
-**Редактирование данных**
-Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.
-**Описание полей**
-Телефон и адрес
-Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.
-Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.
-Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.
-Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на portal@hse.ru.
-Почему важно указать телефон подразделения
-С вами будет удобнее связаться
-Только при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.
-Электронная почта
-Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.  
-Уровень подготовки
-Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы. 
-Тип подразделения по Яндексу (актуально только для крупных подразделений)
-Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов
-Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.
-Категория подразделения
-Скорее всего, категория уже проставлена. Если нет, то проставьте ее. 
-Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)
-Тематика исследований
-Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/script**
-Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
-Гарантированной защиты от подобного не могут обеспечить даже крупные интернет-корпорации. Минимизировать ущерб возможно, только существенно сократив число подобных кодовых вставок в ресурсы портала.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
-На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
-Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
-**Сортировка сотрудников по должностям на странице**
-Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
-В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
-В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
-**Шаг 1**
-**Шаг 2**
-Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/meta**
-В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
- Быстрые ссылки  Описание документа Соцсети  
-**Описание документа**
-Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов. Большая просьба также заполнить его для уже созданных сайтов и статических страниц.
-Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).
-Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст. 
-**Рекомендации по составлению мета-описаний (c сайта Яндекса):**
- Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. 
-**Примеры плохих мета-описаний (с сайта Яндекса):**
- Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. 
-**Примеры правильного заполнения мета-описаний:**
-https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ
-description: В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.
-https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ
-description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.
-https://www.hse.ru/figures/ Цифры и факты
-description: Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.
-https://ma.hse.ru/ Абитуриентам магистратуры
-description: Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.
-**Соцсети**
-Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.
-На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.
-Картинка 1: когда все заполнено
-Картинка 2: когда ничего не заполнено
-Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со искомой страницы и учтет внесенные на нее изменения.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/site**
- Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
-**Доступ к редактированию**
-Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
-Перейти к режиму редактирования сайта можно двумя способами:
- По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
-Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
-**Наполнение сайта**
-Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
- Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
-Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
-Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
-Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
-Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
-**Меню: основные ошибки**
- Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
-**Как вывести страницу «Сотрудники»?**
-Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
-Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
-Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
-**Размещение текстов: что можно и что нельзя**
-**Можно и нужно:**
- Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
- Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
-**Размещение новостей: на что обратить внимание**
- У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
+          <t xml:space="preserve">**https://portal.hse.ru/events**
+**https://portal.hse.ru/events**
+ Быстрые ссылки  Как опубликовать анонс на портале Как создать подписку на анонсы  Как сделать сайт мероприятия  
+**https://portal.hse.ru/events**
+**Как опубликовать анонс на главной странице портала**
+Для публикации анонса на главной странице портала в разделе «Мероприятия» и в общей ленте анонсов необходимо изначально разместить анонс на сайте своего подразделения (обращайтесь к редакторам своих подразделений).
+Информация обо всех анонсах, размещенных на сайтах подразделений ВШЭ, приходит на портал на следующий день. Редакторы портала просматривают их и, если анонсы соответствуют всем требованиям, добавляют в ленту событий ВШЭ (раздел «Мероприятия»).
+Если вы хотите сообщить о своем анонсе раньше, чем он придет на портал, пришлите нам заявку на portalnews@hse.ru. Заявка может представлять собой ссылку на ваш анонс или ссылку на сайт мероприятия (конференция, форум).
+Анонсы добавляются в ленту в порядке общей очереди и только в рабочие дни (пн.-пт.).
+Обратите внимание, что в ленту событий главной страницы сайта добавляются анонсы только на те мероприятия, к участию в которых приглашаются все желающие (не только сотрудники/ учащиеся ВШЭ). Если ваше мероприятие рассчитано только на гостей из ВШЭ, то достаточно разместить анонс на странице вашего подразделения.
+Пожалуйста, не путайте анонсы и новости. Анонсы информируют о предстоящих событиях и приглашают к участию. Новости рассказывают об уже свершившихся событиях.  
+**https://portal.hse.ru/events**
+**Обязательные требования к анонсам**
+ название мероприятия/ заголовок анонса организаторы (подразделение НИУ ВШЭ) краткая аннотация основные докладчики с указанием уч. степеней и подразделений где работают место и время проведения кто приглашается (абитуриенты, студенты, ппс, исследователи, все желающие и пр.) рабочий язык мероприятия (если выступает иностранный докладчик, предусмотрен ли перевод) нужно ли проходить предварительную регистрацию и где контактная информация куда можно обращаться за уточнениями/пропусками 
+В соответствии со стандартом, заголовок анонса должен коротко отражать суть анонса и не должен превышать 70 знаков с пробелами, исключение – названия конференций, содержащие большое количество знаков.
+На английской версии сайта необходимо в обязательном порядке размещать анонсы англоязычных мероприятий подразделения.
+Недопустимо размещение русскоязычных текстов в английской версии и английских текстов в русской версии сайта.
+**Размещение анонсов на сайте подразделения**
+На сайтах подразделений анонсы размещаются непосредственно редактором данного подразделения.
+Инструкция по размещению анонсов
+**https://portal.hse.ru/events**
+**Как создать подписку на анонсы подразделения**
+Вы можете создать на странице своего подразделения отдельную подписку, чтобы коллеги, которым интересны ваши события, могли получать от вас приглашения напрямую.
+Чтобы получить ссылку на подписку, перейдите на страницу Подписка на анонсы мероприятий Высшей школы экономики → в поле «Какое подразделение проводит?» выберите свое подразделение → скопируйте появившуюся в адресной строке браузера ссылку → добавьте ссылку на подписку в нужный вам раздел сайта. 
+**https://portal.hse.ru/events**
+**Как создать сайт мероприятия**
+Если ваше подразделение проводит крупное мероприятие, например конференцию или летнюю школу, и подразумевается размещение разноплановой информации (программа, организаторы, спикеры и др.), вы можете создать сайт мероприятия.
+Сотрудники портала заводят сайт, выдают права ответственному от вашего подразделения, который занимается наполнением сайта. Портал оказывает консультационную поддержку, а также помогает с оформлением в части, где нужна сложная верстка.
+Для того чтобы заказать сайт мероприятия, необходимо прислать на portal@hse.ru заявку, в которой указывается:
+ желаемый шаблон сайта: стандартный сайт мероприятия или лендинг; желаемый адрес сайта или ссылка на сайт мероприятия предыдущего года (если мероприятие ежегодное); заголовок сайта (название мероприятия); фио ответственного за редактирование сайта. 
 </t>
         </is>
       </c>
@@ -1824,22 +1799,66 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/resp**
-На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
-Списки показываются в справочнике сотрудника, а также в личном кабинете сотрудника.
-В настоящее время на сайте подразделения заведены следующие категории функциональной ответственности.
-Ответственные от факультетов и филиалов за редактирование страниц подразделений
-Ответственные за персональные страницы сотрудников
-Добавление в список ответственных автоматически не дает им доступ к редактированию сайта и персональных страниц. Для этого необходимо получить соответствующие права в подразделении, отвечающем за соответствующий ресурс.
-Управление по информационным ресурсам выдает права (заявка на адрес portal@hse.ru)
-Ответственным от факультетов и филиалов за редактирование страниц подразделений
-Ответственным за персональные страницы сотрудников
-**Как изменить сведения об ответственных**
-**Добавление сотрудника:**
-Необходимо перейти в режим редактирования сайта конкретного подразделения (раздел Данные). В блоке "Функционал сотрудника подразделения" нажать кнопку "Добавить сотрудника", вбить в поле для поиска ФИО, выбрать сотрудника и галочками выбрать возможные категории его ответственности.
-**Удаление сотрудника из списка**
-Для удаления сотрудника необходимо убрать все галки в списке функциональной ответственности сотрудника.
-Обратите внимание, что ниже блока Функционал есть список "Активных ролей подразделения". В нем указаны те люди, которые имеют доступ к просмотру или редактированию данных на портале, относящихся к Вашему подразделению. Если среди них есть люди, которые больше не работают в ВШЭ или не имеют отношения к конкретному подразделению, то необходимо сообщить об этом на portal@hse.ru.
+          <t xml:space="preserve">**https://portal.hse.ru/landing**
+**https://portal.hse.ru/landing**
+Для входа в режим редактирования перейдите по ссылке «Редактору» с главной страницы сайта, нажмите наверху ссылку «Данные», после чего перейдите в раздел "Блоки" (русская версия) и "Блоки_англ" (английская версия).
+**https://portal.hse.ru/landing**
+ Быстрые ссылки  Шапка Меню Основная колонка Виджеты  
+**https://portal.hse.ru/landing**
+**Шапка**
+В данном разделе редактируется то, что размещается в шапке сайта (картинка, заголовок, подзаголовок, кнопки).
+При выборе картинки в шапку имейте в виду, что соотношение сторон при разном разрешении экрана будет меняться, поэтому значимая часть изображения (если есть) должна находиться по центру. Размер изображения ­— 1600 пикселей по ширине, вес — 200-300 кб. Изображения, заливаемые на портал, должны быть оптимизированы для веб, для этого можно воспользоваться, например, сервисом https://tinypng.com/. Если у проекта есть свой фирстиль, который должен быть отражен в шапке, то необходимо учитывать требования к картинке.
+Чтобы шапка отображалась не только на главной, но и на внутренних страницах сайта, нужно зайти в раздел «Шапка на вторых страницах» и выбрать: «Шапка с главной страницы» или «Своя шапка». Обычно для показа на внутренних страницах сайта используется «Шапка с главной страницы».
+**Меню**
+Отображение меню регулируется в разделе «Шапка». По умолчанию меню скрыто. Если нужно, чтобы оно показывалось, надо выбрать, где вы хотите его вывести — «снизу» или «сверху».
+Есть также опция сделать меню «по центру». Сами пункты меню редактируются в Данные-Блоки-Меню
+**Основная колонка**
+«Основная колонка главной страницы» — главный раздел, которым вы пользуетесь. Слева расположен набор виджетов, справа — поле, куда виджет нужно переместить и где будет располагаться ваш контент.
+Выбираем виджет, подходящий для информации, которую необходимо разместить на странице, цепляем его курсором в левой колонке и тянем мышкой вправо, в большую центральную колонку. Нажимаем «Сохранить» в конце страницы и обязательно проверяем, что получилось!
+**Текст**
+ Для размещения текста нужно выбрать виджет «Фрагмент текста с заголовком».  После вставки текста его нужно обязательно выделить и нажать на панели инструментов кнопку Tx для очистки лишнего кода. Далее необходимо разбить текст на абзацы, для этого можно использовать клавишу Enter. Чтобы текст лучше смотрелся в браузере (были удалены лишние пробелы, стояли кавычки «елочки» и „лапки“, слова и цифры соединяли тире, а не дефисы), используйте программу «Типограф». 
+**Изображения**
+ Вы можете разместить как одиночное изображение, так и фотогалерею.  При загрузке изображений обязательно помните, что сначала их необходимо оптимизировать 
+**Видео**
+ Видео сначала необходимо разместить на Youtube. Затем выбираете виджет «Видео», ставите галочку «Стороннее видео», в поле URL проставляете ссылку вида: https://www.youtube.com/embed/pWeQh4ocVUk/. Чтобы получить такую ссылку, находясь непосредственно на Youtube, нажимаете на кнопку «Поделиться» (она располагается под видео). Выбираете самый первый вариант — «Встроить». У вас откроется окно, где слева будет видео, а справа — встраиваемый код. Копируете оттуда значение c embed и вставляете эту ссылку в виджет. Если необходимо, можно добавить заголовок.  
+**Якорь**
+ Якорем называется закладка на определенном месте страницы, предназначенная для создания перехода к ней по ссылке. Чтобы создать якорь, необходимо переместить виджет «Якорь» в нужное место и прописать в нем латинскими буквами «имя якоря» (напр: anchor). В ссылке, по которой пользователь будет переходить в определенное место страницы, в поле «адрес» нужно прописать ссылку на страницу плюс имя якоря с символом решетки (#) впереди (напр: https://portal.hse.ru/#anchor).  
+**Цветные блоки**
+ Для оформления контента в виде цветных блоков нужно выбрать одноименный виджет. Регулируете количество блоков в строке — их может быть 2 или 3, нажимаете на кнопку «добавить», открывается окно, в котором вы прописывает заголовок, ссылку, боковое меню (если нужно), а также загружаете фоновую фотографию.  Пример:  
+**Новости**
+ Новости размещаются в разделе «Новости», см. инструкцию. При этом, чтобы они показывались на странице, их нужно вывести с помощью виджета «Новости», выбрав оформление «Плитки». Если вы хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Новости» в поле «Заголовок».  Пример:  
+**Мероприятия (анонсы)**
+ Анонсы размещаются в разделе «Анонсы», см. инструкцию. При этом, чтобы анонсы показывались на странице, их нужно вывести с помощью виджета «Мероприятия», выбрав стиль «Карточки». Если вы хотите, чтобы заголовок раздела выводился, вам нужно вписать слово «Мероприятия» в поле «Заголовок».  Пример:  
+**Связанные материалы**
+ Если нужно вынести на главную страницу материалы, которые связаны между собой какой-то общей темой, вы можете воспользоваться виджетом «Связанные материалы». Например, у вас есть несколько интервью выпускников или студентов, вы ставите их фотографии (предварительно вырезав), подписи (ФИО, м.б. также краткий заголовок интервью) и ссылку.  Пример:  
+**Список персон**
+ Информацию о персонах можно представить на странице разными способами. Горизонтальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Нажимаете «Добавить персону». Если персона из ВШЭ, то вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Вертикальный список Перемещаете виджет «Список персон». Заполняете поле «Заголовок». Выбираете вид «Список». Проставляете галочку «Отображать вертикальным списком». Нажимаете «Добавить персону». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле «Описание/контакты» добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Это необходимо сделать, чтобы показывалось именно круглое фото, а не овальное. В поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  Одиночное круглое большое фото Если вам нужно разместить одиночное большое фото с подписью и текстом, вы выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Одиночный», стиль «Большое фото». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. В поле «Описание/контакты» добавляете необходимую информацию. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. В поле «Описание/контакты» добавляете необходимую информацию. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL.  Пример:  Круглое большое фото в колонках Если вы хотите разместить несколько подряд круглых фото в колонке, то перемещаете сначала виджет «Строка с колонками», а потом непосредственного в него добавляете виджет «Список персон». Выставляете ширину колонки «4», если вы хотите 3 персоны в ряд. Выставляете ширину колонки «3», если вы хотите 4 персоны в ряд. В сумме ширина всех колонок должна быть равна числу «12». Остальные действия — те же, что при размещении одиночного круглого фото.  Пример:  Карусель Если у вас много персон, и вы хотите, чтобы они выстраивались в один ряд, то выбираете виджет «Список персон», заполняете поле «Заголовок», далее выбираете вид «Карусель». Нажимаете «Добавить персону». Если персона из ВШЭ, то вы вводите ФИО, нажимаете «Найти» и выбираете нужного сотрудника из базы. Должность можно ввести вручную или выбрать из предлагаемого списка должностей. Фото и ссылка на личную страницу подтягиваются автоматически. Если персона не из ВШЭ, то вы меняете положение «Из ВШЭ» на «Не из ВШЭ». Вручную вписываете фио и должность. Загружаете фото. После заливки фото обязательно нажимаете «Вырезать», чтобы выбрать область фотографии, которая будет показываться на странице. Если необходимо поставить ссылку с ФИО, вы ставите ее в поле URL  Пример:  
+**Хронология**
+ С помощью виджета «Хронология» можно создать таймлайн или пошаговую инструкцию. Перемещаете из левой колонки виджет «Хронология». Если нужно сделать пошаговую инструкцию, то ставите галочку возле слова «Нумерация». Выбираете цвет, далее нажимаете «Добавить запись». В появившемся окне вписываете заголовок и текст, далее нажимаете опять «Добавить запись» за пределами окна. Если вам нужно добавить плашки (они выстраиваются в колонки), то нажимаете «Добавить запись» внутри окна.  Пример:    
+**Партнеры**
+ Чтобы разместить логотипы партнеров, нужно переместить из левой колонки виджет «Партнеры», заполнить поле «Заголовок», загрузить логотип, поставить ссылку и написать название компании-партнера. Логотипы встают в колонки по 4 в строке.  Пример:  
+**Колонки**
+ Если нужно разместить информацию в колонки, пожалуйста, не создавайте таблицу, пользуйтесь виджетом «Строка с колонками». У колонки нужно задать ширину. В сумме ширина всех колонок должна быть равна числу «12». Далее внутрь этого виджета нужно вставить другой виджет, в который вы будете непосредственно размещать информацию. Например, виджет «Фрагмент текста с заголовком».  Пример:  
+**Контент-блок**
+ Если необходимо разбить текст на смысловые части, наложив текст на фон (цвет или картинка), то надо воспользоваться виджетом «Контент-блок». Переносите виджет, добавляете цвет или картинку, внутрь переносите еще один виджет, в который непосредственно будете размещать информацию — например, виджет «Фрагмент текста с заголовком».  Пример:  
+**Соцсети**
+ Если необходимо разместить иконки социальных сетей, нужно переместить из левой колонки виджет «Соцсети», нажать «Добавить запись», заполнить поле «Заголовок», поставить ссылку на соцсеть, а также выбрать из перечня нужную вам иконку. При необходимости иконки можно расположить по центру, поставив соответствующую галочку.  Пример:  
+**Плашка**
+ Для выделения значимых пунктов в тексте можно воспользоваться виджетом «Плашка с цифрой». Перемещаете виджет в центральную колонку, заполняете поле Заголовок (раздела), выбираете цвет цифры, ставите галочку около «Нумерация», нажимаете «Добавить запись». Внутри заполняете поле «Заголовок» (если нужно) и поле «Текст». Пример:  Можено сделать плашки без цифры, тогда вы не ставите галочку около «Нумерация». Пример:  Плашки можно поставить в колонки. Тогда предварительно нужно переместить виджет «Строка с колонками» (о том, как это сделать смотрите выше), а потом в него переместить виджет «Плашка с цифрой». Пример:  
+**Даты**
+ Когда нужно красиво оформить даты мероприятия, воспользуйтесь виджетом «Связанные события». После того как вы переместили виджет, нажимаете «Добавить запись», далее заполняете поля «Число», «Месяц» и «Текст». Если вы хотите, чтобы между датами стояли стрелки, ставите галочку «Показывать стрелку».  Пример:  
+**Цифра**
+ Если в тексте нужно разместить блок со значимыми цифрами, то вы выбираете виджет «Цифра дня», перемещаете его, выбираете цвет цифры и текста и заполняете необходимые поля.  Пример:  
+**Выпадайки**
+ Если нужно разместить раскрывающийся цветной блок, то вы выбираете виджет «Набор с выпадайками». Нажимаете кнопку «Добавить блок», проставляете заголовок, в поле «Описание» ставите текст, который будет показываться до скрытого текста, в поле «Открывающийся текст» вписываете текст, который будет открываться по клику. Далее выбираете цвет блока.  Пример:  Если вам нужно просто сделать выпадающий список, то вы выбираете виджет «Набор с выпадайками 2». Нажимаете кнопку «Добавить блок», в поле «Заголовок» вписываете текст, по которому будут кликать, в поле «Открывающийся текст» вписываете текст, который будет открываться по клику.  Пример:  
+**Кнопка**
+ Если вам нужно создать кнопку, например «Регистрация», вы выбираете виджет «Декоратор», выбираете опцию «Кнопка», размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
+**Часто задаваемые вопросы**
+ Если вам нужно создать блок «Часто задаваемые вопросы», то вы выбираете виджет «Декоратор», выбираете опцию «Часто задаваемые вопросы». Заполняете поля «Вопрос» и «Ответ». Далее нажимаете «Добавить». В открывшемся поле заполняете название кнопки и ссылку на страницу, куда кнопка должна вести. Кнопок может быть несколько. Кнопку можно сделать как с заливкой, так и прозрачной.  Пример:  Чтобы разместить все вопросы на странице, надо выбрать виджет «Вопросы и ответы (FAQ)», нажать «Добавить вопрос» и заполнить поля «Вопрос» и «Ответ».  Пример:  
+**Вкладки**
+ Если вы хотите разместить информацию в виде переключающихся между собой блоков, то нужно выбрать виджет «Вкладки». Далее вы нажимаете «Добавить вкладку», в поле «Заголовок» пишите название вкладки, в пустое поле перемещаете виджет «Фрагмент текста с заголовком», где и размещаете информацию.  Пример:  
+**Слайдер**
+ Инструкцию по размещению баннера в виджете «Слайдер» вы можете прочитать здесь. 
 </t>
         </is>
       </c>
@@ -1850,80 +1869,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/seo_recommends**
- Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  
-**Заголовки страниц**
-Заголовки должны соответствовать содержанию страницы
-Заголовок должен быть уникальным и максимально соответствовать содержанию страницы.
- Чего следует избегать:
- Заголовков, не имеющих отношения к содержанию страницы. Шаблонных и бессмысленных заголовков, таких как "Поступающим" или "Студентам". 
-Используйте краткие, но содержательные заголовки
-Максимальная длина заголовка — 150 символов, оптимально — 60 символов.
-Заголовок должен быть информативным и кратким. Если он не связан с содержанием и слишком длинный, поисковая система может показать только его часть или заголовок, который будет создан на основе содержимого страницы.
- Чего следует избегать:
- Слишком длинных заголовков, бесполезных для пользователей. 
-**Мета-описание страницы (тег description)**
-Описания должны точно отражать содержание страницы
-Помните, что описание может быть показано в результатах поиска, поэтому оно должно быть не только информативным, но и интересным для пользователей. Делайте мета-описания от 70 до 300 символов. Короткие будут плохо выглядеть, а длинные урезаться. 
- Чего следует избегать:
- Создания мета тегов с описанием, не имеющим отношения к содержанию страницы. Использования описаний общего характера, например "Это веб-страница" или "Учебная программа". Использования в описании только ключевых слов. Копирования в описание всего содержания документа. 
-Используйте разные описания для разных страниц
-Если вы будете использовать уникальные мета теги описания для каждой страницы, это поможет пользователям сделать правильный выбор, особенно в случаях, когда в результатах поиска отображается несколько страниц сайта.
- Чего следует избегать:
- Использования одного мета тега описания для всех или многих страниц сайта. 
-Инструкцию по заполнению мета-тегов в редакторе можно найти тут: https://portal.hse.ru/meta
-**Заголовки в тексте (h2-h6)**
-Предназначение и примеры
-Основное предназначение данных тегов: структурирование и оформление контента на страницах, чтобы сделать его более читаемым и легко воспринимаемым пользователями сайта.
-Кроме применения данных тегов в качестве структуризации контента и его оформления, использование их для придания дизайна отдельным фразам или предложениям не допускается! Заголовки должны использоваться только для разбиения текста на логические блоки.
-Теги заголовков h2-h6 так же отличаются по значимости: каждый низший уровень должен быть менее значим. При использовании данных тегов, нужно выдерживать структуру: h2-h3-h4-h5-h6.
-Так же избегайте использования других тегов акцентирования (strong, b, em) и ссылок внутри тегов h2-h6.
-Длина заголовка не должна превышать 70 символов. Поисковые системы обрабатывают ограниченное количество знаков, длинные заголовки не будут восприняты полностью.
-В редакторе, данные заголовки можно найти в поле «Формат»:
-Инструкция по добавлению заголовков в редакторе: https://portal.hse.ru/format/#headrs
- Представьте, что вы пишете обзор
-Как и при написании обзора большого текста, изложите основные пункты и подпункты документа и подумайте, где лучше использовать теги заголовков.
- Чего следует избегать:
- Выделения тегами заголовков такого текста, который не помогает определить структуру страницы. Использования заголовков там, где лучше подходят другие теги, например &lt;em&gt; (курсив ) или &lt;strong&gt; (полужирный ). Бессистемного использования заголовков разных размеров. 
- Не злоупотребляйте заголовками
-Используйте теги заголовков там, где это имеет смысл. Чрезмерное количество заголовков на странице затрудняет просмотр контента и мешает определить, где заканчивается одна тема и начинается другая.
- Чего следует избегать:
- Злоупотребления заголовками на странице. Слишком длинных заголовков. Использования заголовков только для оформления текста, а не для структурирования. 
-**Ссылки**
-Тщательно продумывайте тексты ссылок
-Видимый текст ссылки помогает пользователям и поисковикам понять содержание страницы. Ссылки на странице могут быть внутренними (указывают на другие страницы сайта) или внешними (ведут на другие сайты). В любом случае, чем понятнее текст ссылки, тем проще пользователям ориентироваться на сайте, а поисковым системам легче понять, о чем страница, на которую ведет ссылка.
-Хорошо продуманный текст ссылки помогает пользователям и поисковым системам понять содержание страницы, на которую она ведет.
-Используйте информативный текст
-Текст ссылки должен хотя бы в общем описывать содержание страницы, на которую ведет ссылка.
- Чего следует избегать:
- Использования в тексте ссылки общих слов, например "страница", "статья" или "нажмите здесь". Слов, не имеющих отношения к теме или контенту страницы, на которую ведет ссылка. Частого использования URL страницы в качестве текста ссылки (иногда это допускается, например для продвижения или указания нового адреса сайта). 
-Текст должен быть лаконичным
-Текст должен быть описательным, но по возможности небольшим: несколько слов или короткая фраза.
- Чего следует избегать:
- Длинных текстов ссылки, например сложных предложений или целых абзацев. 
-Подберите текст ссылок и для внутренних URL
-Не забывайте, что ссылки бывают не только внешними, но и внутренними. Тщательно продуманный текст внутренних ссылок поможет лучше ориентироваться на сайте не только пользователям, но и поисковым системам.
- Чего следует избегать
- Длинного текста с большим количеством ключевых слов, предназначенного для поисковых систем. Создания ненужных ссылок, которые не упрощают навигацию на сайте. 
-**Изображения**
-Используйте атрибут alt 
-Для изображений используйте описательные имена файлов и атрибуты alt. Атрибут alt содержит текст, который виден пользователям, когда изображение не показывается по той или иной причине.
-Чтобы заполнить этот атрибут в редакторе сайта, при добавлении картинки, нужно заполнить поле «Описание»:
-Для чего нужен этот атрибут? Если посетитель использует для просмотра сайта вспомогательные технологии, например программу чтения с экрана, он сможет понять, что изображено на картинке.
-Кроме того, если вы используете изображение в качестве ссылки, то текст в атрибуте alt будет служить текстом обычной ссылки. Однако мы рекомендуем не злоупотреблять изображениями там, где для навигации по сайту можно использовать текстовые ссылки. Наконец, оптимизация имен графических файлов и текста в атрибутах alt упрощает поиск изображений, например в Google Картинках.
-Используйте краткие описательные имена файлов и текст в атрибутах alt
-Как и многие другие элементы страницы, которые можно оптимизировать, имена файлов и тексты в атрибуте alt должны быть краткими, но содержательными.
- Чего следует избегать:
- Шаблонных и бессмысленных имен, таких как image1.jpg, pic.gif, 1.jpg (по возможности). Слишком длинных имен файлов. Добавления ключевых слов и целых предложений в текст атрибута alt. 
-Добавляйте текст в атрибуты alt, если используете изображения как ссылки
-Если вы решили использовать изображение в качестве ссылки, то текст в атрибуте alt поможет поисковым системам понять содержание страницы, на которую ведет ссылка. Считайте, что вы пишете текст для обычной ссылки.
- Чего следует избегать:
- Слишком длинного текста в атрибуте alt (он будет рассматриваться как спам). Чрезмерного использования изображений в качестве ссылок для навигации по сайту. 
-**Общие рекомендации**
-Пишите легко читаемые тексты
-Текст должен быть понятен пользователям. Старайтесь выдерживать стиль и не допускать ошибок.
- Чего следует избегать:
- Грамматических и орфографических ошибок в тексте. Запутанных формулировок и некачественного контента. 
+          <t xml:space="preserve">**https://portal.hse.ru/header-banner**
+**Простой вариант**
+Состоит из текста и фонового изображения. Фон должен быть таким, чтобы на нем хорошо читался текст белого цвета. На фоне не должно быть значимых элементов, которые нельзя обрезать или пересекать текстом. Ширина фонового изображения – 1600px. Картинка обязательно должна быть оптимизирована: https://portal.hse.ru/photo
+**Сложный вариант – используется, когда у проекта есть свой фирстиль**
+Баннер/шапка представляет из себя композицию из 3 (или меньше) основных элементов:
+1. Фон (пример: заливка цветом, паттерн).
+2. Значимый текст (пример: заголовки, название мероприятия, опциональные кнопки).
+3. Графический элемент (пример: логотип, иллюстрация, фото).
+При подготовке макета, важно предусмотреть его адаптацию (размеры и взаимное расположение основных элементов) для разной ширины экрана. Макеты направляются команде портала в 3-х вариантах с шириной:
+1. 375px для мобильных устройств;
+2. 800px для планшетов;
+3. 1600px для пк и ноутбуков.
+Высота баннера на главной странице портала: 600px; 180px сверху и 80px снизу – служебные поля, в которых может быть размещен только фон.
+Высота шапки в лендинге: 490px; 45px сверху и 50px снизу – служебные поля, в которых может быть размещен только фон.
+Для верстки сложного варианта баннера/шапки следует прислать послойную картинку. Это означает, что отдельные элементы лежат на разных слоях изображения и верстальщик может использовать их отдельно друг от друга.
 </t>
         </is>
       </c>
@@ -1934,10 +1894,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
-Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
-Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
-Заявка должна быть отправлена с корпоративного адреса электронной почты.
+          <t xml:space="preserve">**https://portal.hse.ru/instev**
+Вход в редакторский режим https://www.hse.ru/adm/  Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).
+**Оформление главной страницы**
+Основные вкладки, с которыми Вы будете работать, — это «Страницы» (создание и редактирование статических страниц сайта), «Опросы» (создание формы регистрации на мероприятие) и «Блоки».
+Основное управление контентом происходит во вкладке «Блоки» («Блоки (англ.)» — для английской версии сайта).
+Чтобы Вам было легче сориентироваться, в редакторском интерфейсе есть пояснения к разным полям для внесения информации, отмеченные звездочками или серым шрифтом.  
+**1 — 5 пункт заполняется в Блоки — Правая колонка — Данные о мероприятии.**
+**1. Заголовок**
+Рекомендуется заполнять оба верхних поля. Текст первой строки отображается мелким шрифтом. Тогда как текст — основное название мероприятия — отображается крупно.
+**2. Даты мероприятия3. Кнопка регистрации (ссылка на регистрацию)**
+Создание формы регистрации.
+**4. Ключевые даты**
+Заполняется в поле «Пояснение». Надпись «Важные даты» может варьироваться по усмотрению.
+**5. Место проведения, Контакты**
+В этой же вкладке Вы можете заполнять и использовать все другие поля. «Время начала мероприятия», «Языки мероприятия», ссылка на карту «Как добраться», «Важные ссылки», «Файлы» — все эти данные будут отображаться в правой части сайта.
+**6. Меню (горизонтальное) в центральной части страницы**
+**Блоки — Настройки — Меню**
+Необходимо создать новую группу, а внутри группы «Добавить ссылку», где первая строка — название пункта меню, вторая — ссылка на страницу (создание и редактирование статических страниц).
+Для того чтобы пункты меню выстраивались в горизонтальную линию, необходимо под каждый пункт меню создавать новую группу. При добавлении ссылки в той же группе, следующий пункт меню будет располагаться под предыдущим.
+Возможен еще один вариант расположения меню — в правой части сайта под датой мероприятия (см. рисунок ниже).
+По логике заполнения и редактирования правой части сайта, данные пункты вносятся в
+**Блоки — Правая колонка — Данные о мероприятии — Важные ссылки.**
+**Оформление аннотации/главной страницы сайта мероприятия**
+Информация, которая размещается на главной странице сайта, является ключевой и должна отражать важность проводимого мероприятия.
+Для заполнения/редактирования аннотации необходимо зайти в редакторский интерфейс главной страницы: любо через https://www.hse.ru/adm/ — Данные, либо с помощью значка «Редактору» в нижнем правом углу главной страницы.
+Аннотация находится в поле «О подразделении» и верстается по аналогии с версткой текста на статических страницах, с использованием такого же инструментария.
+**Оформление нижней части сайта мероприятия**
+Внизу главной страницы Вы можете разместить членов программного или организационного комитета, ключевых спикеров, докладчиков, партнеров и пр. с фото, регалиями и ссылками на персоны.
+**Это делается в Блоки — Подвал — Участники**
+Внутри Вы заводите соответствующую группу («Ключевые спикеры», например) и поочередно добавляете персон. Ссылка на персональную страницу и фотография сотрудников Вышки подгружается автоматически. Для персон не из ВШЭ Вы можете подгружать фото и ссылку в открывшемся окне вручную.
+По аналогичному принципу устроен пункт оформления партнеров мероприятия.
+**Блоки — Подвал — Партнеры**
+где необходимо добавлять логотип организации-партнера и ссылку на них.
+Однако зачастую бывает удобнее размещать партнеров в правой части сайта.
+Здесь снова работает логика работы с правой колонкой.
+**Блоки — Правая колонка — Текстовые блоки**
+Необходимо завести новый текстовый блок и заполнить его картинками-логотипами и, при желании, ссылками на сайты партнеров.
+**Оформление программы мероприятия**
+Также у Вас есть возможность сверстать программу вашего мероприятия. Она будет располагаться на главной странице сайта мероприятия под аннотацией.
+**Данный инструмент находится в Блоки — Контент — Расписание мероприятий**
+Структуру программы Вы выстраиваете путем добавления пунктов «Добавить день», «Добавить мероприятие» или «Добавить событие», в зависимости от структуры и продолжительности вашего мероприятия.
+**Оформление страницы организационного комитета (программного комитета, докладчиков и др.).**
+Если Вы решили создать отдельную статическую страницу для перечисления членов организационного или программного комитетов, докладчиков и др., Вам необходимо использовать создать составную страницу и выбрать виджет "Список персон". Как это сделать, вы можете прочитать в инструкции: https://portal.hse.ru/sostav.
+И главное — не забывайте нажимать на кнопку «Сохранить» внизу каждой карточки, которую Вы заполняете.
 </t>
         </is>
       </c>
@@ -2140,6 +2140,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
+Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t xml:space="preserve">**https://portal.hse.ru/analytics**
 На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.
 Вопросами, связанными с посещаемостью страниц портала, занимается Отдел веб-аналитики и моделирования.
@@ -2164,41 +2176,6 @@
 **В Google Analytics**
 В меню сервиса выбирается вкладка Поведение → События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).
 Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/aspresponsible**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по экономике**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по менеджменту**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по государственному и муниципальному управлению; по философским наукам**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по праву**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школы: по социологическим наукам; по политическим наукам; по искусству и дизайну; по международным отношениям и зарубежным региональным исследованиям**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по историческим наукам; по филологическим наукам; по философским наукам; по культурологии**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по техническим наукам**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантские школы: по компьютерным наукам; по физике**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по образованию**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по психологии**
-**https://portal.hse.ru/aspresponsible**
-**Аспирантская школа по математике**
-**https://portal.hse.ru/aspresponsible**
-**Академическая аспирантура**
 </t>
         </is>
       </c>
@@ -2262,8 +2239,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
-Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
+          <t xml:space="preserve">**https://portal.hse.ru/aspresponsible**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по экономике**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по менеджменту**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по государственному и муниципальному управлению; по философским наукам**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по праву**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школы: по социологическим наукам; по политическим наукам; по искусству и дизайну; по международным отношениям и зарубежным региональным исследованиям**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по историческим наукам; по филологическим наукам; по философским наукам; по культурологии**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по техническим наукам**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантские школы: по компьютерным наукам; по физике**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по образованию**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по психологии**
+**https://portal.hse.ru/aspresponsible**
+**Аспирантская школа по математике**
+**https://portal.hse.ru/aspresponsible**
+**Академическая аспирантура**
 </t>
         </is>
       </c>

--- a/data_files/level_1.xlsx
+++ b/data_files/level_1.xlsx
@@ -487,6 +487,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
+Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t xml:space="preserve">**https://portal.hse.ru/persons**
 				Сотрудники
 Все подразделения
@@ -560,11 +572,11 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/about**
 Наше подразделение осуществляет  концептуальную и структурную разработку и сопровождение корпоративного портала НИУ ВШЭ. Проще говоря, мы развиваем корпоративный портал университета: поддерживаем и создаем новые тематические разделы, открываем сайты подразделений, образовательных программ, конференций, учебных курсов, спецпроектов, публикуем на главной странице анонсы, обучаем сотрудников редактированию сайтов, ведем несколько баз данных.
@@ -612,129 +624,11 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>**https://portal.hse.ru/progs**
-**О шаблоне «Сайт образовательной программы»**
-Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.
- Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение SEO-оптимизированного текста (SEO - search engine optimization) на главной странице  служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. 
-**Основные контакты**
-  Служба поддержки портала,  portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и страницу «Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,  УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,  Центр поддержки и мониторинга образовательных программ  Раздел «Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы «Рейтинги», «Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   
-**Основные документы**
-Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»
-Положение об основной образовательной программе высшего образования
- Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  
-**Как начать?**
-Если вы никогда ранее не работали с с сайтом образовательной программы (в т.ч. предыдущей версии), получите права редактора, написав с корпоративной почты письмо в свободной форме на адрес portal@hse.ru (служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом. 
-**Что делать, если программа новая и у нее еще нет сайта?**
-Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).
-**Какие материалы нужны для открытия сайта в базовой версии:**
- Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). 
-**Как подготовить SEO-оптимизированный текст на сайт**
-Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала. 
-Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.
-Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.
-**Структура сайта образовательной программы**
-Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.
- Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) 
-Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.
-Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.
-Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.
-**Шапка сайта образовательной программы**
-В шапке образовательной программы размещаются:
- Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП) служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс дня открытых дверей). 
-Размещение тизера в шапке сайта.
- Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору → Данные → Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. 
-**Главная страница программы**
-Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.
-Какие элементы есть на странице при открытии сайта:
-Метаинформация
- Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы действительно отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.  Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» 
-Университеты-партнеры образовательной программы
- Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип. Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. 
-Информация об ОП (раскрывающиеся блоки)
- Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. 
-Видео (опционально)
- На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению  к Шишкову Олегу Геннадьевичу или Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. 
-Важные объявления
- Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум — два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления» → «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! 
-Мероприятия
- Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле «Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.  Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом «Разместить в подразделении» (выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.  Для создания такой страницы нужно отправить запрос на адрес portal@hse.ru и приложить к письму наполнение для сайта.  
-Новости
- Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле «Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам, можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. 
-Похожие программы
- Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». 
-Вокруг нас (социальный блок)
- Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  
-Меню (правая колонка)
- Редактируется через Редактору → Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  
-Руководство программы (руководители, менеджеры)
- Раздел редактируется Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к Сюзанне Райан. 
-**Верхнее меню (разделы программы)**
-В верхнем меню находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.
-Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.
-Раздел О программе
- В данном разделе размещается общая информация о программе. В раздел «О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической страницы и что делать, если пункт меню помечен «замочком» 
-Раздел Абитуриентам (если есть набор)
- Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на portal@hse.ru.    В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» 
-Раздел Студентам (если есть студенты)
- Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел «Студентам» входят следующие обязательные пункты:  Рейтинги* (автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs) (статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.) (статстраница с техническим именем mobility) Практическая подготовка (статстраница с техническим именем internships) Каталог ВКР** (автоматическая страница с техническим именем diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена здесь. 
-Раздел Выпускникам (если есть информация для выпускников)
- Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  
-**Общее меню**
-Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.
-Учебные курсы
- Страница генерируется автоматически по адресу /courses на основе данных LMS. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
-Преподаватели
- Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
-Число студентов и вакантные бюджетные места
- Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. 
-Документы
- Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела «Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы. Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики – добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов  (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО - на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07, или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле  «Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.  Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. 
-Расписание
- Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».  
-Академический совет
- Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. 
-**Создание новой страницы и нового пункта меню **
-Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».
-Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе «Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей. 
-Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.
-Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.
-Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения измен</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/newdesignbb**
-Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки) и поставить соответствующую галочку.
-В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.
-Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».
-На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть). 
-Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует выбрать нужную доску из списка.
-Что не следует делать:
-Создавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».
-Использовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание
-Пренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.
-Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.
-Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/help**
         		    Шаг 1
@@ -753,11 +647,11 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/personalpages**
 **У кого есть персональная страница и как она появляется на портале?**
@@ -917,11 +811,11 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instr**
 Отдел развития и поддержки англоязычной версии портала  Управления развития и поддержки портала консультирует ответственных от подразделений и менеджеров образовательных программ по вопросам ведения английских версий сайтов подразделений и образовательных программ.
@@ -979,11 +873,11 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/im**
 **https://portal.hse.ru/im**
@@ -1011,11 +905,171 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/slider_banners**
+**https://portal.hse.ru/slider_banners**
+Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.
+**https://portal.hse.ru/slider_banners**
+ Заголовок. Несколько слов, кратко и емко описывающих тему. Если заголовок будет слишком длинным, вместе с текстом анонса он может не поместиться на мобильной версии.
+Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у заголовка.
+ Как на мобильной версии скрыть часть анонса Если вы видите, что на экране мобильного текст анонса не помещается полностью, оберните его в тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на мобильном и скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; 
+**https://portal.hse.ru/slider_banners**
+**Как оформить баннер**
+Существует два варианта оформления баннера: заливка цветом и фоновая картинка.
+По умолчанию редактор предлагает стиль Amethyst и другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих цветов.
+Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»
+Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине. Перед загрузкой картинки необходимо оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.  На этой странице вы найдете ссылки на бесплатные фотобанки и фотографии нашего университета. Используя их, вы можете быть уверены, что не нарушаете авторские права. На баннерах нельзя размещать изображения с готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и текст на нем теряется, его можно затемнить.
+ Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в программе, выбираем в верхнем меню — Изображение — Коррекция — Кривые или используем горячие клавиши Ctrl + M. Далее с помощью изменения точек кривой затемняем изображение до нужного уровня. 
+Стили CSS. В этом поле можно установить позиционирование фонового баннера на странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в примере выше это .vp) должно быть уникальным для каждого баннера и написанным на латинице. Так, .vp — cокращение от «Высший пилотаж». Используйте следующий код, заменив первое значение:
+.vp.splash.pseudo { background-position: 50% 25%; }
+CSS класс. Чтобы стили работали, скопируйте значение первого класса из Стилей CSS, но без точки (в примере это vp).
+Темный текст. Устанавливаете, если фон сплешки светлый.
+**https://portal.hse.ru/slider_banners**
+**Как скрыть/удалить баннер**
+Если вам нужно скрыть баннер, делаете его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать на крестик в правом углу и сохранить изменения.
+</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/photo**
+Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
+Вы можете сами проверить свой сайт с помощью этого инструмента.
+Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
+ Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
+Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
+Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
+А для главной страницы типичной образовательной программы – так:
+Разница в объеме потенциально оптимизируемого – в 17 раз.
+Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
+К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/tools**
+Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.
+На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).
+Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.
+А на этой странице собраны ссылки на зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками Дирекции по порталу и мобильным приложениям  в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы пользуетесь удобным ресурсом, о котором мы еще не знаем, присылайте информацию на адрес dkoptubenko@hse.ru.
+**Обработка фотографий**
+Colordot — инструмент для определения HTML-кода для требуемого цвета. В отличие от аналогов имеет визуально удобную палитру
+Pixlr — не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений
+TinyPNG — один из проверенных инструментов для сжатия изображений перед публикацией их на сайте
+**Бесплатные фотобанки**
+Unsplash — изумительной красоты фотографии, в основном, видовые
+Gratisography — бесплатные жанровые фотографии
+StockSnap.io — каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений
+Picjumbo — платный ресурс, но часть фотографий можно брать оттуда за просто так
+Picography — небольшая по объему коллекция бесплатных фотографий
+Library of Congress — исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения
+Morguefile — в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки
+Textures — подборка паттернов и фоновых изображений
+L+T — альтернативный сервис по подборке фоновых изображений
+FreeStockTextures — более 800 паттернов
+TextureZoom — тематические текстуры
+**Решения для инфографики**
+draw.io — интерактивные блок-схемы мы создаем при помощи этого инструмента
+easelly — простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось
+MyBalsamiq — сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами
+**Визуальные решения для сайта**
+StoryMap — с его помощью можно создавать интерактивные карты.
+Juxtapose — элегантный инструмент для демонстрации изменений на однотипных объектах. С помощью слайдера пользователь может сравнить, как было, и как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с одного ракурса
+Timeline JS — с его помощью можно создавать таймлайны (интерактивные истории, растянутые во времени). На портале использовался, например, при создании страницы к 20-летию нижегородского кампуса
+Soundcite — инструмент для создания аудиопрезентаций
+Prezi — мощная альтернатива Powerpoint для создания презентаций
+Fliphtml5 — инструмент для размещения pdf-файлов в виде раскрытой книги с возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.
+Формулы — инструмент для отображения формул на сайте. 
+**Создание опросов**
+Google Формы — бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за периметром портала. Для формирования опросных или регистрационных форм на портале есть штатный инструмент
+**Работа с соцсетями**
+ВКонтакте pages.clearCache —  инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и учтет внесенные на нее изменения
+vk.com/cc — инструмент для генерации коротких ссылок для «ВКонтакте»
+SMMPlanner — отложенный постинг в социальные сети
+Ezgif — создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)
+Make Beliefs Comix — создание комиксов
+**Оптимизация файлов**
+Онлайн-инструменты для любителей PDF — полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.
+**Узнать больше**
+Tutorialspoint — обширный набор учебников и инструкций: как пользоваться MS Word, Powepoint, Excel и сотнями других программ и приложений
+html academy — на сайте есть отличный бесплатный базовый курс по html и css, «настольная книга» для каждого, кто имеет доступ к редактированию страниц на портале
+Codecademy — интерактивные курсы по программированию
+https://smmplanner.com/
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/poll**
+**https://portal.hse.ru/poll**
+ Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
+**https://portal.hse.ru/poll**
+**Создание формы**
+Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
+Нажимаем на +, чтобы создать форму.
+Далее нужно указать:
+ название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
+Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
+Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
+Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
+Далее необходимо нажать на кнопку «Добавить блок вопросов».
+Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
+Пример блоков
+Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
+Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
+Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
+Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
+Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
+Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
+Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
+Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
+После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
+**https://portal.hse.ru/poll**
+**Дополнительные параметры**
+Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
+В открывшемся окне вы можете:
+ Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
+В разделе «Дополнительные параметры» вы также сможете:
+ Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
+Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
+Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
+**https://portal.hse.ru/poll**
+**Ссылка на форму/Клонирование/Выгрузка ответов**
+Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
+1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
+2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
+3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
+4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/resp**
 На сайтах подразделений существует функционал, позволяющий подразделению самостоятельно формировать списки сотрудников, к которым можно обращаться по тем или иным вопросам.
@@ -1037,80 +1091,11 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/nov**
-**https://portal.hse.ru/nov**
- Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
-**https://portal.hse.ru/nov**
-Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
- Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
-Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
-Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
-Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
-**Создание новости**
-Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
-Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
-Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
-Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
-Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
-При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
-Обязательно выбираете рубрику и ключевые слова.
-Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
-Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
-Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
-Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
-Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
-**Предосмотр новости**
-Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
-**Составной редактор**
-Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
-Далее следуем инструкции по составной странице.
-**Иллюстрация новости**
-Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
-Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
-Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
-Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
-Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
-**Копирование на другой сайт**
-Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
-В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
-Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
-Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/photo**
-Почему это важно? Во многом трафик на ваш сайт и, как следствие, степень интереса к вашим продуктам и результатам деятельности, зависит от скорости загрузки страниц. Вот что о некоторых страницах портала думает искусственный интеллект:
-Вы можете сами проверить свой сайт с помощью этого инструмента.
-Как с этим бороться? Прежде всего, тщательно следя за тем, чтобы загружаемые вами на портал фотографии не были чрезмерно тяжелыми. Помните, что размер фотографий вес фотографии только отчасти зависит от ее размера в пикселях. И самое маленькое изображение может весить более чем достаточно, если оно хорошего качества.
- Для начала уменьшите изображение до нужных размеров. Это можно сделать в любом графическом редакторе. Если у вас нет на компьютере установленной программы, вы можете воспользоваться, например, онлайн-сервисом Photoshop Express или Pixlr. Самая широкая картинка на портале не превышает 1600 пикселей по ширине. Ориентируйтесь на эту ширину как на максимальную. Оптимизируйте изображение с помощью сервиса Tinypng. Это очень просто. Заходите на сайт и перетаскиваете изображение в специальный контейнер прямо на сайте. После вам останется только скачать обратно на свой компьютер сжатую картинку. Теперь ее можно использовать на портале. 
-Можно, конечно, продолжать работать с сайтом, не оптимизируя изображения. Но в таком случае нужно помнить, что это повлечет за собой потерю части посетителей вашего сайта, прежде всего самых продвинутых, заходящих в интернет с мобильного телефона, а также потенциальных клиентов из ряда зарубежных стран, где скорость интернета оставляет желать лучшего. Команда портала, со своей стороны, прикладывает все усилия, чтобы оптимизировать другие элементы страниц технологическими средствами.
-Чтобы узнать, какие изображения из числа тех, что уже размещены на вашем сайте, нуждаются в оптимизации, воспользуйтесь сервисом Google PageSpeed Insights. Зайдите на страницу сервиса, введите адрес страницы, которую нужно проверить, дождитесь результата, найдите вкладку «Оптимизируйте изображения». Например, для главной страницы портала она выглядит так:
-А для главной страницы типичной образовательной программы – так:
-Разница в объеме потенциально оптимизируемого – в 17 раз.
-Вы можете оптимизировать уже размещенные на сайте изображения с помощью встроенных инструментов Google PageSpeed Insights. Для этого внизу страницы с результатами обследования вашей страницы найдите ссылку «Скачать оптимизированные изображения, ресурсы JavaScript и CSS для этой страницы».
-К вам на компьютер будет скачан архив, в одной из папке которого будут содержаться ужатые изображения. Их необходимо опубликовать на вашем сайте взамен тех, которые там были ранее.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/sostav**
 Для создания составной статической страницы необходимо проделать все те же шаги, что и для создания простой статической страницы. После заполнения основных полей переходим к полю "Вид страницы" (расположено над полем "Текст"). По умолчанию флажок установлен в положение "Простая". Кликаем на него и выбираем "Составная":
@@ -1153,29 +1138,6 @@
  Если вам нужно создать кнопку, например "Регистрация", вы выбираете виджет "Декоратор", выбираете опцию "Кнопка", размещаете название кнопки и ссылку на страницу, на которую кнопка должна вести.  Пример:  
 **Часто задаваемые вопросы**
    Чтобы разместить все вопросы на странице, надо выбрать виджет "Вопросы и ответы (FAQ)", нажать "Добавить вопрос" и заполнить поля "Вопрос" и "Ответ".  Пример:  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/pages**
-Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
-Создайте страницу, кликнув по иконке 
-При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
-Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
-Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
-Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
-В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
-После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
-После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
-Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
-Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
-Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
 </t>
         </is>
       </c>
@@ -1272,32 +1234,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">**https://portal.hse.ru/meta**
-В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
- Быстрые ссылки  Описание документа Соцсети  
-**Описание документа**
-Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов. Большая просьба также заполнить его для уже созданных сайтов и статических страниц.
-Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).
-Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст. 
-**Рекомендации по составлению мета-описаний (c сайта Яндекса):**
- Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. 
-**Примеры плохих мета-описаний (с сайта Яндекса):**
- Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. 
-**Примеры правильного заполнения мета-описаний:**
-https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ
-description: В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.
-https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ
-description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.
-https://www.hse.ru/figures/ Цифры и факты
-description: Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.
-https://ma.hse.ru/ Абитуриентам магистратуры
-description: Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.
-**Соцсети**
-Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.
-На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.
-Картинка 1: когда все заполнено
-Картинка 2: когда ничего не заполнено
-Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со искомой страницы и учтет внесенные на нее изменения.
+          <t xml:space="preserve">**https://portal.hse.ru/pages**
+Перейдите в раздел «Страницы» верхнего меню в режиме редактирования сайта.
+Создайте страницу, кликнув по иконке 
+При заполнении поля «Заголовок» не используйте форматирование текста, не разбивайте текст на строки, не вставляйте в поле картинки. Если вы копируете в это поле текст из Word, обязательно очистите форматирование. Это поле предназначено исключительно для текста, а форматирование в любом случае не будет отражено на готовой странице!
+Техническое имя страницы (поле «Путь») указывается только латинскими строчными буквами. Желательно, чтобы техническое имя состояло из одного слова. Если необходимо использовать два слова в названии страницы, ни в коем случае нельзя делать пробелы между словами — «help managers». Должно быть: либо «help_managers», либо «help/managers».
+Нельзя создавать пустые страницы, страницы для размещения ссылки на другую страницу, страницы для размещения одного-единственного файла.
+Английские версии русских страниц должны иметь такие же технические имена, как и русскоязычные страницы. Единственное отличие — при создании английской страницы в поле «Язык» необходимо проставить значение «английский».
+В рамках одного сайта не должно быть статических страниц с одинаковым адресом (поле "Путь") на одном языке!
+После того как вы наполнили страницу, прописали у нее техническое имя, вам необходимо сохранить страницу.
+После сохранения страница будет доступна по адресу: адрес-главной-страницы-сайта/путь. Например, у данной страницы адрес: https://portal.hse.ru/pages/, где https://portal.hse.ru/ — адрес главной страницы сайта, pages — путь страницы.
+Чтобы на страницу могли заходить пользователи, ссылку на неё необходимо добавить в меню. 
+Ссылка в меню добавляется только после того, как страница полностью готова, наполнена содержимым.
+Инструкцию по дальнейшей работе со страницей вы можете найти здесь.
 </t>
         </is>
       </c>
@@ -1307,199 +1256,6 @@
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/metaunits**
-В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
-Здания
-Наука
-Поиск по подразделениям
-Сведения об образовательной организации
-Кроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).
-**Редактирование данных**
-Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.
-**Описание полей**
-Телефон и адрес
-Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.
-Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.
-Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.
-Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на portal@hse.ru.
-Почему важно указать телефон подразделения
-С вами будет удобнее связаться
-Только при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.
-Электронная почта
-Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.  
-Уровень подготовки
-Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы. 
-Тип подразделения по Яндексу (актуально только для крупных подразделений)
-Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов
-Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.
-Категория подразделения
-Скорее всего, категория уже проставлена. Если нет, то проставьте ее. 
-Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)
-Тематика исследований
-Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/slider_banners**
-**https://portal.hse.ru/slider_banners**
-Баннеры размещаются на главной странице сайта. Это не просто элемент оформления «чтобы было повеселее». Баннер призван обратить внимание посетителя на какой-то контент. Например, ссылка с баннера может вести на анонс конференции или новость о крупном проекте.
-**https://portal.hse.ru/slider_banners**
- Заголовок. Несколько слов, кратко и емко описывающих тему. Если заголовок будет слишком длинным, вместе с текстом анонса он может не поместиться на мобильной версии.
-Анонс. Более детально раскрывает тему баннера. Задается обычным шрифтом, поэтому его длина может быть больше, чем у заголовка.
- Как на мобильной версии скрыть часть анонса Если вы видите, что на экране мобильного текст анонса не помещается полностью, оберните его в тэг &lt;span class="is-desktop"&gt;и этот текст будет скрыт для мобильных&lt;/span&gt;. Если нужно наоборот, отображать какой-то фрагмент текста только на мобильном и скрывать для больших экранов, используйте &lt;span class="is-mobile"&gt;…текст…&lt;/span&gt; 
-**https://portal.hse.ru/slider_banners**
-**Как оформить баннер**
-Существует два варианта оформления баннера: заливка цветом и фоновая картинка.
-По умолчанию редактор предлагает стиль Amethyst и другие градиентные фоны. Вы можете выбрать тот, который наиболее подходит под цвет вашего сайта. Старайтесь избегать кричащих цветов.
-Если вы хотите использовать в качестве фона картинку, то в поле «Стиль» выбираете «Свой баннер»
-Фон сплешки. Это фоновая фотография баннера. Выбирая изображение, ориентируйтесь на фотостиль Вышки. Размер: обычные пропорции горизонтально ориентированного фото 1600 px по ширине. Перед загрузкой картинки необходимо оптимизировать. Подробно о том, почему важно оптимизировать фото, можно прочитать здесь.  На этой странице вы найдете ссылки на бесплатные фотобанки и фотографии нашего университета. Используя их, вы можете быть уверены, что не нарушаете авторские права. На баннерах нельзя размещать изображения с готовым текстом — с большой вероятностью он будет обрезаться на различных устройствах. Похожая рекомендация относится к композиции: следует следить, чтобы на экране мобильного отображались все значимые части фотографии или иллюстрации. Если фоновое фото достаточно светлое и текст на нем теряется, его можно затемнить.
- Как затемнить фоновое изображение Можно воспользоваться программой Photoshop или бесплатным онлайн-фотошопом. Открываем изображение в программе, выбираем в верхнем меню — Изображение — Коррекция — Кривые или используем горячие клавиши Ctrl + M. Далее с помощью изменения точек кривой затемняем изображение до нужного уровня. 
-Стили CSS. В этом поле можно установить позиционирование фонового баннера на странице. Чем меньше значение, тем ниже будет изображение. Значение первого класса (в примере выше это .vp) должно быть уникальным для каждого баннера и написанным на латинице. Так, .vp — cокращение от «Высший пилотаж». Используйте следующий код, заменив первое значение:
-.vp.splash.pseudo { background-position: 50% 25%; }
-CSS класс. Чтобы стили работали, скопируйте значение первого класса из Стилей CSS, но без точки (в примере это vp).
-Темный текст. Устанавливаете, если фон сплешки светлый.
-**https://portal.hse.ru/slider_banners**
-**Как скрыть/удалить баннер**
-Если вам нужно скрыть баннер, делаете его неактивным, убрав галочку «Слайд активен». Чтобы совсем удалить неактуальный баннер, необходимо нажать на крестик в правом углу и сохранить изменения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/tools**
-Многие из вас используют в своей работе фото и видео с изображениями университета. Дирекция по связям с общественностью подготовила и собрала фото- и видеоконтент, который показывает наши корпуса, учебный процесс и передает всю атмосферу Вышки.
-На YouTube-канале вы можете найти плейлист с имиджевыми роликами (экскурсия по зданиям, летающий видеогид по Покровке, ролик про университетские лаборатории, вопросы ученым и многое другое).
-Также можно воспользоваться фотографиями университета. На странице love.hse размещены варианты обоев/фонов для зума и стикерпаки.
-А на этой странице собраны ссылки на зарекомендовавшие себя бесплатные онлайн-инструменты, которые могут облегчить работу редактора с сайтами корпоративного портала. Большая часть этих сервисов используется сотрудниками Дирекции по порталу и мобильным приложениям  в повседневной работе, однако необходимо иметь в виду, что сотрудники дирекции не осуществляют их поддержку, в том числе не имеют возможности консультировать по их использованию. Если вы пользуетесь удобным ресурсом, о котором мы еще не знаем, присылайте информацию на адрес dkoptubenko@hse.ru.
-**Обработка фотографий**
-Colordot — инструмент для определения HTML-кода для требуемого цвета. В отличие от аналогов имеет визуально удобную палитру
-Pixlr — не только обработка фото для тех, у кого под рукой нет фотошопа и аналогов. Здесь удобно делать коллажи из нескольких изображений
-TinyPNG — один из проверенных инструментов для сжатия изображений перед публикацией их на сайте
-**Бесплатные фотобанки**
-Unsplash — изумительной красоты фотографии, в основном, видовые
-Gratisography — бесплатные жанровые фотографии
-StockSnap.io — каждую неделю сервис пополняется сотнями новых разрешенных к свободному использованию изображений
-Picjumbo — платный ресурс, но часть фотографий можно брать оттуда за просто так
-Picography — небольшая по объему коллекция бесплатных фотографий
-Library of Congress — исторические фотографии из коллекции Библиотеки Конгресса США. Перед использованием каждой фотографии прочитайте, распространяется ли на нее право использования без разрешения
-Morguefile — в основном пользовательские фотографии невысокого качества, но иногда встречаются превосходные снимки
-Textures — подборка паттернов и фоновых изображений
-L+T — альтернативный сервис по подборке фоновых изображений
-FreeStockTextures — более 800 паттернов
-TextureZoom — тематические текстуры
-**Решения для инфографики**
-draw.io — интерактивные блок-схемы мы создаем при помощи этого инструмента
-easelly — простой в употреблении сервис инфографики. Следует обратить внимание, что не все русскоязычные шрифты отображаются так, как задумывалось
-MyBalsamiq — сервис для создания прототипов. Можно использовать для взаимодействия с иллюстраторами
-**Визуальные решения для сайта**
-StoryMap — с его помощью можно создавать интерактивные карты.
-Juxtapose — элегантный инструмент для демонстрации изменений на однотипных объектах. С помощью слайдера пользователь может сравнить, как было, и как стало. Подобные инструменты активно применяются СМИ для демонстрации изменений, например, при реконструкции домов или улиц, снятых с одного ракурса
-Timeline JS — с его помощью можно создавать таймлайны (интерактивные истории, растянутые во времени). На портале использовался, например, при создании страницы к 20-летию нижегородского кампуса
-Soundcite — инструмент для создания аудиопрезентаций
-Prezi — мощная альтернатива Powerpoint для создания презентаций
-Fliphtml5 — инструмент для размещения pdf-файлов в виде раскрытой книги с возможностью листания страниц мышкой. Единственный известный нам стабильный бесплатный инструмент подобного рода.
-Формулы — инструмент для отображения формул на сайте. 
-**Создание опросов**
-Google Формы — бесплатный генератор опросов. Может пригодиться, если вам нужно провести опрос за периметром портала. Для формирования опросных или регистрационных форм на портале есть штатный инструмент
-**Работа с соцсетями**
-ВКонтакте pages.clearCache —  инструмент ВКонтакте, позволяющий сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные с искомой страницы и учтет внесенные на нее изменения
-vk.com/cc — инструмент для генерации коротких ссылок для «ВКонтакте»
-SMMPlanner — отложенный постинг в социальные сети
-Ezgif — создание gif-изображений из видеозаписей, а также их редактура (изменение размеров, обрезка и так далее)
-Make Beliefs Comix — создание комиксов
-**Оптимизация файлов**
-Онлайн-инструменты для любителей PDF — полностью бесплатные онлайн-инструменты для объединения, разделения, сжатия PDF-файлов, преобразования документов Office в PDF-файлы, преобразования PDF-файлов в JPG и JPG в PDF. Без необходимости установки.
-**Узнать больше**
-Tutorialspoint — обширный набор учебников и инструкций: как пользоваться MS Word, Powepoint, Excel и сотнями других программ и приложений
-html academy — на сайте есть отличный бесплатный базовый курс по html и css, «настольная книга» для каждого, кто имеет доступ к редактированию страниц на портале
-Codecademy — интерактивные курсы по программированию
-https://smmplanner.com/
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/poll**
-**https://portal.hse.ru/poll**
- Быстрые ссылки  Создание формы Уведомления на свою почту Ответное письмо пользователю Ссылка на форму/клонирование/выгрузка результатов CRM-система  
-**https://portal.hse.ru/poll**
-**Создание формы**
-Для создания регистрационных форм, форм подписки на новости, опросов и др. необходимо на сайте вашего подразделения зайти в Редактору – Данные – Опросы и регистрационные формы.
-Нажимаем на +, чтобы создать форму.
-Далее нужно указать:
- название (если в названии используются длинные слова, вы можете поставить галочку расставить мягкие переносы); время проведения (тот период времени, в течение которого можно ответить на вопросы); статус (меняете на «активно» после того, как форма будет готова); язык (если форма на английском языке, необходимо выставить язык – «английский»). 
-Если у вас регистрация на мероприятие с ограниченным количеством участников, то существует возможность закрыть регистрацию после определенного количества заявок. В ином случае вы оставляете это поле незаполненным.
-Галочка «пройти можно только раз» нужна только в том случае, если вы создаете опрос.
-Галочка «автоматически нумеровать вопросы» стоит по умолчанию. Однако бывают случаи, когда автоматическая нумерация не нужна, – тогда галочку нужно убрать.
-Далее необходимо нажать на кнопку «Добавить блок вопросов».
-Если вам нужно разбить вопросы на несколько тематических блоков, то вы заполняете поле «Блок вопросов» (при необходимости также поле «Описание»).
-Пример блоков
-Если ваши вопросы должны идти подряд без разбивки на блоки, вы это поле не заполняете, а сразу переходите к кнопке «Добавить вопрос». В поле «Вопрос» вписываем непосредственно вопрос. В поле «Описание» можно добавить комментарии к вопросу.
-Далее нажимаем кнопку «Добавить ответ» и вписываем необходимый вариант.
-Если ответ на данный вопрос обязателен, ставим галочку напротив соответствующего пункта.
-Если на вопрос допускается один ответ, то выбираем соответствующую строку в поле «Формат ответа». Если на вопрос допускается несколько вариантов ответов, также выбираем соответствующую строку в поле «Формат ответа»
-Ответы можно сделать «выпадающим списком», тогда в поле «Формат ответа» нужно выбрать соответствующую строку.
-Если ответы не заданы, и тот, кто заполняет форму, должен вписать свой вариант ответа, в поле «Формат ответа» выбираем значение «Строка» или «Несколько строк». Вы можете добавить какой-то комментарий к свободному ответу в «Пояснительном тексте», а также ограничить в ответе количество символов.
-Если в ответе предполагается указание даты, номер телефона, e-mail, страны проживания или загрузка файла, то надо выбрать строку «Специальный вопрос» в поле «Формат ответа», а далее в выпадающем списке выбрать нужный вариант.
-Обратите внимание, что если вы выберете тип специального вопроса email, при заполнении формы браузер пользователя постарается автозаполнить это поле из кеша. Это облегчает пользователю заполнение формы. Автозаполнение из кеша браузера возможно также в отношении полей "Фамилия" (нужно выбрать Код вопроса "lastname") и имя (Код вопроса "firstname"). Автозаполнение не гарантируется, однако, как правило работает.
-После заполнения необходимо сохранить форму, нажав на кнопку «Создать».
-**https://portal.hse.ru/poll**
-**Дополнительные параметры**
-Чтобы открыть «Дополнительные параметры», необходимо нажать на стрелку.
-В открывшемся окне вы можете:
- Добавить к форме пояснительный текст (будет отображаться сразу после заголовка); Добавить сообщение на странице после отправки формы (будет выводится на экране, напр.: «Спасибо за регистрацию. Ждем вас по адресу...»); Добавить сообщение на странице по завершении регистрации (будет заменять стандартную фразу «Извините, регистрация закончена»); Изменить текст согласия на обработку персональных данных (используется только при необходимости заменить стандартный текст); 
-В разделе «Дополнительные параметры» вы также сможете:
- Поставить ссылку перехода после сохранения (надо иметь в виду, что если вы заполните это поле, сообщения типа «Спасибо за регистрацию» и «Регистрация завершена» выводиться не будут); Изменить схему показа вопросов (по умолчанию они идут друг за другом, схема «вопросы в виде таблицы» позволяет выстраивать их в две колонки); Привязать форму к определенному сайту (например, вы сделали ее на одном сайте, а вам нужно, чтобы форма была на другом, либо нужно привязать еще один сайт); Указать корпоративный e-mail сотрудника ВШЭ, на который будут приходить уведомления о новых ответах (каждый адрес должен быть добавлен отдельно, через кнопку «добавить»);  Связать с формой на другом языке (чтобы работала переключалка языков, если у вас есть такая же форма, например, на английском); 
-Если вы хотите, чтобы на почту пользователя приходило ответное письмо, надо поставить галочку напротив «Направить ответное письмо пользователю». Данная функция будет работать в том случае, если в форме нужно указывать email и ответ на этот вопрос обязателен. В поле «Текст письма» нужно разместить текст, а в коде вопроса про электронную почту надо прописать слово «email». Большая просьба в тексте письма указывать контактную информацию – куда пользователь может обратиться с вопросами, т.к. письма приходят с адреса robot@hse.ru.
-Если вы хотите, чтобы ответное письмо пользователю было персонализировано, то в поле «Текст письма» в начале нужно разместить фразу: Здравствуйте %%ANSWER_TO_QUESTION_lastname%% — %%ANSWER_TO_QUESTION_firstname%%. При этом необходимо, чтобы кроме e-mail, в вашей форме обязательными вопросами были отдельно «фамилия» и «имя» (или «имя-отчество»). В коде вопроса нужно прописать слова lastname и firstname.
-**https://portal.hse.ru/poll**
-**Ссылка на форму/Клонирование/Выгрузка ответов**
-Необходимо зайти в Редактору – Данные – Опросы и регистрационные формы и там вы сможете:
-1. Редактировать форму (чтобы сохранить изменения, нужно будет нажать кнопку «Сохранить»).
-2. Клонировать форму (если вам необходимо создать форму с теми же или похожими вопросами).
-3. Найти ссылку на форму (нажимаете на "встраивание", в открывшемся окне выбираете ссылку с названием вашего подразделения, чтобы форма открывалась внутри вашего сайта; кликаете на ссылку и в адресной строке открышегося окна копируете ссылку на вашу форму). Пример:
-4. Выгрузить ответы на форму (у вас есть возможность посмотреть результаты в pdf, html и excel).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
-Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
-Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
-Заявка должна быть отправлена с корпоративного адреса электронной почты.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/seo_recommends**
  Быстрые ссылки  Заголовки страниц Мета-описание страницы Заголовки в тексте Ссылки Изображения Общие рекомендации  
@@ -1579,11 +1335,47 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/meta**
+В редакторском режиме для сайтов, статических страниц, новостей и анонсов вы видите следующие поля для заполнения:
+ Быстрые ссылки  Описание документа Соцсети  
+**Описание документа**
+Самое важное поле – «Описание документа». По мере наполнения сайта не забывайте заполнять это поле для всех новых страниц, новостей, анонсов. Большая просьба также заполнить его для уже созданных сайтов и статических страниц.
+Из того, что вы напишете в этом поле, сформируется мета-тег description. Он описывает содержимое страницы для поисковых роботов (Яндекс и Google). Если description есть, ваша страница/сайт будет при прочих равных лучше индексироваться в поисковиках, окажутся выше в выдаче и, соответственно, увеличится поисковый трафик на ваш сайт. Кроме того, часто именно это описание Google подставляет в выдачу (на страницу результатов поиска).
+Что из себя представляет «Описание документа»? Это короткий связный текст, описывающий контент страницы. «Описание документа» – это фактически краткое описание того, что написано на главной странице сайта. Оптимизаторы сайтов рекомендуют делать описание на 160 знаков, можно чуть больше, но имейте в виду, что большинство поисковых роботов игнорируют то, что написано за первыми 160-180 знаками. Также нельзя делать из описания набор ключевых слов через запятую. Во-первых, это очень не нравится роботам, и результат может оказаться отрицательным. Во-вторых, эта информация может показываться людям, а им нужен более связный текст. 
+**Рекомендации по составлению мета-описаний (c сайта Яндекса):**
+ Мета-описания не должны содержать всего несколько слов. Должны описывать конкретную страницу сайта, а не сайт в целом. Мета-описания должны быть написаны для людей, нормальным человеческим языком — развернуто, правильно выстроенными предложениями, без злоупотреблений ключевыми словами, фразами, заглавными буквами, рекламными лозунгами и пр. Мета-описания должны быть емкими и при этом содержательными. Старайтесь выразить основную суть документа в нескольких предложениях. Содержимое тега meta должно быть актуальным, отражать текущее состояние страницы. Мета-описания должны соответствовать языку документа. 
+**Примеры плохих мета-описаний (с сайта Яндекса):**
+ Наполнение мета-описаний временной, служебной информацией, например: «Не забыть добавить здесь текст». Устаревшие описания. Например, цены на сайте изменились, описываемый документ теперь расположен по другому адресу, а описания при этом прежние. Размещение важной информации в конце текста. Старайтесь располагать наиболее важную информацию и фразы в начале мета-описаний. 
+**Примеры правильного заполнения мета-описаний:**
+https://elearning.hse.ru/mooc Массовые открытые онлайн курсы НИУ ВШЭ
+description: В открытом доступе на международной платформе Coursera и российской Национальной платформе открытого образования (НПОО) вы можете бесплатно изучать курсы лучших преподавателей Высшей школы экономики.
+https://www.hse.ru/abiturient Поступающим в НИУ ВШЭ
+description: Высшая школа экономики — это отличный старт для карьеры в бизнесе, на государственной службе и в науке. Здесь готовят высококлассных специалистов, нужных стране. Все, что нужно знать поступающим в НИУ ВШЭ - дни открытых дверей, проходной балл и другую информацию.
+https://www.hse.ru/figures/ Цифры и факты
+description: Что такое ВШЭ в цифрах, фактах, статистика, рейтинги, инфографика и многое другое, что вы хотели знать о Вышке.
+https://ma.hse.ru/ Абитуриентам магистратуры
+description: Прием и информация для поступающих в магистратуру НИУ ВШЭ. Список направлений подготовки и программ. Вопросы и ответы. Вступительные испытания и дни открытых дверей на официальном сайте.
+**Соцсети**
+Если вы хотите, чтобы ваш сайт или отдельная страница красиво выглядели в соцсетях, когда пользователи делятся ссылками, нужно эти поля заполнить.
+На картинках ниже можно увидеть, как отличаются ссылки в соцсетях в случае, если соответствующие поля заполнены, и если нет.
+Картинка 1: когда все заполнено
+Картинка 2: когда ничего не заполнено
+Чтобы посмотреть, как сейчас отображается та или иная страница при копировании ссылки в ВКонтакте, можно воспользоваться инструментом ВКонтакте pages.clearCache. Позволяет сбросить кэш соцсети для конкретной ссылки. После этого соцсеть запросит новые данные со искомой страницы и учтет внесенные на нее изменения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/script**
 Мы с осторожностью относимся к просьбам коллег разместить на сайте подразделения произвольные JavaScript'ы и сторонние iframe'ы. Подобные вставки оказываются очень уязвимыми элементами сайта с точки зрения безопасности. Через свою связь с внешими сайтами они могут стать рассадниками огромного числа вирусов и инфицировать компьютеры ничего не подозревающих посетителей портала.
@@ -1592,67 +1384,65 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
-На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
-Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
-**Сортировка сотрудников по должностям на странице**
-Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
-В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
-В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
-**Шаг 1**
-**Шаг 2**
-Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/site**
- Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
-**Доступ к редактированию**
-Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
-Перейти к режиму редактирования сайта можно двумя способами:
- По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
-Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
-**Наполнение сайта**
-Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
- Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
-Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
-Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
-Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
-Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
-**Меню: основные ошибки**
- Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
-**Как вывести страницу «Сотрудники»?**
-Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
-Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
-Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
-**Размещение текстов: что можно и что нельзя**
-**Можно и нужно:**
- Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
- Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
-**Размещение новостей: на что обратить внимание**
- У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/metaunits**
+В настоящее время сведения из блока «Показ в списках и на картах» (Данные → Показ в списках и на картах) не показываются на сайтах подразделений. Однако они используются для отображения информации о подразделениях в разделах портала:
+Здания
+Наука
+Поиск по подразделениям
+Сведения об образовательной организации
+Кроме того, информация из этого раздела передается на Яндекс.Карты (это касается прежде всего крупных подразделений).
+**Редактирование данных**
+Чтобы перейти к редактированию блока, зайдите в административный интерфейс портала и перейдите Данные - Показ в списках и на картах.
+**Описание полей**
+Телефон и адрес
+Основной телефон – укажите телефон в формате 4957787704 и внутренний телефон (если он необходим). При необходимости укажите, кому принадлежит номер.
+Если подразделение располагается в разных зданиях, то для каждого адреса можно указать свой номер телефона.
+Если вы укажете телефон для каждого адреса, то указывать основной телефон необязательно, для отображения на Яндекс.Картах будут использоваться телефоны, указанные в адресах. Если будет указан только основной телефон, то он будет показываться для обоих адресов.
+Если вы не нашли адрес НИУ ВШЭ в справочнике, напишите об этом на portal@hse.ru.
+Почему важно указать телефон подразделения
+С вами будет удобнее связаться
+Только при наличии адреса и телефона подразделение будет показано на Яндекс.Картах. Обратите внимание, что на Яндекс.Картах показываются только факультеты, крупные институты, международные лаборатории и редакции журналов.
+Электронная почта
+Укажите корпоративную почту подразделения или корпоративную почту сотрудника, выполняющего обязанности секретаря/менеджера.  
+Уровень подготовки
+Указание уровня образования актуально только для подразделений, реализующих образовательные программы или имеющих аспирантские школы. 
+Тип подразделения по Яндексу (актуально только для крупных подразделений)
+Тип «Факультет» указывается для подразделений, реализующих основные образовательные программы, и крупных институтов
+Типы «Дополнительное образование», «Курсы иностранных языков», «Маркетинговые услуги», «Учебный центр», «Центр повышения квалификации» указываются для тех подразделений, у которых это есть.
+Категория подразделения
+Скорее всего, категория уже проставлена. Если нет, то проставьте ее. 
+Обратите внимание, что для научно-учебных лабораторий, являющихся международными, должен стоять только тип Международная лаборатория (при возникновении вопросов обращайтесь к Марии Юдкевич)
+Тематика исследований
+Данный справочник основан на расширенном классификаторе OECD. Используется при отображении подразделений в разделе Наука, а также в общем каталоге подразделений НИУ ВШЭ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/helpsite**
+Для получения доступа к  редактированию сайта необходимо направить заявку в свободной форме по электронному адресу portal@hse.ru. В заявке необходимо указать ФИО сотрудника и адрес сайта, к которому нужен доступ. 
+Для редактирования сайта необходимо иметь доступ в личный кабинет на портале.
+Заявка должна быть отправлена с корпоративного адреса электронной почты.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instann**
 **https://portal.hse.ru/instann**
@@ -1753,11 +1543,115 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/site**
+ Быстрые ссылки  Доступ к редактированию Наполнение сайта Размещение текстов Размещение новостей  
+**Доступ к редактированию**
+Доступ к редактированию сайта предоставляется в течение одного рабочего дня. Как получить доступ, написано здесь.
+Перейти к режиму редактирования сайта можно двумя способами:
+ По прямой ссылке: https://www.hse.ru/adm/ (там будет высвечиваться список подразделений, к которым у вас есть права); Путем клика на ссылку «Редактору» внизу главной страницы сайта, на редактирование которого у вас есть права. Далее надо будет нажать на ссылку «Данные». Если вы нажмете на ссылку «Редактору» на статической странице, новости или анонсе внутри сайта, то сразу попадете в режим редактирования этого конкретного элемента. 
+Отдельные права для редактирования английской версии не нужны. Подробно про работу с английской версией написано здесь.
+**Наполнение сайта**
+Для работы с сайтом вам в основном будут нужны четыре подраздела сайта:
+ Блоки (в этом подразделе осуществляется управление главной страницей сайта, включая добавление пунктов меню) Страницы (инструкция по созданию страницы) Новости (инструкция по созданию новости) Анонсы (инструкция по созданию анонса) 
+Если вы редактируете сайт структурного подразделения, то вам также будут нужны разделы «Функционал сотрудников подразделений» и «Показ в списках и на картах» (адреса и мета-информация подразделений).
+Очень часто первым желанием редактора бывает завести новый пункт меню. Однако в этом случае единственное, чего вы достигнете – это разочаруете посетителя своего сайта, так как при клике на пункт меню он получит ошибку. Кроме того, чем больше таких ошибок на сайте, тем хуже он индексируется поисковиками.
+Сначала надо создать страницы и наполнить их содержимым. Внимательно прочитайте про размещение текстов на портале и работу с таблицами.
+Только после того как созданы страницы, заводится пункт меню. Чтобы завести новый пункт меню необходимо перейти в раздел Блоки → Меню. В поле название пропишите название пункта меню, а в поле URL ссылку на страницу.
+**Меню: основные ошибки**
+ Пункт меню создан раньше, чем соответствующая страница. Ссылка прописана правильно, но страница не открывается. Проверьте, что в конце ссылки не стоит пробел. Удалите пробел. Дана ссылка на сайт в домене hse.ru, но при этом стоит галочка около пункта «Открывать в новом окне». Этот функционал необходимо использовать, если по каким-то причинам вы хотите сослаться на внешний сайт. 
+**Как вывести страницу «Сотрудники»?**
+Мы не рекомендуем вести такую страницу вручную, вы обязательно забудете скорректировать список при изменении кадрового состава. Для того чтобы вывести в меню автоматическую страницу «Сотрудники», необходимо прописать в поле URL пункта меню слово persons. Предварительно надо убедиться, что в вашем подразделении есть хотя бы один оформленный сотрудник. Ссылку на пустую страницу добавлять не нужно.
+Если вы точно знаете, что в вашем подразделении есть оформленные сотрудники, но страница не показывается, напишите об этом на адрес portal@hse.ru, указав в письме ссылку на сайт, о котором идет речь, и ссылку на сотрудника, имеющего трудоустройство в этом подразделении (трудоустройство должно показываться на странице).
+Подробно про то, как появляются персональные страницы на портале и про то, откуда берется на них информация, написано здесь.
+**Размещение текстов: что можно и что нельзя**
+**Можно и нужно:**
+ Если у вас на странице размещен не просто текст, а, например, есть необходимость вывести список участников мероприятия с фотографиями, то мы рекомендуем воспользоваться шаблоном составной страницы/новости/анонса. Инструкция по работе с такой страницей находится здесь. Принцип работы с составными страницами/новостями/анонсами одинаковый. После переключения обычной страницы в режим составной вы получаете набор готовых элементов для оформления страницы. Мы постарались, чтобы в разных браузерах и на разных устройствах эти элементы отображались корректно, однако, если вы заметили ошибку, то, пожалуйста, напишите нам об этом на portal@hse.ru. Если информация не требует сложного оформления, выбирайте режим «простой» страницы. Выделять в тексте подзаголовки разного уровня, если этого требует текст. Помните, что для этого нужно оформить текст как заголовок, а не выделить его жирным и увеличить шрифт. Заголовок — важный элемент структуры страницы, он поможет поисковикам лучше понять ваш сайт. Заголовком нельзя оформлять отдельные предложения или абзацы. Подробно про поисковую оптимизацию можно прочитать здесь. Если у вас очень важная страница, и вы понимаете, какие блоки хотели бы выделить, но не знаете, как это лучше сделать, напишите свой вопрос на portal@hse.ru. Мы постараемся помочь. 
+ Категорически нельзя:  Размещать текст, скопированный из Word, без последующей очистки его от посторонних стилей. Это приводит к непредсказуемому отображению текстов в разных браузерах, в некоторых случаях на мобильных устройствах текст может выходить за границы экрана (посетитель в принципе не сможет прочитать текст), а может и просто стать невидимым. Подробно про размещение текстов написано здесь. Менять размер и стиль шрифта, красить текст в разные цвета. Это также приводит к некорректному отображению. В конце концов это просто некрасиво, когда сайт выглядит как школьная стенгазета. Выравнивать текст по ширине. На стационарном компьютере такое форматирование может выглядеть симпатично, но в мобильной версии два слова могут прилипнуть к краям экрана, а по центру страницы образуется пустота. Размещать тексты в виде изображений. Мы знаем, что для мероприятий часто готовятся рекламные постеры. Они предназначены для размещения на стенде, а не сайте. Тексты в виде картинок тяжело читать с мобильных устройств, они не индексируются поисковыми системами, недоступны для прочтения слабовидящими, использующими для ознакомления с сайтом специальные программы. Писать заголовки, используя только заглавные буквы. Наличие в тексте только заглавных букв усложняет его восприятие. Чем длиннее текст, набранный заглавными буквами, тем сложнее его прочитать. Кроме того, в интернете традиционно считается, что если автор пишет заглавными буквами, то это означает, что он кричит. Размещать заголовки в несколько строк. В мобильной версии они будут занимать весь экран.  
+**Размещение новостей: на что обратить внимание**
+ У каждой новости должен быть короткий заголовок, аннотация, рубрика, ключевые слова, текст новости. Про это написано в инструкции и закреплено в Стандарте. Форматирование текстов. Абзац и переносы строки – это не одно и то же. И еще раз ссылка на инструкцию. Точки в заголовках не ставятся. Иллюстрации. Хорошо, когда новость иллюстрирует фотография, сделанная вами в рамках работы. Также здорово, если изображение передал вам автор для размещения на сайте. Категорически нельзя использовать изображения, найденные в сети. Обязательно проверяйте копирайт. Иногда достаточно указать, откуда скопировано изображение, иногда требуется письменное разрешение автора, а в некоторых случаях размещать у себя изображение в принципе нельзя. При необходимости вы можете взять изображение из бесплатного фотобанка. Иллюстрация не является обязательным элементом новости. Картинка должна быть горизонтальной и хорошего качества. Недопустимо размещение в качестве иллюстрации новости скриншотов, баннеров, листовок, обложек, постеров, логотипов. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/nov**
+**https://portal.hse.ru/nov**
+ Быстрые ссылки  Создание новости Предосмотр новости Составной редактор Иллюстрация новости Копирование на другой сайт  
+**https://portal.hse.ru/nov**
+Раздел «Новости» предусматривает размещение репортажей о прошедших мероприятиях, сообщений о получении наград, профессиональном и общественном признании образовательных программ (для мегафакультетов), преподавателей и т.п.
+ Новость обязательно должна содержать: заголовок, краткую аннотацию, текст новости, рубрику, ключевые слова, при желании текст новости может сопровождаться иллюстрациями. 
+Недопустимо размещение английских текстов в русской версии сайта и русских текстов в английской версии! (Инструкция по размещению английских новостей в новостной ленте)
+Не надо размещать в ленту новостей анонсы мероприятий! Если вы не уверены, куда размещать информацию (в «Новости» или «Анонсы»), зайдите на главную страницу портала, там разделение на новости и анонсы представлено достаточно наглядно.
+Если у вас возникают вопросы технического характера по размещению новостей, пишите на portal@hse.ru.
+**Создание новости**
+Для добавления новости необходимо зайти в Редактору — Данные — Новости. Новая запись добавляется кликом по иконке  .
+Заголовок: кратко указывается самая суть события. Заголовок должен быть назывным и кратким. Не надо в заголовок ставить несколько предложений или одно длинное предложение с большим количеством подробностей. Примеры длины заголовков можно посмотреть в главной ленте портала. В заголовке не употребляются слова "внимание!", "важная информация", "дорогие друзья!" и т.д. Точка в конце заголовка не ставится. CapsLock (все заглавные буквы) не используем.
+Аннотация: (должна быть обязательно!) краткое изложение того, о чём читатель узнает из статьи. 2-3 предложения.
+Текст: (должен быть обязательно!) непосредственно тело новости. Подробно раскрывает суть события. Новость не может состоять из одного предложения, фотографий без подробного сопроводительного текста.
+Дублировать аннотацию в поле "Текст" не нужно! Если ваша аннотация повторяет первый абзац текста новости, вы ставите напротив поля «Отображать аннотацию» — «Нет».
+При копировании текста из Word и вставке его на сайт необходимо в обязательном порядке чистить формат.
+Обязательно выбираете рубрику и ключевые слова.
+Если имеющиеся рубрики не соответствуют тематике вашего сайта, напишите на portal@hse.ru, пришлите список необходимых рубрик, и мы заведем их специально для вашего сайта.
+Если необходимо, вы можете выбрать тип материала/статус новости/сферу деятельности (выбирайте то, что действительно соответствует содержанию новости). Эти разделы были разработаны для главной ленты hse.ru. Если они не подходят для новостей вашего подразделения, вы их пропускаете.
+Ключевые слова выбирайте в соответствии с содержанием вашей новости. Они в дальнейшем позволяют делать выборку новостей по тем или иным темам внутри вашего сайта.
+Ключевые слова и рубрики нужны для того, чтобы читатели могли по ним найти нужную или интересную им новость. Поэтому надо выбирать только те рубрики и ключевые слова, которые соответствуют тематике новости, иначе это будет просто набор рубрик и ключевых слов, по которым вашу новость не найдут.
+Необходимо нажать на «добавить ключевое слово», вписать необходимое вам слово, нажать «поиск», а затем на выбранное слово или словосочетание. Если вы не нашли нужного ключевого словам, вы можете ввести его в самостоятельно, и оно попадет в базу ключевых слов (настоятельная просьба: прежде чем это сделать, убедитесь, что нужное вам ключевое слово действительно отсутствует).
+**Предосмотр новости**
+Прежде чем выводить новость в ленту вашего сайта, посмотрите, пожалуйста, что у вас получилось. Для этого вам нужно воспользоваться функцией «Предосмотр». Ссылка расположена в редакторском интерфейсе рядом с заголовком новости.
+**Составной редактор**
+Если в новости вам требуется использовать сложную верстку, то вы можете воспользоваться составным редактором. Для этого в поле «Тип редактора» выбираем «составной»:
+Далее следуем инструкции по составной странице.
+**Иллюстрация новости**
+Обратите внимание, что картинки, используемые в новостях и на сайте в целом, должны размещаться с соблюдением закона об авторских правах. Т.е. это должны быть фото, либо сделанные непосредственно сотрудниками/студентами, либо приобретённые в фотоагентствах. Фото/картинки, найденные случайным образом на просторах интернета, недопустимы к размещению!
+Фото не является обязательным элементом новости. Фотография должна быть горизонтальной и быть хорошего качества. Если картинка плохого качества или она не несёт никакой смысловой нагрузки, не нужно загружать её в новость! Не нужно загружать в качестве иллюстрации новости на главной странице сайта сканы, скриншоты, баннеры, постеры, обложки, логотипы, портретные фото (где крупно одно лицо).
+Чтобы картинка появилась в ленте новостей вашего сайта, ее нужно загрузить в «Сплеш-картинка для новости», размер фото 1083*722:
+Если вы собираетесь разместить несколько изображений, надо воспользоваться опцией «Фотоальбом». Нажимаете кнопку «Добавить изображение», выбираете нужный файл и далее сохраняете новость. Либо вы можете воспользоваться функционалом составного редактора.
+Обратите ваше внимание, что все фото, размещаемые на портале, необходимо оптимизировать.
+**Копирование на другой сайт**
+Чтобы воспользоваться этой функцией, необходимо залогиниться на портале. После этого открываем нужную вам новость. Ссылка «Разместить в подразделении» находится справа от заголовка, если зайти в полный текст новости.
+В списке подразделений отображаются все подразделения, на которые у редактора есть права редактирования. Здесь нужно выбрать необходимое и затем нажать кнопку «Импортировать».
+Разместить новость можно двумя способами – «Ссылкой на оригинальную новость» и «Полным клонированием». В первом случае на сайте вашего подразделения появится лишь заголовок и аннотация, которые будут уводить на оригинальную новость. Вы не сможете ее редактировать. Во втором случае новость целиком копируется на сайт вашего подразделения, Вы сможете ее редактировать. Однако надо иметь в виду, что все изменения, которые будут вноситься в оригинальную новость, в вашей отражаться не будут. Например, если добавится перевод на английский язык, к новости, размещенной через «полное клонирование», он не подтянется.
+Если Вам необходимо убрать новость, размещенную «Ссылкой на оригинальную новость», Вам необходимо зайти в раздел «Новости» – «Импортированные новости» (ссылка справа), найти нужную новость, нажать слева на иконку «карандаш», далее нажать на «Убрать новость из подразделения».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/section-persons**
+На странице показываются все штатные сотрудники подразделения, проведенные в ЗиК (для Москвы) или ИС-ПРО (для кампусов). Подробнее про то, к кому обращаться в случае отсутствия трудустроенного в ВШЭ сотрудника написано здесь.
+Страница имеет автоматически формируемое техническое имя persons. Чтобы добавить автоматическую страницу «Сотрудники» на сайте необходимо в соответствующем пункте меню прописать адрес сайта/persons (например, для Управления развития и поддержки портала адрес страницы выглядит https://portal.hse.ru/persons). Заводить статическую страницу с таким адресом не нужно. 
+**Сортировка сотрудников по должностям на странице**
+Редактор подразделения имеет возможность изменить автоматическую сортировку сотрудников, установив сортировку по должностям. Для этого каждой должности внутри сайта подразделения необходимо установить свой порядковый номер. Например, Руководитель будет иметь порядковый номер 1, его заместитель — 2 (или любое другое число больше 1), профессор — 3.
+В этом случае на странице в алфавитном порядке будут показываться сначала люди с должностью Руководитель, потом люди с должностью Заместитель руководителя, потом — все сотрудники с должностью Профессор.
+В административном интерфейсе раздел можно найти по следующему пути: Данные → Должности. Для выставления порядкового номера необходимо кликнуть мышкой на значок «редактировать» и проставить соответствующий номер. 
+**Шаг 1**
+**Шаг 2**
+Обратите внимание, что данная страница имеет автоматический кэш — 4 часа. Если вы хотите сразу увидеть изменения, то пересохраните основную страницу подразделения.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/events**
 **https://portal.hse.ru/events**
@@ -1793,11 +1687,11 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/landing**
 **https://portal.hse.ru/landing**
@@ -1863,11 +1757,11 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/header-banner**
 **Простой вариант**
@@ -1888,11 +1782,11 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/instev**
 Вход в редакторский режим https://www.hse.ru/adm/  Логин и пароль такие же как, от вашего личного кабинета (ЕЛК).
@@ -1942,11 +1836,129 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>**https://portal.hse.ru/progs**
+**О шаблоне «Сайт образовательной программы»**
+Шаблон «Сайт образовательной программы» — один из самых сложных на портале. При формировании его страниц используется информация из различных баз данных университета (АСАВ, РУЗ, внутренние базы портала), поэтому в случае необходимости добавления/корректировки информации необходимы правки именно в этих базах данных.
+ Шаблон позволяет поставить на главную страницу сайта ОП любые блоки в любой последовательности в зависимости от этапа приемной кампании. При этом менять информацию на странице редактор сайта программы может самостоятельно, не обращаясь за помощью в службу поддержки портала (portal@hse.ru). Исключение – аннотация в шапке образовательной программы. Текст в ней выводится из базы данных «Каталог образовательных программ». Есть возможность создать турбо-версию сайта. Это помогает существенно увеличить трафик с мобильных устройств. Размещение SEO-оптимизированного текста (SEO - search engine optimization) на главной странице  служит для поднятия позиций сайта в результатах выдачи поисковых систем по определённым запросам пользователей. Обратите внимание, что SEO-оптимизация – это комплекс мероприятий по продвижению сайта, однако наибольшую роль играет качественный контент. 
+**Основные контакты**
+  Служба поддержки портала,  portal@hse.ru:  Получение редакторских прав Размещение видео на главной странице  (при наличии видео на Youtube) Включение разделов «Студентам» и «Выпускникам»  (при наличии наполненных страниц для разделов) Добавление ссылок в пункты меню, помеченные замочками, ссылки на «Общее меню» и страницу «Рейтинги» Общие технические вопросы по редактированию сайта, не вынесенные в пункты ниже  НИКИТИНА МАРИЯ КОНСТАНТИНОВНА,  УПРАВЛЕНИЕ РАЗВИТИЯ И ПОДДЕРЖКИ ПОРТАЛА  Английская версия сайта  Райан Сюзанна Халилевна,  Центр поддержки и мониторинга образовательных программ  Раздел «Руководство» (руководители, менеджеры)    Игнатова Наталия Генадиевна, Центр сервиса «Департамент»  Страницы «Рейтинги», «Курсы», «Преподаватели» Раздел «Документы образовательной программы»  Знак Светлана Александровна, Залесская Светлана Николаевна Управление развития образовательных программ  Раздел «Паспорт образовательной программы»  Аббасова Елена Сергеевна, Центр сервиса «Студент»  Страница «Число студентов и вакантные бюджетные места»  Редактор подразделения, реализующего программу  Размещение анонса в шапке программы  Шишков Олег Геннадьевич, Рзаева Карина Закировна Дирекция по маркетинговым коммуникациям  Съемка проморолика с участием академ. руководителя Размещение проморолика на Youtube-канале НИУ ВШЭ   
+**Основные документы**
+Стандарт оформления и наполнения интернет-страниц (сайтов) образовательных программ (бакалавриат, магистратура, специалитет) на корпоративном сайте (портале) Национального исследовательского университета «Высшая школа экономики»
+Положение об основной образовательной программе высшего образования
+ Быстрые ссылки  Как начать? Что делать, если программа новая и у нее еще нет сайта? Как подготовить SEO-оптимизированный текст на сайт Структура сайта образовательной программы Шапка сайта образовательной программы Размещение анонса в шапке сайта Главная страница программы Верхнее меню (разделы программы) Общее меню Создание новой страницы и нового пункта меню (и что делать, если пункт меню помечен «замочком») Адрес (Текстовые блоки) Учебный офис Социальные кнопки Буклет программы Турбо-версия Английская версия Таблицы Регистрационная форма  
+**Как начать?**
+Если вы никогда ранее не работали с с сайтом образовательной программы (в т.ч. предыдущей версии), получите права редактора, написав с корпоративной почты письмо в свободной форме на адрес portal@hse.ru (служба поддержки портала), указав ссылку на сайт программы, к которой вам необходимо доступ. Для получения редакторского доступа у вас должен быть открыт доступ в личный кабинет портала. Заявки можно присылать одним письмом. 
+**Что делать, если программа новая и у нее еще нет сайта?**
+Сайты открываются только для программ, утвержденных ученым советом ВШЭ (контент для сайта при этом лучше начать готовить заранее).
+**Какие материалы нужны для открытия сайта в базовой версии:**
+ Точное название программы на русском, для программ, реализуемых на английском языке, — на русском и английском Аннотация в шапку программы (не более 500 знаков), для программ, реализуемых на английском языке, — на русском и английском. Контакты: адрес с указанием города, телефон, e-mail Кому предоставить редакторские права (у сотрудника должен быть открыть доступ в личный кабинет на портале). 
+**Как подготовить SEO-оптимизированный текст на сайт**
+Необходимо определиться, готовы ли вы самостоятельно подготовить текст по техническому заданию, полученному от Управления развития и поддержки портала, или же вам нужны услуги копирайтера портала. Во втором случае сроки подготовки текста будут зависеть от общей загруженности внешнего копирайтера портала. 
+Работы по подготовке текста начинаются после получения службой поддержки портала (portal@hse.ru) заявки на подготовку технического задания для копирайтера и (если это необходимо) текста на сайт. В заявке необходимо указать адрес сайта или (для новых программ) приложить к письму концепцию программы, описание курсов и проч. документы, на основе которых можно составить представление о содержании программы.
+Обратите внимание, что наличие SEO-оптимизированного текста на сайте программы учитывается в KPI деканов при ежегодной проверке сайтов, которая обычно проходит в ноябре-декабре. Если программа англоязычная, SEO-оптимизации в обязательном порядке подлежат также тексты английской версии сайта.
+**Структура сайта образовательной программы**
+Сайт имеет жесткую структуру меню. Названия разделов изменить нельзя.
+ Главная страница Абитуриентам (для программ, ведущих набор в текущем году) Студентам (для программ, имеющих студентов) Выпускникам (для программ, имеющих выпускников, открывается по желанию программы) 
+Обязательные подразделы меню определяются Стандартом оформления и наполнения интернет-страниц (сайтов) образовательных программ.
+Если программе необходимо завести страницу и пункт меню, не определенный стандартом, то она может сделать это самостоятельно. Все страницы создаются редактором сайта самостоятельно, никаких запретов на это нет.
+Требования к содержанию сайта определены законом «Об образовании» и локальными актами университета.
+**Шапка сайта образовательной программы**
+В шапке образовательной программы размещаются:
+ Аннотация программы, объемом не более 500 знаков. Текст аннотации присылается представителями программы, размещает и вносит правки в текст (по просьбе ОП) служба поддержки портала; Кнопки обратной связи (например, "Задать вопрос о программе"). Опросные формы создает ОП, размещает кнопки в шапке служба поддержки портала. Чтобы ознакомиться с инструкцией по созданию опросной формы, перейдите по этой ссылке - https://portal.hse.ru/poll; Тизер (очень важный анонс, обычно – анонс дня открытых дверей). 
+Размещение тизера в шапке сайта.
+ Перед тем, как разместить тизер в шапке образовательной программы, необходимо разместить непосредственно сам анонс . Подробнее о размещении анонса. Сам тизер в шапку добавляется не на сайте программы, а на сайте подразделения, который реализует программу. Для этого необходимо войти в Редактору → Данные → Блоки→ Образовательные программы.   Проставляете дату события, заголовок (в заголовке прописываем название, например: «День открытых дверей», дополнительно прописывать дату или название программы не нужно!), ссылку на анонс. Обязательно ставите галочку «Активно» и проставляете дату, до которой тизер будет отображаться на программе. После этого кликаем «Выбрать образовательные программы». Откроется список со всеми программами (бакалаврскими и магистерскими), которые реализует подразделение. Проставляем галки напротив нужных и сохраняем. 
+**Главная страница программы**
+Главная страница программы редактируется Данные → Блоки → Общее → Главная страница. При открытии сайта служба поддержки портала создает базовую структуру страницы, поэтому совсем с нуля работать вам с нею не придется.
+Какие элементы есть на странице при открытии сайта:
+Метаинформация
+ Основные данные о программе. Состав элементов в блоки неизменен. Для русской версии — это срок обучения, форма обучения, количество мест, язык обучения, информация об аккредитации. В английской версии — это срок обучения, форма обучения, стоимость обучения, язык обучения, информация об аккредитации. Все данные выводятся из базы данных портала, в которую они вносятся после утверждения Ученым советом университета. В случае обнаружения ошибки напишите на portal@hse.ru, предварительно проверив, что данные на сайте программы действительно отличаются от официальных данных на сайтах приемной комиссии бакалавриата или магистратуры. Если вы не согласны с информацией на этих сайтах, то обращайтесь к коллегам из Приемной комиссии.  Исключение составляет информация о международной аккредитации, профессионально-общественной аккредитации, независимой оценке качества образования (при наличии). Данная информация размещается и правится редактором сайта в разделе Данные → Блоки → Аккредитация Данные о стоимости показываются в английской версии виде диапазона цен в том случае, если есть точные данные о стипендии для иностранцев в зависимости от полученных баллов. Если у программы особые условия предоставления скидок, то по умолчанию стоит полная стоимость программы, но по письму на адрес службы поддержки portal@hse.ru может быть добавлено примечание об особых условиях предоставления скидок в формулировке: «HSE Scholarships for International Applicants» 
+Университеты-партнеры образовательной программы
+ Данные выводятся из базы портала. Если вы хотите поменять или добавить партнера, на portal@hse.ru нужно прислать название университета, ссылку на его сайт и логотип. Максимальное число партнеров на главной – 5. Если необходимо показать все возможные партнерские отношения, то это необходимо сделать на отдельной странице Партнеры / Partners раздела главное. Подробнее см. Стандарт. 
+Информация об ОП (раскрывающиеся блоки)
+ Редактирование блока осуществляется в разделе Данные → Блоки → Главная страница → Информация об ОП (аккордеон). Блок используется при формировании турбо-версии, поэтому не подразумевает добавления в нее графической информации, затрудняющей загрузку страницы на мобильных устройствах. Обычно в этом разделе стоит SEO-оптимизированный текст. 
+Видео (опционально)
+ На главной странице программы можно разместить проморолик с выступлением академического руководителя. Статистику просмотров видеороликов можно посмотреть здесь. Обычно работы по съемке видеоролика организуются реализующим подразделением самостоятельно. В случае невозможности снять видео силами подразделения, можно обратиться в Дирекцию по маркетинговым коммуникациям и продвижению  к Шишкову Олегу Геннадьевичу или Рзаевой Карине Закировне. Если у программы уже есть готовый ролик, то его необходимо залить на YouTube-канал подразделения или же YouTube-канал университета. В последнем случае обратитесь к Семеновой Алине Викторовне. Для размещения проморолика на сайте программы пришлите ссылку на него в YouTube на адрес службы поддержки портала portal@hse.ru. 
+Важные объявления
+ Используются для акцентирования важных событий/новостей программы. Помните! Важное объявление не должно содержать более 70 символов, оно может занимать только одну строку на экране. Все подробности перечисляются по ссылке. Важное объявление может быть одно, максимум — два. Не нужно размещать в важных объявлениях ссылки на мероприятия. Используйте для этого функционал анонсов. Важные объявления оформляются ссылками на отдельные страницы как самой программы, так и любой другой страницы портала или внешнего ресурса. Данные редактируются в разделе Данные → Блоки → Важные объявления. Нажмите «Важные объявления» → «Добавить объявление». Заполняете поле «Текст». В поле «Ссылка» добавьте адрес страницы, на которую будет перенаправлен пользователь при нажатии на текст объявления. Информация из поля «Дата» будет отображаться левее ссылки объявления и подходит для уточнения времени события или размещения объявления (поле можно не заполнять). После этого обязательно поставьте галку «Объявление активно»! В поле «до» укажите дату, до которой данное объявление будет выводиться на главной странице программы. Нажимаете «Сохранить», объявление добавлено! 
+Мероприятия
+ Раздел «Анонсы/мероприятия» – это раздел, который предусмотрен для каждой образовательной программы. Он всегда располагается по адресу: /announcements. Раздел «Мероприятия» (анонсы) предусмотрен для анонсирования предстоящих событий, значимых для всей программы в целом. Например, предстоящая лекция/мастер-класс учёного, цикл лекций/семинаров, конференции, конкурсы для студентов, зимние/летние школы, встречи с работодателями, дни открытых дверей, защиты и предзащиты. Всё то, что значимо и для студентов, и для абитуриентов программы. Здесь же могут быть размещены объявления о конкурсах, грантах или приглашения на летние/зимние школы (мероприятия с определенным сроком подачи заявок). При добавлении анонса обращайте особое внимание на выбор в поле «Раздел образовательной программы». Можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуально то или иное сообщение.  Инструкция по размещению анонсов находится по адресу: https://portal.hse.ru/instann Анонсирование дней открытых дверей Как необходимо размещать информацию на сайтах факультетов и образовательных программ: 1. В случае если день открытых дверей проводится сразу для нескольких образовательных программ, то сам анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). После этого на сайте факультета необходимо разместить ссылку на этот анонс, который будет выводиться в шапке образовательных программ в виде тизера. Обратите внимание, что название анонса не должно представлять собой развернутое предложение, достаточно просто написать «День открытых дверей». Дополнительно анонс дня открытых дверей можно разместить в анонсах в разделах «Главное» и «Абитуриентам» сайта образовательной программы. Полностью копировать анонс мероприятия на сайт программы также не нужно, достаточно воспользоваться функционалом «Разместить в подразделении» (выберите вариант: Ссылка на оригинальный анонс). Если день открытых дверей проводится только для одной программы, то сам анонс размещается непосредственно на сайте соответствующей программы в разделах «Главное» и «Абитуриентам». Также анонс размещается на сайте факультета в разделе «Анонсы» (Мероприятия). Для этого используется функционал «Разместить в подразделении» 3. В том случае если у мероприятия обширная программа (например, как здесь https://www.hse.ru/dod2021), то для мероприятия может быть создан отдельный ресурс. В этом случае при размещении анонсов на сайтах факультета, программы, а также из тизера ставится гиперссылка на сайт мероприятия. Обычно в этом случае речь идет о факультетском дне открытых дверей, на котором так или иначе присутствуют все программы.  Для создания такой страницы нужно отправить запрос на адрес portal@hse.ru и приложить к письму наполнение для сайта.  
+Новости
+ Раздел «Новости» предусматривает размещение развёрнутых материалов о прошедших, состоявшихся событиях. Здесь, например, могут быть размещены новости о том, как именно прошли события, анонсируемые в «Мероприятиях», информация о том, что студенты выиграли какие-либо олимпиады/гранты, заключение договоров с иностранными университетами о программах обмена, исследования, касающиеся тематики программы, поздравления со значимыми событиями/достижениями… При добавлении новости обращайте особое внимание на выбор в поле «Раздел образовательной программы». Таких разделов четыре: главное, абитуриентам, студентам, выпускникам, можно выбрать как один, так и несколько разделов. Не нужно проставлять сразу все разделы. Подумайте, для кого действительно будет актуальна то или иная новость. В случае, если не выбран ни один из разделов программы, добавленная информация не будет отображаться на сайте программы. Инструкция по размещению новостей. 
+Похожие программы
+ Внизу главной страницы программы выводится список программ, реализуемых ВШЭ по такому же направлению обучения. Однако список отображаемых программ можно изменить. Редактирование – Данные – Блоки – Бакалаврская программа – Другие образовательные программы.  Для изменения списка программ заходим в «Другие образовательные программы», нажимаем «Добавить». В открывшемся окне вводим название программы, нажимаем «Найти». В результатах поиска выбираем нужную программу и кликаем ОК. После того как будет добавлена хотя бы одна программа в данный блок, с главной страницы пропадут все программы, которые выводились автоматически, и будут выводиться только те, которые заданы вручную через блок «Другие образовательные программы». 
+Вокруг нас (социальный блок)
+ Если на странице ваших профилей в социальных сетях идёт активная жизнь, или же в социальных сетях есть материалы, интересные для абитуриентов и студентов программы, ссылки на актуальные посты и записи можно выводить непосредственно на главной странице программы. Для этого предусмотрен блок «Вокруг нас». Обратите внимание, что добавлять ссылку на каждый новый интересный пост и убирать неактуальные посты необходимо вручную!   В разделе «Блоки» выбираем «Вокруг нас (социальный блок)». Добавляем заголовок блока.  Добавляем записи, заполняя необходимые поля. После этого проставляем галку «Включено» и нажимаем «Сохранить». Обновляем главную страницу (кнопка F5 на клавиатуре) и проверяем, как отобразился блок социальных сетей.  
+Меню (правая колонка)
+ Редактируется через Редактору → Блоки → Образовательная программа → Новые меню → Меню главной страницы. Может дублировать пункты меню из раздела Главное, может содержать какие-то другие важные пункты на усмотрение программы. Заполняется менеджером программы, отображается на главной странице сайта программы в одном из самых кликабельных мест (справа, в верхней части главной страницы).  
+Руководство программы (руководители, менеджеры)
+ Раздел редактируется Центром поддержки и мониторинга образовательных программ. По вопросам внесения изменений необходимо обращаться к Сюзанне Райан. 
+**Верхнее меню (разделы программы)**
+В верхнем меню находятся 4 раздела: «О программе», «Абитуриентам», «Студентам», «Выпускникам». Чтобы попасть на главную страницу каждого из разделов, необходимо щёлкнуть на название вкладки.
+Разделы «О программе» и «Абитуриентам» появляются в меню по мере их наполнения в разделе «Блоки» → «Главное» административного интерфейса. Разделы «Студентам» и «Выпускникам» для программы включаеют или отключает только служба поддержки портала. Если на программе необходимо включить или отключить раздел «Студентам» и/или «Выпускникам», пишите на portal@hse.ru.
+Раздел О программе
+ В данном разделе размещается общая информация о программе. В раздел «О программе» должны входить следующие пункты:  О программе* (статстраница с техническим именем about) Специализации (при наличии; специализации добавляются как подпункты меню) Партнеры (статстраница с техническим именем partners). Рассказ о партнерах программы — зарубежных, российских, внутренних (подразделения ВШЭ, не относящиеся к факультету). Пункт не является обязательным. Достижения студентов (статстраница с техническим именем success). Пункт создаётся в том случае, если программа готова делать сводный текст о достижениях студентов, вести статистику. Пункт не является обязательным. Выпускники (статстраница с техническим именем alumni). На странице рассказывается о выпускниках программы, приводится статистика. Пункт не является обязательным. Научно-исследовательский семинар (статстраница с техническим именем seminar). Пункт не является обязательным.  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется в Редактору → Блоки → Образовательная программа → Новые меню → Главное   Создание статической страницы и что делать, если пункт меню помечен «замочком» 
+Раздел Абитуриентам (если есть набор)
+ Раздел «Абитуриентам» доступен по ссылке /admission. Центральную часть данного раздела составляет паспорт программы. Также на странице может выводиться видео о программе, новости, мероприятия и важные объявления при наличии. Вся информация, представленная в паспорте программы, редактируется службой поддержки портала. В случае размещения некорректной информации необходимо отправить запрос о внесении изменений на portal@hse.ru.    В раздел «Абитуриентам» входят следующие обязательные пункты:  Траектории поступления (статстраница с техническим именем tracks) Будущая профессия (статстраница с техническим именем career) Подготовка (статстраница с техническим именем requirements)  Важно! Указанные статические страницы имеют одинаковые технически имена как в русскоязычной, так и в англоязычной версии программы. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Абитурентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» 
+Раздел Студентам (если есть студенты)
+ Раздел «Студентам» программы доступен по ссылке /students. В нём обязательно представлено меню, предусмотренное для всех программ (верхний серый блок) и доска объявлений. При наличии у программы новостей и мероприятий, ориентированных на студентов, они также выводятся на главной странице раздела «Студентам».  Серый блок В серый блок выносятся тематические ссылки, среди которых есть обязательные и те, которые программа может добавить сама. Существует ограничение на то, сколько можно добавить ссылок в блок. 1 блок – не более 7 ссылок всего.  Для каждого филиала набор ссылок может быть свой. Ссылки по умолчанию (есть на всех программах): Блок 1. Студенческая жизнь Студенческие организации ВШЭ (https://studlife.hse.ru/studentlife) Спорт (http://sport.hse.ru/) Студенческий совет ВШЭ (http://studsovet.hse.ru/) Центр развития карьеры (http://career.hse.ru/) Блок 2. Социальная сфера Стипендии (http://www.hse.ru/scholarships/) Социальная поддержка (http://www.hse.ru/org/hse/aup/social/) Служба психологической помощи (http://www.hse.ru/cpc/studenti) Общежития (http://www.hse.ru/dormitory/) Блок 3. Информационная среда LMS (http://lms.hse.ru/) Антиплагиат (http://www.hse.ru/org/hse/antiplagiat_info/) Справочник учебного процесса (http://www.hse.ru/studyspravka/) Библиотека (http://library.hse.ru/) Каждая из колонок редактируется в соответствующем разделе Блоков:  Те пункты колонок, которые являются обязательными для всех программ, не отображаются в редакторском интерфейсе программы. Их редактирует только служба поддержки портала. И в этом случае названия пунктов меняются на всех программах сразу. В редакторском интерфейсе программы отображаются только те пункты колонок, которые менеджеры программы добавляют/редактируют самостоятельно. В раздел «Студентам» входят следующие обязательные пункты:  Рейтинги* (автоматическая страница с техническим именем ratings) Курсы по выбору и проектная работа (http://electives.hse.ru/) Рекомендованные онлайн-курсы (MOOCs) (статстраница с техническим именем moocs) Студенческая мобильность (cтажировки, программы по обмену и проч.) (статстраница с техническим именем mobility) Практическая подготовка (статстраница с техническим именем internships) Каталог ВКР** (автоматическая страница с техническим именем diplomas) Итоговая аттестация (если актуально) (статстраница с техническим именем assessment)  *Страница «Рейтинги» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/ratings. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. **Страница «Каталог ВКР» формируется автоматически на основе данных LMS, статическую страницу для раздела создавать не нужно. Страница доступна по адресу: адрес программы/diplomas. Раздел редактируется  в Редактору → Блоки → Образовательная программа → Новые меню → Студентам  Создание статической страницы и что делать, если пункт меню помечен «замочком» Доска объявлений Доска объявлений доступна по адресу: /blackboard Используется для коротких объявлений по текущему учебному процессу: изменения в расписании, отмена и перенос занятий, вопросы подготовки письменных работ, консультации к экзаменам, разнообразные оповещения о справках и пр. Подробная инструкция по настройке и работе с доской объявлений представлена здесь. 
+Раздел Выпускникам (если есть информация для выпускников)
+ Раздел отображается в верхнем меню программы в том случае, если он заполнен (есть страницы, относящиеся к разделу, и в меню «Выпускникам» проставлены ссылки на данные страницы). Непосредственно на главной странице раздела могут располагаться новости и анонсы. В раздел могут входить следующие пункты:  Вакансии Клуб выпускников/Встречи выпускников Пожертвования в Фонд целевого капитала  Меню раздела редактируется в Редактору – Блоки – Новые меню – Выпускникам.  
+**Общее меню**
+Показывается в правой колонке на всех страницах сайта программы. Чтобы вывести эти пункты на сайт, нужно написать на portal@hse.ru. Предварительно необходимо проверить, показывается ли информация на соответствующих страницах.
+Учебные курсы
+ Страница генерируется автоматически по адресу /courses на основе данных LMS. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
+Преподаватели
+ Страница генерируется автоматически по адресу /tutors на основе данных о нагрузке преподавателей в АСАВ. Если на странице отображаются некорректные данные, необходимо обратиться в дирекцию основных образовательных программ к Игнатовой Наталии Генадиевне. 
+Число студентов и вакантные бюджетные места
+ Автоматическая страница, доступна по адресу /vacant. Данные вносятся через редакторский интерфейс. Для этого с главной страницы сайта программы необходимо зайти в Редактору → Данные → Блоки → Образовательная программа → Данные о бюджетных / вакантных местах. Если данные не обновлены или показываются некорректно, необходимо обратиться в Дирекцию основных образовательных программ к Аббасовой Елене Сергеевне. Информация обновляется не менее четырёх раз в год. 
+Документы
+ Раздел располагается по адресу /documents. Часть документов выводится на страницы автоматически из АСАВ, часть вносится менеджерами. Структура документов по образовательной программе выглядит следующим образом и включает в себя:  Паспорт образовательной программы — изменяемая часть документов об образовательной программе. Учебные планы образовательной программы, календарные учебные графики — документы, автоматически загружающиеся из АСАВ. Оценочные материалы, Методические материалы и Иные компоненты образовательной программы — заполняются ответственным от программы по редактированию страницы образовательной программы.   Инструкция по заполнению раздела «Документы» Для внесения информации в раздел «Документы» надо зайти на сайт своей образовательной программы. Далее Редактору → Блоки → раздел «Документы образовательной программы» При нажатии на раздел Документы откроется вот такое окно:  1. Программа практики (ссылка на страницу с описанием практики – добавляете самостоятельно) 2. Оценочные материалы образовательной программы – нажимаете кнопку Добавить, размещаете ссылки на уже имеющиеся документы, если есть необходимость (например, программу госэкзамена) 3. Методические рекомендации по подготовке ВКР (ссылка на файлы добавляется обязательно ); 4. Методические материалы образовательной программы – могут добавляться:  Требования к организации и результатам проектной и научно-исследовательской деятельности студентов  (ссылки на файлы); Методические рекомендации по подготовке курсовых работ (ссылки на файлы)  5. Перечень тем ВКР (ссылка на базу ВКР прошлых лет, если уже были выпуски, или прикрепить файл с примерными темами ВКР) - ОБЯЗАТЕЛЬНО - на тему ВКР, которые у вас уже есть; 6. Иные компоненты образовательной программы – добавляются ссылки на уже имеющиеся документы:  Перечень тем курсовых работ (если предусмотрены – прикрепляется файл с примерами тем курсовых), Перечень тематики проектов для студентов (если предусмотрены – прикрепляется файл с примерами тем проектов)  Инструкция по заполнению Паспорта образовательной программы Необходимо зайти на портал на страницу своей образовательной программы в качестве Редактора, далее – Блоки – Паспорт программы  Приступаем к заполнению разделов Паспорта: В поле «Утверждение программы» должно быть поле с реквизитами документа, утвердившего программу, например, приказ от 15.07.2014 № 6.18.1-01/1507-07, или, для тех, кто «новенький» - протокол заседания ученого совета № 10 от 28.09.2018 г. Заполняется строго по инструкции: ДД.ММ.ГОД Обращаем внимание на реквизиты утверждения программы и паспорта (не только даты, но и документ, которым утверждалась программа)  В поле «Дата обновления паспорта» должны быть дата обновления документа и реквизиты соответствующего документа. Заполняется строго по инструкции: ДД.ММ.ГОД Например, 26.08.2019, протокол № 1  В поле «Количество зачетных единиц» вносится значение объема Вашей образовательной программы - з.е.  В поле «Конкурентные преимущества программы» берем соответствующий текст из своей программы. В поле «Характеристика профессиональной деятельности и перечень профессиональных компетенций выпускника» берем текст из своей программы в соответствии с стандартом. В поле  «Характеристики образовательных модулей программы» берете текст из своей программы в соответствии с учебным планом.  После заполнения всех полей нажимаете на кнопку «Сохранить» и информация отразится в паспорте.  Вопросы по разделу «Паспорт образовательной программы» необходимо направлять в Управление развития образовательных программ: Знак Светлана Александровна и Залесская Светлана Николаевна. 
+Расписание
+ Страница генерируется автоматически на основе данных РУЗ. Доступна по адресу /timetable. Если расписание загружено в РУЗ, то для формирования автоматической страницы с адресом timetable необходимо в редакторском интерфейсе в разделе «Расписания» (с главной страницы программы заходим в Редактору - Данные - Блоки - Настройки - Расписания) проставить галку «Отображать страницу расписаний».  
+Академический совет
+ Страница академического совета создается и редактируется через раздел «Академический совет» в Блоках:  Здесь вы сможете добавить как сотрудников ВШЭ, так и внешних людей.  Если сотрудник из ВШЭ, вписываете его фамилию, нажимаете «Найти», в открывшемся окне выбираете нужную персону. Должность можете добавить ту, которая предлагает система, либо вписать должность самостоятельно. Менять порядок расположения членов академического совета можно, просто перетаскивая мышкой ту или иную запись на нужное место. Обратите внимание! В данном блоке прописывать название группы персон «Академический совет» не нужно! После того как вы заполнили блок, проверьте, как страница совета выглядит: для этого нужно в адресной строке прописать адрес вашей программы/academ_council. Когда вы убедитесь, что все в порядке, напишите на portal@hse.ru c просьбой открыть пункт меню. 
+**Создание новой страницы и нового пункта меню **
+Прежде чем создавать страницы, прочитайте информацию, касающуюся страниц в разделе «Верхнее меню (разделы программы)».
+Прежде чем добавить новый пункт меню, необходимо создать статическую страницу с наполнением. В этом вам поможет инструкция по созданию новой статической страницы. При добавлении страницы обращайте особое внимание на выбор в поле «Раздел образовательной программы», в этом случае, например, при клике на раздел «Подготовка» пользователь будет оставаться в разделе «Абитуриентам». Страницы бывают простые и составные. Если вам необходимо просто аккуратно разместить текст или текст + таблицу, то достаточно простой страницы. Если вы хотите добавить фото преподавателей/студентов, кнопки и проч., то лучше воспользоваться составной страницей. 
+Затем выбираем меню («Главное», «Абитуриентам», «Студентам»), в котором будет располагаться ссылка на статическую страницу, нажимаем «Добавить группу», прописываем название группы (пункта меню) и ссылку на статстраницу, сохраняем.
+Если для какого-то пункта предусмотрено подменю, внутри группы кликаем «Добавить ссылку», прописываем название страницы и ссылку на неё, сохраняем.
+Обратите внимание, если у группы стоит символ «Замок», то менеджер программы не может редактировать данный пункт меню (однако может создать и редактировать непосредственно страницу). Для внесения измен</t>
+        </is>
+      </c>
+    </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/newdesignbb**
+Чтобы включить доску объявлений на сайте образовательной программы, необходимо открыть блок «Доска объявлений» (Данные −&gt; Блоки) и поставить соответствующую галочку.
+В этом блоке можно добавить новые рубрики и фильтры. Обратите внимание, что по умолчанию доски объявлений содержат ряд типовых, часто встречающихся рубрик. Каждое объявление в обязательном порядке должно быть привязано хотя бы к одному фильтру (по умолчанию это курсы) и хотя бы к одной рубрике.
+Программам, которые имеют несколько специализаций, мы рекомендуем добавить дополнительный фильтр (не рубрику) «Специализации», чтобы иметь возможность публиковать объявления для студентов, обучающихся по разным трекам.Чтобы добавить новое объявление, в меню личного кабинета (hse.ru/user) в разделе «Мои задачи» редактор сайта образовательной программы должен выбрать пункт «Объявления на досках объявлений».
+На открывшейся странице будут доступны ссылки на добавление новых объявлений. Ниже находится список размещенных ранее объявлений (если таковые есть). 
+Обратите внимание: если вы являетесь редактором сайтов нескольких программ, то при создании нового объявления следует выбрать нужную доску из списка.
+Что не следует делать:
+Создавать фильтры и темы, не несущие смысловой нагрузки. К таким, например, относятся: «Важная информация», «Важно», «Не пропустите», «Всем».
+Использовать при написании заголовков только прописные (заглавные) буквы Неправильно: ОБНОВЛЕНО РАСПИСАНИЕ Правильно: Обновлено расписание
+Пренебрегать форматированием текста. Текст с большим количеством пробелов, интервалов и т.п. неудобно читать.
+Все материалы, связанные с образовательной программой, необходимо размещать на сайте этой программы. Например, расписание должно находиться на сайте образовательной программы, а не на сайте факультета.
+Инструкция по редактированию сайтов образовательных программ размещена здесь: http://portal.hse.ru/progs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/dpo_new**
 **https://portal.hse.ru/dpo_new**
@@ -2104,87 +2116,11 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/pay**
-На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес underground@hse.ru. Срок оказания услуги — 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.
-**Что нужно указать в заявке**
-Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:
-Номер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.
-Наименование подразделения, которое будет осуществлять прием платежей;
-Шифр подразделения по ИС-ПРО;
-Адрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);
-Список электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки отчета по произведенным оплатам;
-Сроки приема платежей;
-Включен ли в сумму платежа НДС или нет;
-Требуется ли англоязычная версия формы;
-Список категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы платежей в рублях;
-Текст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);
-При необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;
-Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.
-Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.
-Важно!• Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора платежей суммы к оплате указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.• Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается. Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.
-**Варианты форм оплаты**
-Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:
-</t>
-        </is>
-      </c>
-    </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/brandbook_html_colours**
-Данные обозначения можно использовать при оформлении лендингов: для цвета подложки в шапке и основной колонке (контент-блок), цвета подложек в виджетах «Набор с выпадайками» и «Табы с карточками», виджетах «Цифра дня», «Плашка с цифрой», «Хронология», фонов виджетов «Программы», «Карусель», «Цифры», «Цифры и факты», «Ссылки», «Мероприятия», «Публикации», а также мобильного тулбара.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">**https://portal.hse.ru/analytics**
-На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.
-Вопросами, связанными с посещаемостью страниц портала, занимается Отдел веб-аналитики и моделирования.
-**Доступ к аналитике**
-**Предоставление доступа для специалистов по привлечению трафика или рекламных агентств**
- Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). 
-**Предоставление доступа сотрудникам ВШЭ**
-Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.
-Доступ предоставляется в течение одного рабочего дня.
-Запрос на предоставление доступа
-**Как узнать посещаемость сайта**
-**В Яндекс.Метрике**
-Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, — использовать сервис стандартных отчетов «Заголовки страниц».
-В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу https://yandex.ru/support/metrika/
-**В Google Analytics**
-В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение → Контент сайта → Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).
-Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток. Подробная пользовательская инструкция Google Analytics находится по адресу https://support.google.com/analytics/
-**Как узнать число скачиваний файлов**
-**В Яндекс.Метрике**
-Стандартный отчет формируется так: Отчеты → Стандартные отчеты → Содержание → Загрузки файлов.
-Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.
-**В Google Analytics**
-В меню сервиса выбирается вкладка Поведение → События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).
-Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/elibrary**
 С 2017 года в вашем распоряжении есть полный набор инструментов, предоставляемых НЭБ/РИНЦ. С их помощью можно уточнить и улучшить ваши показатели в РИНЦ. Большинство операций вы можете выполнить самостоятельно – и никто кроме вас не сможет это сделать должным образом. Но в некоторых случаях необходимо обратиться к представителям подразделений.
@@ -2233,11 +2169,11 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">**https://portal.hse.ru/aspresponsible**
 **https://portal.hse.ru/aspresponsible**
@@ -2268,6 +2204,70 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/analytics**
+На портале НИУ ВШЭ установлены счетчики Google Analytics и Яндекс.Метрика. C их помощью можно узнать количество посещений сайта, проанализировать действия пользователей, понять, как они перешли на ту или иную страницу. Доступна также статистика скачивания файлов.
+Вопросами, связанными с посещаемостью страниц портала, занимается Отдел веб-аналитики и моделирования.
+**Доступ к аналитике**
+**Предоставление доступа для специалистов по привлечению трафика или рекламных агентств**
+ Доступ предоставляется в отдельное представление Google Analytics. В выделенном представлении присутствуют данные отдельного поддомена. Настройки в представлении производятся специалистами по привлечению трафика или РА посредством GTM (Google Tag Manager). 
+**Предоставление доступа сотрудникам ВШЭ**
+Доступ предоставляется для сотрудников ВШЭ в Google Analytics или Я.Метрику без ограничений.
+Доступ предоставляется в течение одного рабочего дня.
+Запрос на предоставление доступа
+**Как узнать посещаемость сайта**
+**В Яндекс.Метрике**
+Самый простой способ узнать, сколько человек посетили страницу сайта вашего подразделения или мероприятия через Яндекс.Метрику, — использовать сервис стандартных отчетов «Заголовки страниц».
+В поле поиска задается название страницы. В результирующей таблице содержатся два значения для указанного временного диапазона: число просмотров (загрузок страницы) и число посетителей (количество уникальных людей, пришедших на вашу страницу). Подробная пользовательская инструкция Яндекс.Метрики доступна по адресу https://yandex.ru/support/metrika/
+**В Google Analytics**
+В меню сервиса, расположенном в левой части экрана, выбирается вкладка Поведение → Контент сайта → Все страницы. В строке поиска указывается url-адрес нужной страницы без указания сетевого протокола (https://).
+Для увеличения точности анализа нужно передвинуть соответствующий бегунок вверху экрана под строками выбора дат, а также выбрать более узкий временной промежуток. Подробная пользовательская инструкция Google Analytics находится по адресу https://support.google.com/analytics/
+**Как узнать число скачиваний файлов**
+**В Яндекс.Метрике**
+Стандартный отчет формируется так: Отчеты → Стандартные отчеты → Содержание → Загрузки файлов.
+Задаем необходимый временной промежуток, под графиком выбираем URL, загрузки файлов с которого нас интересуют.
+**В Google Analytics**
+В меню сервиса выбирается вкладка Поведение → События → Страницы. В строке поиска указывается url-адрес страницы, на которой находятся ссылки на файлы, без указания сетевого протокола (https://).
+Выбирается категория событий Download. Результирующая таблица показывает число скачанных с этой страницы файлов за выбранный промежуток времени.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**https://portal.hse.ru/pay**
+На портале можно организовать прием платежей за участие в проводимых подразделениями НИУ ВШЭ мероприятиях. Заявка на создание формы приема платежей направляется руководителем подразделения на адрес underground@hse.ru. Срок оказания услуги — 2 рабочих дня с момента получения полного пакета необходимых сведений от заказчика при условии создания стандартной формы.
+**Что нужно указать в заявке**
+Обратите внимание, что по требованию финансового блока создание формы для приема платежей возможно только при наличии подписанного приказа на проведение мероприятия. Приказ создает подразделение-организатор мероприятия; документ согласуется с руководителями в соответствии с их полномочиями. Если доходы или расходы по мероприятию требуют проставления финансовых аналитик, в согласовании также участвует ПФУ. Копию договора необходимо приложить к заявке. В ней нужно указать:
+Номер учетного договора от ПФУ (номер БЭСТ), по которому будет вестись прием средств;Для учета поступающих средств по мероприятию в ИС-ПРО создается управленческий договор. Договор создается подразделением самостоятельно, если подразделение имеет доступ в ИС-ПРО с соответствующими правами, либо ответственным работником ПФУ.
+Наименование подразделения, которое будет осуществлять прием платежей;
+Шифр подразделения по ИС-ПРО;
+Адрес сайта в зоне hse.ru, где будет размещена страница мероприятия (желательно указать также адрес страницы с описанием особенностей оплаты);
+Список электронных почтовых адресов ответственных лиц в домене hse.ru для ежедневной выгрузки отчета по произведенным оплатам;
+Сроки приема платежей;
+Включен ли в сумму платежа НДС или нет;
+Требуется ли англоязычная версия формы;
+Список категорий участников (с переводом на английский язык при необходимости создания формы на английском языке) и соответствующие им суммы платежей в рублях;
+Текст договора-оферты, который будет размещен на странице формы приема платежей (его можно согласовать с юристами);
+При необходимости: бланки платежного извещения для оплаты участниками в валюте (в рублях) через банк для размещения на странице мероприятия;
+Если форма платежа нужна не для разового мероприятия, пожалуйста, добавьте в заявку информацию о типе платежа: оплата обучения, оплата проживания, оплата прочих услуг либо новый вид оплаты по договоренности с ПФУ и УБУ.
+Взаимодействие с участниками мероприятия проводится на основании договора-оферты, который должен быть размещен на странице мероприятия. В случае необходимости предоставления участникам мероприятия каких-либо подтверждающих документов их перечень необходимо в обязательном порядке предварительно согласовать с бухгалтерией НИУ ВШЭ.
+Важно!• Планируйте расценки на участие в мероприятии с учетом того, что на странице сбора платежей суммы к оплате указываются только в рублях, указание сумм в иностранных валютах не допускается, в том числе для иностранных участников.• Банк удерживает комиссию от суммы платежа. Комиссия с карт Сбербанка не взимается. Актуальный размер комиссии зависит от условий банка-эмитента карты платежа. По требованию банка выделять комиссию в сумме платежа на странице оплаты за мероприятие нельзя.
+**Варианты форм оплаты**
+Для стандартной формы оплаты допускается наличие нескольких категорий участников, каждой из которых может быть присвоена отдельная сумма к оплате. Например, для сотрудников НИУ ВШЭ - X руб., для иностранных граждан - Y руб. Автоматическая проверка статуса участника в момент оплаты не производится. Стандартная форма оплаты выглядит так:
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
